--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B42EFB-17A7-4560-A7AF-2F3533589956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9711F86-DE7B-4E15-86DB-8EEAFCC6C4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="1155" windowWidth="23820" windowHeight="13485" tabRatio="649" activeTab="6" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="3300" yWindow="1005" windowWidth="23115" windowHeight="13800" tabRatio="649" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,17 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
     <sheet name="22 Teams" sheetId="9" r:id="rId5"/>
     <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId6"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId7"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId8"/>
-    <sheet name="Templates" sheetId="4" r:id="rId9"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId10"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId11"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId8"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId9"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId10"/>
+    <sheet name="Templates" sheetId="4" r:id="rId11"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId12"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$H$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -98,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="367">
   <si>
     <t>Name</t>
   </si>
@@ -406,7 +409,1290 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">EXEC uspQueryCalcTeamStrength ==&gt; Insert into </t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamStrength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will have Team's Current TS stats as of that Date</t>
+    </r>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>ProjectedPts</t>
+  </si>
+  <si>
+    <t>TmTotals * PtsPct</t>
+  </si>
+  <si>
+    <t>tAwayGB10</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>public LoadBoxScores(string LeagueName,  DateTime StartGameDate)</t>
+  </si>
+  <si>
+    <t>public LoadBoxScores(string LeagueName)</t>
+  </si>
+  <si>
+    <t>Called by Constructor</t>
+  </si>
+  <si>
+    <t>Main Processing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LoadTodaysRotation()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">private void  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(string LeagueName,  DateTime StartGameDate)</t>
+    </r>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>LA Clippers</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Houston Rockets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoenix Suns </t>
+  </si>
+  <si>
+    <t>Conf</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>DB Team</t>
+  </si>
+  <si>
+    <r>
+      <t>public int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LoadBoxScore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(DateTime GameDate)  </t>
+    </r>
+  </si>
+  <si>
+    <t>RotationDO.PopulateRotation From DB</t>
+  </si>
+  <si>
+    <t>Get BoxScore from Covers</t>
+  </si>
+  <si>
+    <t>foreach Venue</t>
+  </si>
+  <si>
+    <t>BoxScoreDO.InsertBoxScores(BoxScoresDTO);</t>
+  </si>
+  <si>
+    <t>BoxScoreDO.InsertAwayHomeRowsBoxScoresLast5Min</t>
+  </si>
+  <si>
+    <t>END foreach Venue</t>
+  </si>
+  <si>
+    <t>?? Insert L5Min Rows - Away &amp; Home</t>
+  </si>
+  <si>
+    <t>oAdjustments.ProcessDailyAdjustments</t>
+  </si>
+  <si>
+    <t>foreach MUP</t>
+  </si>
+  <si>
+    <t>END foreach MUP</t>
+  </si>
+  <si>
+    <t>// For Each Matchup in Rotation &amp; Venue</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>GameDate</t>
+  </si>
+  <si>
+    <t>2018-11-21</t>
+  </si>
+  <si>
+    <t>2018-11-24</t>
+  </si>
+  <si>
+    <t>2018-12-16</t>
+  </si>
+  <si>
+    <t>2019-01-04</t>
+  </si>
+  <si>
+    <t>2019-01-05</t>
+  </si>
+  <si>
+    <t>2019-01-08</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>2019-01-27</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2019-02-02</t>
+  </si>
+  <si>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
+    <t>2019-02-13</t>
+  </si>
+  <si>
+    <t>2019-02-23</t>
+  </si>
+  <si>
+    <t>2019-02-24</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>2019-03-02</t>
+  </si>
+  <si>
+    <t>2019-03-03</t>
+  </si>
+  <si>
+    <t>2019-04-05</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+  </si>
+  <si>
+    <t>2020-01-29</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
+  </si>
+  <si>
+    <t>2020-02-12</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>Set @AdjDbAway &amp; Home, @AdjOTwithSide (calc), @AdjTV</t>
+  </si>
+  <si>
+    <t>if (!_oSeasonInfoDO.RotationLoadedToDate())</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOS                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAL                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEN                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOU                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAC                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAL                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEM                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIA                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OKC                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORL                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHI                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHO                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAC                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTA                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAS                           </t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>DailySummary</t>
+  </si>
+  <si>
+    <t>@GB1,2,3</t>
+  </si>
+  <si>
+    <t>@WeightGB1,2,3</t>
+  </si>
+  <si>
+    <t>@Threshold=Threshold</t>
+  </si>
+  <si>
+    <t>@BxScLinePct</t>
+  </si>
+  <si>
+    <t>@BxScTmStrPct</t>
+  </si>
+  <si>
+    <t>@TmStrAdjPct</t>
+  </si>
+  <si>
+    <t>@varLgAvgGB</t>
+  </si>
+  <si>
+    <t>@varTeamAvgGB</t>
+  </si>
+  <si>
+    <t>Calc League GamesBack</t>
+  </si>
+  <si>
+    <t>@GBTable TABLE - Create &amp; Populate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get League Averages from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DailySummary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Todays Adjustments from Adjustments Table </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create &amp; Populate TABLE  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@TeamAdjSums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Populate Lg Avg vars from DailySummary</t>
+  </si>
+  <si>
+    <t>@TeamAdjSums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert into @TeamAdjSums </t>
+  </si>
+  <si>
+    <r>
+      <t>EXEC [dbo].[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uspQueryAdjustmentsByTeamTotal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] @GameDate, @LeagueName</t>
+    </r>
+  </si>
+  <si>
+    <t>Define Volitility constants</t>
+  </si>
+  <si>
+    <t>Declare @DefaultVolatilityTeam float = 9.0</t>
+  </si>
+  <si>
+    <t>, @DefaultVolatilityGame float = 14.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Declare </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@AdjLeague</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> float = (IsNull( (Select TeamAdjSum From @TeamAdjSums Where Team = ''), 0))</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Insert TodaysMatchupsResults from Yesterday</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXEC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uspInsertTodaysMatchupsResults</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @UserName, @LeagueName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Rotation Loop for each Game of GameDate - Generate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamStrength</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete GameDates TeamStrength rows</t>
+  </si>
+  <si>
+    <t>Insert Into TeamStrength</t>
+  </si>
+  <si>
+    <t>Loop Rotation - All games for GameDate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamStatsAverages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for GameDate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamStatsAverages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for GameDate - one for each GamesBack demonination</t>
+    </r>
+  </si>
+  <si>
+    <t>Rotation Loop for each Game of GameDate &amp; Venue - Generate TeamStatsAverages from BoxScores</t>
+  </si>
+  <si>
+    <t>Loop Venue - Set RotNum, Team, Venue</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Insert Into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamStatsAverages</t>
+    </r>
+  </si>
+  <si>
+    <t>Loop GB - 3 times for each GB value &amp; GB10</t>
+  </si>
+  <si>
+    <t>Select q2</t>
+  </si>
+  <si>
+    <t>Select q1</t>
+  </si>
+  <si>
+    <t>@GBTable</t>
+  </si>
+  <si>
+    <r>
+      <t>ShotsAttempted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Us</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegPt1,2, 3,   ShotsAttempted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Op</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RegPt1,2, 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AverageMade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Us</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pt1, 2, 3,   AverageMade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Op</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pt1, 2, 3, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FROM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BoxScores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  JOIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  LEFT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TeamStrength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  LEFT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BoxScoresLast5Min</t>
+    </r>
+  </si>
+  <si>
+    <t>Table Out</t>
+  </si>
+  <si>
+    <t>Table In</t>
+  </si>
+  <si>
+    <t>ParmTable</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>TodaysMatchupsResults</t>
+  </si>
+  <si>
+    <t>BoxScores</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TodaysMatchups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for GameDate</t>
+    </r>
+  </si>
+  <si>
+    <t>Display Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete TodaysMatchups BY UserName  LeagueName   GameDate </t>
+  </si>
+  <si>
+    <t>Insert TodaysMatchups</t>
+  </si>
+  <si>
+    <t>Loop Rotation BY Team Away</t>
+  </si>
+  <si>
+    <t>@BothHome_Away</t>
+  </si>
+  <si>
+    <t>Define Constants</t>
+  </si>
+  <si>
+    <t>Define Parms</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>11.0.2100.60</t>
+  </si>
+  <si>
+    <t>14.0.1000.169</t>
+  </si>
+  <si>
+    <t>10.50.1600.1</t>
+  </si>
+  <si>
+    <t>C:\C_Sandisk\Program Files\Microsoft SQL Server\MSSQL11.SS2012EXPRESS\MSSQL\DATA</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>CreateDT</t>
+  </si>
+  <si>
+    <t>ModifyDT</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>BballGetSeason</t>
+  </si>
+  <si>
+    <t>udfAdjustmentRecentLeagueHistory</t>
+  </si>
+  <si>
+    <t>udfAwayRotNum</t>
+  </si>
+  <si>
+    <t>udfDivide</t>
+  </si>
+  <si>
+    <t>udfGetSeason</t>
+  </si>
+  <si>
+    <t>udfGetVenueReal</t>
+  </si>
+  <si>
+    <t>udfGetVenueString</t>
+  </si>
+  <si>
+    <t>udfOppositeVenue</t>
+  </si>
+  <si>
+    <t>udfQueryLeagueGamesBack</t>
+  </si>
+  <si>
+    <t>udfQueryParmValue</t>
+  </si>
+  <si>
+    <t>udfYesterday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
+  </si>
+  <si>
+    <t>TeamLookupTeamNameByTeamNameInDatabase</t>
+  </si>
+  <si>
+    <t>uspAdjustmentRecentLeagueHistory</t>
+  </si>
+  <si>
+    <t>uspCalcPtPct</t>
+  </si>
+  <si>
+    <t>uspInsertAdjustments</t>
+  </si>
+  <si>
+    <t>uspInsertDailySummary</t>
+  </si>
+  <si>
+    <t>uspInsertLine</t>
+  </si>
+  <si>
+    <t>uspInsertLinesFromRotation</t>
+  </si>
+  <si>
+    <t>uspInsertTodaysMatchupsResults</t>
+  </si>
+  <si>
+    <t>uspQueryAdjustmentInfo</t>
+  </si>
+  <si>
+    <t>uspQueryAdjustmentsByTeamTotal</t>
+  </si>
+  <si>
+    <t>uspQueryCalcTeamStrength</t>
+  </si>
+  <si>
+    <t>uspQuerySeasonInfo</t>
+  </si>
+  <si>
+    <t>uspVerifyBoxscoresUpdated</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>PK_AdjustmentsCodes_ID</t>
+  </si>
+  <si>
+    <t>PK_DailySummary</t>
+  </si>
+  <si>
+    <t>PK_TodaysPlays_ID</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>udfDailyParms</t>
+  </si>
+  <si>
+    <t>udfQueryAdjustmentsByTeamTotal</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TT_typAdjustmentUpdateCollection_33AA9866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U </t>
+  </si>
+  <si>
+    <t>AdjustmentOTsideLine</t>
+  </si>
+  <si>
+    <t>Adjustments_Bak</t>
+  </si>
+  <si>
+    <t>Adjustments_NEW</t>
+  </si>
+  <si>
+    <t>Adjustments_old</t>
+  </si>
+  <si>
+    <t>AdjustmentsALL</t>
+  </si>
+  <si>
+    <t>AdjustmentsCodes</t>
+  </si>
+  <si>
+    <t>AdjustmentsDaily</t>
+  </si>
+  <si>
+    <t>AdjustmentsLongDate</t>
+  </si>
+  <si>
+    <t>Adjustmentsx</t>
+  </si>
+  <si>
+    <t>AnalysisResults</t>
+  </si>
+  <si>
+    <t>aTest</t>
+  </si>
+  <si>
+    <t>BoxScores_NEW</t>
+  </si>
+  <si>
+    <t>BoxScores_OLD</t>
+  </si>
+  <si>
+    <t>BoxScores-exp</t>
+  </si>
+  <si>
+    <t>BoxScoresLast5Min</t>
+  </si>
+  <si>
+    <t>BoxScoresLast5MinEmpty</t>
+  </si>
+  <si>
+    <t>BoxScoresLast5MinEmptyx</t>
+  </si>
+  <si>
+    <t>BoxScoresNull</t>
+  </si>
+  <si>
+    <t>BoxScoresSeeds</t>
+  </si>
+  <si>
+    <t>LeagueInfo</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>Plays</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Rotation_2018</t>
+  </si>
+  <si>
+    <t>Rotation_BAK</t>
+  </si>
+  <si>
+    <t>Rotation_NEW</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>SeasonInfo</t>
+  </si>
+  <si>
+    <t>TeamBACKUP</t>
+  </si>
+  <si>
+    <t>TeamsOLD</t>
+  </si>
+  <si>
+    <t>TeamStats</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TodaysMatchups_V2</t>
+  </si>
+  <si>
+    <t>TodaysPlays</t>
+  </si>
+  <si>
+    <t>TodaysPlaysData</t>
+  </si>
+  <si>
+    <t>UserLeagueParms</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>V1_BoxScores</t>
+  </si>
+  <si>
+    <t>V1_L5Min</t>
+  </si>
+  <si>
+    <t>V1_Schedule</t>
+  </si>
+  <si>
+    <t>xLeagueAverages</t>
+  </si>
+  <si>
+    <t>xxBoxScoresSeed</t>
+  </si>
+  <si>
+    <t>xxxV1_BoxScores</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TodaysMatchups </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>==&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>TOMMOROW -- Step 2.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -- EXEC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uspInsertTodaysMatchupsResults</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @UserName, @LeagueName</t>
+    </r>
+  </si>
+  <si>
+    <t>Last 10 Avgs</t>
+  </si>
+  <si>
+    <t>Are in TeamStatAverages</t>
+  </si>
+  <si>
+    <t>Calc Pt %</t>
+  </si>
+  <si>
+    <t>TmTL * Pt%</t>
+  </si>
+  <si>
+    <t>&lt;-- Volatility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXEC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uspQueryCalcTeamStrength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ==&gt; Insert into </t>
     </r>
     <r>
       <rPr>
@@ -438,7 +1724,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TeamStrength</t>
+      <t>@AdjRecentLeagueHistory</t>
     </r>
     <r>
       <rPr>
@@ -448,42 +1734,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> will have Team's Current TS stats as of that Date</t>
-    </r>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>ProjectedPts</t>
-  </si>
-  <si>
-    <t>TmTotals * PtsPct</t>
-  </si>
-  <si>
-    <t>tAwayGB10</t>
-  </si>
-  <si>
-    <t>Op</t>
-  </si>
-  <si>
-    <t>public LoadBoxScores(string LeagueName,  DateTime StartGameDate)</t>
-  </si>
-  <si>
-    <t>public LoadBoxScores(string LeagueName)</t>
-  </si>
-  <si>
-    <t>Called by Constructor</t>
-  </si>
-  <si>
-    <t>Main Processing</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">public void </t>
+      <t xml:space="preserve"> =
+       dbo.udfAdjustmentRecentLeagueHistory
+           (@UserName, @GameDate, @LeagueName) / 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Pop Each Tm &amp; Game</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Calc Tm AvgVol into TmStr</t>
+  </si>
+  <si>
+    <t>Set TmStr &amp; Volatility</t>
+  </si>
+  <si>
+    <r>
+      <t>Set @VolatilityAdj = dbo.</t>
     </r>
     <r>
       <rPr>
@@ -493,12 +1766,40 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LoadTodaysRotation()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">private void  </t>
+      <t>udfAdjustThresholdByVolatility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(@VolatilityAway, @VolatilityHome);</t>
+    </r>
+  </si>
+  <si>
+    <t>code udf</t>
+  </si>
+  <si>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EXEC </t>
     </r>
     <r>
       <rPr>
@@ -508,7 +1809,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>init</t>
+      <t>uspInsertDailySummary</t>
     </r>
     <r>
       <rPr>
@@ -518,340 +1819,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(string LeagueName,  DateTime StartGameDate)</t>
-    </r>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Miami Heat</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>LA Clippers</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Utah Jazz</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Houston Rockets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoenix Suns </t>
-  </si>
-  <si>
-    <t>Conf</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>DB Team</t>
-  </si>
-  <si>
-    <r>
-      <t>public int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> LoadBoxScore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(DateTime GameDate)  </t>
-    </r>
-  </si>
-  <si>
-    <t>RotationDO.PopulateRotation From DB</t>
-  </si>
-  <si>
-    <t>Get BoxScore from Covers</t>
-  </si>
-  <si>
-    <t>foreach Venue</t>
-  </si>
-  <si>
-    <t>BoxScoreDO.InsertBoxScores(BoxScoresDTO);</t>
-  </si>
-  <si>
-    <t>BoxScoreDO.InsertAwayHomeRowsBoxScoresLast5Min</t>
-  </si>
-  <si>
-    <t>END foreach Venue</t>
-  </si>
-  <si>
-    <t>?? Insert L5Min Rows - Away &amp; Home</t>
-  </si>
-  <si>
-    <t>oAdjustments.ProcessDailyAdjustments</t>
-  </si>
-  <si>
-    <t>foreach MUP</t>
-  </si>
-  <si>
-    <t>END foreach MUP</t>
-  </si>
-  <si>
-    <t>// For Each Matchup in Rotation &amp; Venue</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>GameDate</t>
-  </si>
-  <si>
-    <t>2018-11-21</t>
-  </si>
-  <si>
-    <t>2018-11-24</t>
-  </si>
-  <si>
-    <t>2018-12-16</t>
-  </si>
-  <si>
-    <t>2019-01-04</t>
-  </si>
-  <si>
-    <t>2019-01-05</t>
-  </si>
-  <si>
-    <t>2019-01-08</t>
-  </si>
-  <si>
-    <t>2019-01-21</t>
-  </si>
-  <si>
-    <t>2019-01-25</t>
-  </si>
-  <si>
-    <t>2019-01-27</t>
-  </si>
-  <si>
-    <t>2019-01-29</t>
-  </si>
-  <si>
-    <t>2019-02-02</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
-    <t>2019-02-11</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
-  </si>
-  <si>
-    <t>2019-02-23</t>
-  </si>
-  <si>
-    <t>2019-02-24</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
-    <t>2019-03-02</t>
-  </si>
-  <si>
-    <t>2019-03-03</t>
-  </si>
-  <si>
-    <t>2019-04-05</t>
-  </si>
-  <si>
-    <t>2019-12-26</t>
-  </si>
-  <si>
-    <t>2020-01-06</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>2020-01-29</t>
-  </si>
-  <si>
-    <t>2020-01-31</t>
-  </si>
-  <si>
-    <t>2020-02-08</t>
-  </si>
-  <si>
-    <t>2020-02-12</t>
-  </si>
-  <si>
-    <t>2020-03-04</t>
-  </si>
-  <si>
-    <t>Set @AdjDbAway &amp; Home, @AdjOTwithSide (calc), @AdjTV</t>
-  </si>
-  <si>
-    <t>if (!_oSeasonInfoDO.RotationLoadedToDate())</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOS                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAL                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEN                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOU                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAC                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAL                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEM                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIA                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIL                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OKC                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORL                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHI                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHO                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAC                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOR                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTA                           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAS                           </t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>EXEC uspInsertDailySummary @GameDate, @LeagueName</t>
-  </si>
-  <si>
-    <t>DailySummary</t>
-  </si>
-  <si>
-    <t>@GB1,2,3</t>
-  </si>
-  <si>
-    <t>@WeightGB1,2,3</t>
-  </si>
-  <si>
-    <t>@Threshold=Threshold</t>
-  </si>
-  <si>
-    <t>@BxScLinePct</t>
-  </si>
-  <si>
-    <t>@BxScTmStrPct</t>
-  </si>
-  <si>
-    <t>@TmStrAdjPct</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TABLE - </t>
+      <t xml:space="preserve"> @GameDate, @LeagueName</t>
+    </r>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>@LgGB = li.NumberOfTeams * @varLgAvgGB</t>
+  </si>
+  <si>
+    <t>Update SubSeasonPeriod in Yesterday's BoxScores &amp; Rotation</t>
+  </si>
+  <si>
+    <t>BoxScores &amp; Rotation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Declares Parms and pop from- </t>
     </r>
     <r>
       <rPr>
@@ -866,7 +1851,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">TABLE - </t>
+      <t xml:space="preserve">Declares Parms and pop from </t>
     </r>
     <r>
       <rPr>
@@ -880,798 +1865,7 @@
     </r>
   </si>
   <si>
-    <t>@varLgAvgGB</t>
-  </si>
-  <si>
-    <t>@varTeamAvgGB</t>
-  </si>
-  <si>
-    <t>Calc League GamesBack</t>
-  </si>
-  <si>
-    <t>@LgGB</t>
-  </si>
-  <si>
-    <t>@GBTable TABLE - Create &amp; Populate</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Get League Averages from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DailySummary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Todays Adjustments from Adjustments Table </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create &amp; Populate TABLE  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@TeamAdjSums</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Populate Lg Avg vars from DailySummary</t>
-  </si>
-  <si>
-    <t>@TeamAdjSums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert into @TeamAdjSums </t>
-  </si>
-  <si>
-    <r>
-      <t>EXEC [dbo].[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uspQueryAdjustmentsByTeamTotal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>] @GameDate, @LeagueName</t>
-    </r>
-  </si>
-  <si>
-    <t>Define Volitility constants</t>
-  </si>
-  <si>
-    <t>Declare @DefaultVolatilityTeam float = 9.0</t>
-  </si>
-  <si>
-    <t>, @DefaultVolatilityGame float = 14.0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Declare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@AdjLeague</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> float = (IsNull( (Select TeamAdjSum From @TeamAdjSums Where Team = ''), 0))</t>
-    </r>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Insert TodaysMatchupsResults from Yesterday</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EXEC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uspInsertTodaysMatchupsResults</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @UserName, @LeagueName</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Rotation Loop for each Game of GameDate - Generate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TeamStrength</t>
-    </r>
-  </si>
-  <si>
-    <t>Delete GameDates TeamStrength rows</t>
-  </si>
-  <si>
-    <t>Insert Into TeamStrength</t>
-  </si>
-  <si>
-    <t>Loop Rotation - All games for GameDate</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TeamStatsAverages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for GameDate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Delete </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TeamStatsAverages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for GameDate - one for each GamesBack demonination</t>
-    </r>
-  </si>
-  <si>
-    <t>Rotation Loop for each Game of GameDate &amp; Venue - Generate TeamStatsAverages from BoxScores</t>
-  </si>
-  <si>
-    <t>Loop Venue - Set RotNum, Team, Venue</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>3.2.3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Insert Into </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TeamStatsAverages</t>
-    </r>
-  </si>
-  <si>
-    <t>Loop GB - 3 times for each GB value &amp; GB10</t>
-  </si>
-  <si>
-    <t>Select q2</t>
-  </si>
-  <si>
-    <t>Select q1</t>
-  </si>
-  <si>
-    <t>@GBTable</t>
-  </si>
-  <si>
-    <r>
-      <t>ShotsAttempted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Us</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RegPt1,2, 3,   ShotsAttempted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Op</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RegPt1,2, 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AverageMade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Us</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pt1, 2, 3,   AverageMade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Op</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pt1, 2, 3, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FROM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BoxScores</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  JOIN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rotation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  LEFT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TeamStrength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  LEFT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BoxScoresLast5Min</t>
-    </r>
-  </si>
-  <si>
-    <t>Table Out</t>
-  </si>
-  <si>
-    <t>Table In</t>
-  </si>
-  <si>
-    <t>ParmTable</t>
-  </si>
-  <si>
-    <t>Adjustments</t>
-  </si>
-  <si>
-    <t>TodaysMatchupsResults</t>
-  </si>
-  <si>
-    <t>BoxScores</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TodaysMatchups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for GameDate</t>
-    </r>
-  </si>
-  <si>
-    <t>Display Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete TodaysMatchups BY UserName  LeagueName   GameDate </t>
-  </si>
-  <si>
-    <t>Insert TodaysMatchups</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Loop Rotation BY Team Away</t>
-  </si>
-  <si>
-    <t>@BothHome_Away</t>
-  </si>
-  <si>
-    <t>Define Constants</t>
-  </si>
-  <si>
-    <t>Define Parms</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ver</t>
-  </si>
-  <si>
-    <t>11.0.2100.60</t>
-  </si>
-  <si>
-    <t>14.0.1000.169</t>
-  </si>
-  <si>
-    <t>10.50.1600.1</t>
-  </si>
-  <si>
-    <t>C:\C_Sandisk\Program Files\Microsoft SQL Server\MSSQL11.SS2012EXPRESS\MSSQL\DATA</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>CreateDT</t>
-  </si>
-  <si>
-    <t>ModifyDT</t>
-  </si>
-  <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>BballGetSeason</t>
-  </si>
-  <si>
-    <t>udfAdjustmentRecentLeagueHistory</t>
-  </si>
-  <si>
-    <t>udfAwayRotNum</t>
-  </si>
-  <si>
-    <t>udfDivide</t>
-  </si>
-  <si>
-    <t>udfGetSeason</t>
-  </si>
-  <si>
-    <t>udfGetVenueReal</t>
-  </si>
-  <si>
-    <t>udfGetVenueString</t>
-  </si>
-  <si>
-    <t>udfOppositeVenue</t>
-  </si>
-  <si>
-    <t>udfQueryLeagueGamesBack</t>
-  </si>
-  <si>
-    <t>udfQueryParmValue</t>
-  </si>
-  <si>
-    <t>udfYesterday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P </t>
-  </si>
-  <si>
-    <t>TeamLookupTeamNameByTeamNameInDatabase</t>
-  </si>
-  <si>
-    <t>uspAdjustmentRecentLeagueHistory</t>
-  </si>
-  <si>
-    <t>uspCalcPtPct</t>
-  </si>
-  <si>
-    <t>uspInsertAdjustments</t>
-  </si>
-  <si>
-    <t>uspInsertDailySummary</t>
-  </si>
-  <si>
-    <t>uspInsertLine</t>
-  </si>
-  <si>
-    <t>uspInsertLinesFromRotation</t>
-  </si>
-  <si>
-    <t>uspInsertTodaysMatchupsResults</t>
-  </si>
-  <si>
-    <t>uspQueryAdjustmentInfo</t>
-  </si>
-  <si>
-    <t>uspQueryAdjustmentsByTeamTotal</t>
-  </si>
-  <si>
-    <t>uspQueryCalcTeamStrength</t>
-  </si>
-  <si>
-    <t>uspQuerySeasonInfo</t>
-  </si>
-  <si>
-    <t>uspVerifyBoxscoresUpdated</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>PK_AdjustmentsCodes_ID</t>
-  </si>
-  <si>
-    <t>PK_DailySummary</t>
-  </si>
-  <si>
-    <t>PK_TodaysPlays_ID</t>
-  </si>
-  <si>
-    <t>TF</t>
-  </si>
-  <si>
-    <t>udfDailyParms</t>
-  </si>
-  <si>
-    <t>udfQueryAdjustmentsByTeamTotal</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>TT_typAdjustmentUpdateCollection_33AA9866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U </t>
-  </si>
-  <si>
-    <t>AdjustmentOTsideLine</t>
-  </si>
-  <si>
-    <t>Adjustments_Bak</t>
-  </si>
-  <si>
-    <t>Adjustments_NEW</t>
-  </si>
-  <si>
-    <t>Adjustments_old</t>
-  </si>
-  <si>
-    <t>AdjustmentsALL</t>
-  </si>
-  <si>
-    <t>AdjustmentsCodes</t>
-  </si>
-  <si>
-    <t>AdjustmentsDaily</t>
-  </si>
-  <si>
-    <t>AdjustmentsLongDate</t>
-  </si>
-  <si>
-    <t>Adjustmentsx</t>
-  </si>
-  <si>
-    <t>AnalysisResults</t>
-  </si>
-  <si>
-    <t>aTest</t>
-  </si>
-  <si>
-    <t>BoxScores_NEW</t>
-  </si>
-  <si>
-    <t>BoxScores_OLD</t>
-  </si>
-  <si>
-    <t>BoxScores-exp</t>
-  </si>
-  <si>
-    <t>BoxScoresLast5Min</t>
-  </si>
-  <si>
-    <t>BoxScoresLast5MinEmpty</t>
-  </si>
-  <si>
-    <t>BoxScoresLast5MinEmptyx</t>
-  </si>
-  <si>
-    <t>BoxScoresNull</t>
-  </si>
-  <si>
-    <t>BoxScoresSeeds</t>
-  </si>
-  <si>
-    <t>LeagueInfo</t>
-  </si>
-  <si>
-    <t>Lines</t>
-  </si>
-  <si>
-    <t>Plays</t>
-  </si>
-  <si>
-    <t>Rotation</t>
-  </si>
-  <si>
-    <t>Rotation_2018</t>
-  </si>
-  <si>
-    <t>Rotation_BAK</t>
-  </si>
-  <si>
-    <t>Rotation_NEW</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>SeasonInfo</t>
-  </si>
-  <si>
-    <t>TeamBACKUP</t>
-  </si>
-  <si>
-    <t>TeamsOLD</t>
-  </si>
-  <si>
-    <t>TeamStats</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>TodaysMatchups_V2</t>
-  </si>
-  <si>
-    <t>TodaysPlays</t>
-  </si>
-  <si>
-    <t>TodaysPlaysData</t>
-  </si>
-  <si>
-    <t>UserLeagueParms</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>V1_BoxScores</t>
-  </si>
-  <si>
-    <t>V1_L5Min</t>
-  </si>
-  <si>
-    <t>V1_Schedule</t>
-  </si>
-  <si>
-    <t>xLeagueAverages</t>
-  </si>
-  <si>
-    <t>xxBoxScoresSeed</t>
-  </si>
-  <si>
-    <t>xxxV1_BoxScores</t>
-  </si>
-  <si>
-    <t>Exclude</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>pop Boxscores</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +2072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1969,6 +2163,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1978,8 +2181,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2001,15 +2202,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>381649</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2045,15 +2246,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>295912</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2089,15 +2290,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>86418</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>95343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2691,6 +2892,283 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="228.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(B2="Home", "Away", IF(B2="Away", "Home",""))</f>
+        <v/>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IF(B2="Us", "Team", IF(B2="Op", "Opp ",""))</f>
+        <v>Team</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>IF(B2="Us", "Allowed", IF(B2="Op", "Scored ",""))</f>
+        <v>Allowed</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f>", (b.ShotsMade" &amp; B2 &amp; "RegPt" &amp; F2 &amp; " - IsNull(bL5.Q4Last1Min" &amp; B2 &amp; "Pt" &amp; F2 &amp; ", @LgAvgLastMinPt" &amp; F2 &amp; ") + @LgAvgLastMinPt" &amp; F2 &amp; ") * ( 1.0 + (( (r.TotalLine" &amp; D2 &amp; "  / b.ScoreReg" &amp; B2 &amp; " ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPct" &amp; E2 &amp; " - 1.0) * @BxScTmStrPct) AS AverageMade" &amp; B2 &amp; "Pt" &amp; F2</f>
+        <v>, (b.ShotsMadeUsRegPt3 - IsNull(bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineTeam  / b.ScoreRegUs ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctAllowed - 1.0) * @BxScTmStrPct) AS AverageMadeUsPt3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="b">
+        <f>H2=H3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <f>H$2 = H4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <f>H$2 = H5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f>IF(B6="Home", "Away", IF(B6="Away", "Home",""))</f>
+        <v>Away</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f>IF(B6="Us", "Team", IF(B6="Op", "Opp ",""))</f>
+        <v/>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>IF(B6="Us", "Allowed", IF(B6="Op", "Scored ",""))</f>
+        <v/>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>"     , @Pt" &amp; F6 &amp; " * t" &amp; B6 &amp; "GB" &amp; G6 &amp; ".AverageMadeUsPt" &amp; F6 &amp; " * ( 1.0 + (( (t" &amp; C6 &amp; "GB10.AverageMadeOpPt" &amp; F6 &amp; " / @LgAvgShotsMade" &amp; C6 &amp; "Pt" &amp; F6 &amp; ") - 1.0 ) * @TmStrAdjPct) )   as Calc" &amp; B6 &amp; "GB" &amp; G6 &amp; "Pt" &amp; F6 &amp; ""</f>
+        <v xml:space="preserve">     , @Pt1 * tHomeGB1.AverageMadeUsPt1 * ( 1.0 + (( (tAwayGB10.AverageMadeOpPt1 / @LgAvgShotsMadeAwayPt1) - 1.0 ) * @TmStrAdjPct) )   as CalcHomeGB1Pt1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <f>H$6=H7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>"     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1"</f>
+        <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <f t="shared" ref="C8:C9" si="0">H$6=H8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -2706,7 +3184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
@@ -2806,7 +3284,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="43" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -2817,7 +3295,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="21" t="s">
         <v>72</v>
       </c>
@@ -2826,14 +3304,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="22"/>
       <c r="C30" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="19"/>
       <c r="C31" s="18" t="s">
         <v>70</v>
@@ -2898,7 +3376,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2933,105 +3411,105 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3055,12 +3533,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="str">
         <f>"Convert.ToDateTime(""" &amp; A2 &amp; """),"</f>
@@ -3069,7 +3547,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B29" si="0">"Convert.ToDateTime(""" &amp; A3 &amp; """),"</f>
@@ -3078,7 +3556,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -3087,7 +3565,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -3096,7 +3574,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -3105,7 +3583,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -3114,7 +3592,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -3123,7 +3601,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -3132,7 +3610,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -3141,7 +3619,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -3150,7 +3628,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -3159,7 +3637,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -3168,7 +3646,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -3177,7 +3655,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -3186,7 +3664,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -3195,7 +3673,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -3204,7 +3682,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -3213,7 +3691,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -3222,7 +3700,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -3231,7 +3709,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -3240,7 +3718,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -3249,7 +3727,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -3258,7 +3736,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -3267,7 +3745,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -3276,7 +3754,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -3285,7 +3763,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -3294,7 +3772,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -3303,7 +3781,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -3334,255 +3812,255 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3596,713 +4074,700 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" t="str">
+        <v>230</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
         <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1.4</v>
       </c>
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" t="s">
+        <v>248</v>
+      </c>
+      <c r="U6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="R7" t="s">
+        <v>245</v>
+      </c>
+      <c r="T7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="Q8" t="s">
-        <v>254</v>
-      </c>
       <c r="R8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="S8" t="s">
+        <v>246</v>
+      </c>
+      <c r="T8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>190</v>
       </c>
-      <c r="O9" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>191</v>
       </c>
-      <c r="O10" t="s">
-        <v>250</v>
-      </c>
-      <c r="P10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>192</v>
       </c>
-      <c r="Q11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.5</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.7</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.8</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="31"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="41">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="F40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="33"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="36"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="37"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="37"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="36"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="36"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B61" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1.8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="14" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4.2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>238</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4.3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>239</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B64" t="s">
+        <v>240</v>
+      </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4.32</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="F69" t="s">
+        <v>353</v>
+      </c>
+      <c r="G69" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4.33</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="27"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1.9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" t="str">
+        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D72</f>
+        <v>SELECT  max(GameDate) as MaxDate FROM TodaysMatchups</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="13"/>
-      <c r="G27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2.1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="33"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3.1</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>3.2</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="36"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="37"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="37"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C56" s="36"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76" t="s">
+        <v>337</v>
+      </c>
+      <c r="D76" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="36"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>4.2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>4.3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>245</v>
-      </c>
-      <c r="B63" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="27"/>
-    </row>
-    <row r="67" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="27"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E70" t="str">
-        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D69</f>
-        <v>SELECT  max(GameDate) as MaxDate FROM TodaysMatchups</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D79" t="str">
-        <f>"AverageAtmp"&amp;E81&amp;"Pt"</f>
-        <v>AverageAtmpUsPt</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D80" t="str">
-        <f t="shared" ref="D80:D84" si="0">"AverageAtmp"&amp;E82&amp;"Pt"</f>
-        <v>AverageAtmpUsPt</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpUsPt</v>
-      </c>
-      <c r="E81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" ref="G81:G86" si="1">", " &amp;B81&amp; "." &amp;  D79 &amp; A81 &amp; " as " &amp; F81 &amp;D79 &amp;A81</f>
-        <v>, tAwayGB10.AverageAtmpUsPt1 as HomeAverageAtmpUsPt1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpOpPt</v>
-      </c>
-      <c r="E82" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" t="s">
-        <v>34</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpUsPt2 as HomeAverageAtmpUsPt2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpOpPt</v>
-      </c>
-      <c r="E83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F83" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpUsPt3 as HomeAverageAtmpUsPt3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpOpPt</v>
-      </c>
-      <c r="E84" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpOpPt1 as HomeAverageAtmpOpPt1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" t="s">
-        <v>86</v>
-      </c>
-      <c r="F85" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpOpPt2 as HomeAverageAtmpOpPt2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>86</v>
-      </c>
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpOpPt3 as HomeAverageAtmpOpPt3</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H4" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4310,11 +4775,245 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
+  <dimension ref="A3:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D15" si="0">"AverageAtmp"&amp;E12&amp;"Pt"</f>
+        <v>AverageAtmpUsPt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpUsPt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpUsPt</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G17" si="1">", " &amp;B12&amp; "." &amp;  D10 &amp; A12 &amp; " as " &amp; F12 &amp;D10 &amp;A12</f>
+        <v>, tAwayGB10.AverageAtmpUsPt1 as HomeAverageAtmpUsPt1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpOpPt</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpUsPt2 as HomeAverageAtmpUsPt2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpOpPt</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpUsPt3 as HomeAverageAtmpUsPt3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpOpPt</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpOpPt1 as HomeAverageAtmpOpPt1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpOpPt2 as HomeAverageAtmpOpPt2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpOpPt3 as HomeAverageAtmpOpPt3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
@@ -4328,1449 +5027,1449 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>340</v>
+        <v>254</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="41">
+        <v>256</v>
+      </c>
+      <c r="C2" s="38">
         <v>43841</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="38">
         <v>43841</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C3" s="41">
+        <v>257</v>
+      </c>
+      <c r="C3" s="38">
         <v>43983</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="38">
         <v>43996</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="41">
+        <v>258</v>
+      </c>
+      <c r="C4" s="38">
         <v>43809</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="38">
         <v>43809</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="41">
+        <v>259</v>
+      </c>
+      <c r="C5" s="38">
         <v>44001</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="38">
         <v>44001</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="41">
+        <v>260</v>
+      </c>
+      <c r="C6" s="38">
         <v>43998</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="38">
         <v>43998</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
         <v>261</v>
       </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="C7" s="38">
         <v>43810</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="38">
         <v>43810</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="41">
+        <v>262</v>
+      </c>
+      <c r="C8" s="38">
         <v>43809</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="38">
         <v>43809</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="41">
+        <v>263</v>
+      </c>
+      <c r="C9" s="38">
         <v>43809</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="38">
         <v>43809</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C10" s="41">
+        <v>264</v>
+      </c>
+      <c r="C10" s="38">
         <v>43836</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="38">
         <v>43836</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="41">
+        <v>265</v>
+      </c>
+      <c r="C11" s="38">
         <v>43841</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="38">
         <v>43841</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="41">
+        <v>266</v>
+      </c>
+      <c r="C12" s="38">
         <v>43857</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="38">
         <v>43857</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="38">
         <v>43883</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="38">
         <v>43883</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="38">
         <v>42427</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="38">
         <v>42427</v>
       </c>
       <c r="E14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="38">
         <v>43811</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="38">
         <v>43811</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="38">
         <v>43781</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="38">
         <v>43792</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="38">
         <v>43766</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="38">
         <v>43766</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="38">
         <v>43792</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="38">
         <v>43792</v>
       </c>
     </row>
     <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="41">
+        <v>268</v>
+      </c>
+      <c r="C19" s="38">
         <v>43804</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="38">
         <v>43804</v>
       </c>
     </row>
     <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="41">
+        <v>269</v>
+      </c>
+      <c r="C20" s="38">
         <v>43982</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <v>43995</v>
       </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C21" s="41">
+        <v>270</v>
+      </c>
+      <c r="C21" s="38">
         <v>43960</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="38">
         <v>43960</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="38">
         <v>43998</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="38">
         <v>44003</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="41">
+        <v>271</v>
+      </c>
+      <c r="C23" s="38">
         <v>43883</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="38">
         <v>43883</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="41">
+        <v>272</v>
+      </c>
+      <c r="C24" s="38">
         <v>43998</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="38">
         <v>43998</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" t="s">
         <v>273</v>
       </c>
-      <c r="B25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="41">
+      <c r="C25" s="38">
         <v>43855</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="38">
         <v>43855</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26" s="41">
+        <v>274</v>
+      </c>
+      <c r="C26" s="38">
         <v>43855</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="38">
         <v>43857</v>
       </c>
     </row>
     <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s">
-        <v>281</v>
-      </c>
-      <c r="C27" s="41">
+        <v>275</v>
+      </c>
+      <c r="C27" s="38">
         <v>43995</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="38">
         <v>43995</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="38">
         <v>43963</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="38">
         <v>43963</v>
       </c>
     </row>
     <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
-      </c>
-      <c r="C29" s="41">
+        <v>276</v>
+      </c>
+      <c r="C29" s="38">
         <v>43875</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="38">
         <v>43989</v>
       </c>
     </row>
     <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="38">
         <v>43935</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="38">
         <v>43992</v>
       </c>
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C31" s="41">
+        <v>277</v>
+      </c>
+      <c r="C31" s="38">
         <v>43988</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="38">
         <v>43989</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="41">
+        <v>278</v>
+      </c>
+      <c r="C32" s="38">
         <v>43845</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="38">
         <v>43848</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="38">
         <v>43845</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="38">
         <v>43997</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C34" s="41">
+        <v>279</v>
+      </c>
+      <c r="C34" s="38">
         <v>43996</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="38">
         <v>43996</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="38">
         <v>43873</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="38">
         <v>43876</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="38">
         <v>43939</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="38">
         <v>43939</v>
       </c>
     </row>
     <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
-      </c>
-      <c r="C37" s="41">
+        <v>280</v>
+      </c>
+      <c r="C37" s="38">
         <v>43883</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="38">
         <v>43924</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="41">
+        <v>282</v>
+      </c>
+      <c r="C38" s="38">
         <v>43962</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="38">
         <v>43962</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" s="41">
+        <v>283</v>
+      </c>
+      <c r="C39" s="38">
         <v>43845</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="38">
         <v>43845</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
-      </c>
-      <c r="C40" s="41">
+        <v>284</v>
+      </c>
+      <c r="C40" s="38">
         <v>43465</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="38">
         <v>43465</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
-      </c>
-      <c r="C41" s="41">
+        <v>286</v>
+      </c>
+      <c r="C41" s="38">
         <v>43988</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="38">
         <v>43988</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="41">
+        <v>287</v>
+      </c>
+      <c r="C42" s="38">
         <v>43989</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="38">
         <v>43989</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" s="41">
+        <v>289</v>
+      </c>
+      <c r="C43" s="38">
         <v>43872</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="38">
         <v>43872</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="41">
+        <v>291</v>
+      </c>
+      <c r="C44" s="38">
         <v>44001</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="38">
         <v>44001</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
-      </c>
-      <c r="C45" s="41">
+        <v>233</v>
+      </c>
+      <c r="C45" s="38">
         <v>43989</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="38">
         <v>43989</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="41">
+        <v>292</v>
+      </c>
+      <c r="C46" s="38">
         <v>43858</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="38">
         <v>43858</v>
       </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="41">
+        <v>293</v>
+      </c>
+      <c r="C47" s="38">
         <v>43992</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="38">
         <v>43992</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>300</v>
-      </c>
-      <c r="C48" s="41">
+        <v>294</v>
+      </c>
+      <c r="C48" s="38">
         <v>42427</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="38">
         <v>43151</v>
       </c>
       <c r="E48" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
-      </c>
-      <c r="C49" s="41">
+        <v>295</v>
+      </c>
+      <c r="C49" s="38">
         <v>42422</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="38">
         <v>42427</v>
       </c>
       <c r="E49" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
         <v>296</v>
       </c>
-      <c r="B50" t="s">
-        <v>302</v>
-      </c>
-      <c r="C50" s="41">
+      <c r="C50" s="38">
         <v>43962</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="38">
         <v>43962</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="41">
+        <v>297</v>
+      </c>
+      <c r="C51" s="38">
         <v>43842</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="38">
         <v>43842</v>
       </c>
       <c r="E51" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="41">
+        <v>298</v>
+      </c>
+      <c r="C52" s="38">
         <v>43151</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="38">
         <v>43478</v>
       </c>
       <c r="E52" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
-      </c>
-      <c r="C53" s="41">
+        <v>299</v>
+      </c>
+      <c r="C53" s="38">
         <v>43151</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="38">
         <v>43989</v>
       </c>
       <c r="E53" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
-      </c>
-      <c r="C54" s="41">
+        <v>300</v>
+      </c>
+      <c r="C54" s="38">
         <v>44002</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="38">
         <v>44002</v>
       </c>
       <c r="E54" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
-      </c>
-      <c r="C55" s="41">
+        <v>301</v>
+      </c>
+      <c r="C55" s="38">
         <v>42823</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="38">
         <v>42823</v>
       </c>
       <c r="E55" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="41">
+        <v>235</v>
+      </c>
+      <c r="C56" s="38">
         <v>43833</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="38">
         <v>43873</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B57" t="s">
-        <v>308</v>
-      </c>
-      <c r="C57" s="41">
+        <v>302</v>
+      </c>
+      <c r="C57" s="38">
         <v>43992</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D57" s="38">
         <v>43992</v>
       </c>
       <c r="E57" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s">
-        <v>309</v>
-      </c>
-      <c r="C58" s="41">
+        <v>303</v>
+      </c>
+      <c r="C58" s="38">
         <v>43996</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="38">
         <v>43996</v>
       </c>
       <c r="E58" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s">
-        <v>310</v>
-      </c>
-      <c r="C59" s="41">
+        <v>304</v>
+      </c>
+      <c r="C59" s="38">
         <v>42400</v>
       </c>
-      <c r="D59" s="41">
+      <c r="D59" s="38">
         <v>42400</v>
       </c>
       <c r="E59" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B60" t="s">
-        <v>311</v>
-      </c>
-      <c r="C60" s="41">
+        <v>305</v>
+      </c>
+      <c r="C60" s="38">
         <v>43851</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="38">
         <v>43996</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
-      </c>
-      <c r="C61" s="41">
+        <v>306</v>
+      </c>
+      <c r="C61" s="38">
         <v>43982</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="38">
         <v>43996</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
-      </c>
-      <c r="C62" s="41">
+        <v>307</v>
+      </c>
+      <c r="C62" s="38">
         <v>43819</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="38">
         <v>43982</v>
       </c>
       <c r="E62" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
-      </c>
-      <c r="C63" s="41">
+        <v>308</v>
+      </c>
+      <c r="C63" s="38">
         <v>43798</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="38">
         <v>43799</v>
       </c>
       <c r="E63" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C64" s="41">
+        <v>309</v>
+      </c>
+      <c r="C64" s="38">
         <v>43974</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="38">
         <v>43974</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="41">
+        <v>186</v>
+      </c>
+      <c r="C65" s="38">
         <v>43845</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="38">
         <v>43845</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
-      </c>
-      <c r="C66" s="41">
+        <v>310</v>
+      </c>
+      <c r="C66" s="38">
         <v>44001</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="38">
         <v>44001</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" s="41">
+        <v>311</v>
+      </c>
+      <c r="C67" s="38">
         <v>43850</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="38">
         <v>43850</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="41">
+        <v>232</v>
+      </c>
+      <c r="C68" s="38">
         <v>43827</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="38">
         <v>43827</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
-      </c>
-      <c r="C69" s="41">
+        <v>312</v>
+      </c>
+      <c r="C69" s="38">
         <v>42400</v>
       </c>
-      <c r="D69" s="41">
+      <c r="D69" s="38">
         <v>42400</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
-      </c>
-      <c r="C70" s="41">
+        <v>313</v>
+      </c>
+      <c r="C70" s="38">
         <v>43996</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="38">
         <v>43997</v>
       </c>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
-      </c>
-      <c r="C71" s="41">
+        <v>314</v>
+      </c>
+      <c r="C71" s="38">
         <v>43996</v>
       </c>
-      <c r="D71" s="41">
+      <c r="D71" s="38">
         <v>43997</v>
       </c>
       <c r="E71" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" s="41">
+        <v>315</v>
+      </c>
+      <c r="C72" s="38">
         <v>43995</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="38">
         <v>43995</v>
       </c>
       <c r="E72" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B73" t="s">
-        <v>322</v>
-      </c>
-      <c r="C73" s="41">
+        <v>316</v>
+      </c>
+      <c r="C73" s="38">
         <v>43992</v>
       </c>
-      <c r="D73" s="41">
+      <c r="D73" s="38">
         <v>43992</v>
       </c>
       <c r="E73" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>323</v>
-      </c>
-      <c r="C74" s="41">
+        <v>317</v>
+      </c>
+      <c r="C74" s="38">
         <v>43809</v>
       </c>
-      <c r="D74" s="41">
+      <c r="D74" s="38">
         <v>43809</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B75" t="s">
-        <v>324</v>
-      </c>
-      <c r="C75" s="41">
+        <v>318</v>
+      </c>
+      <c r="C75" s="38">
         <v>43975</v>
       </c>
-      <c r="D75" s="41">
+      <c r="D75" s="38">
         <v>43975</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
-      </c>
-      <c r="C76" s="41">
+        <v>117</v>
+      </c>
+      <c r="C76" s="38">
         <v>43975</v>
       </c>
-      <c r="D76" s="41">
+      <c r="D76" s="38">
         <v>43975</v>
       </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s">
-        <v>325</v>
-      </c>
-      <c r="C77" s="41">
+        <v>319</v>
+      </c>
+      <c r="C77" s="38">
         <v>43846</v>
       </c>
-      <c r="D77" s="41">
+      <c r="D77" s="38">
         <v>43846</v>
       </c>
       <c r="E77" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
-      </c>
-      <c r="C78" s="41">
+        <v>320</v>
+      </c>
+      <c r="C78" s="38">
         <v>43187</v>
       </c>
-      <c r="D78" s="41">
+      <c r="D78" s="38">
         <v>43810</v>
       </c>
       <c r="E78" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>327</v>
-      </c>
-      <c r="C79" s="41">
+        <v>321</v>
+      </c>
+      <c r="C79" s="38">
         <v>43975</v>
       </c>
-      <c r="D79" s="41">
+      <c r="D79" s="38">
         <v>43975</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="41">
+      <c r="C80" s="38">
         <v>43988</v>
       </c>
-      <c r="D80" s="41">
+      <c r="D80" s="38">
         <v>43988</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="41">
+      <c r="C81" s="38">
         <v>43844</v>
       </c>
-      <c r="D81" s="41">
+      <c r="D81" s="38">
         <v>43845</v>
       </c>
     </row>
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B82" t="s">
-        <v>328</v>
-      </c>
-      <c r="C82" s="41">
+        <v>322</v>
+      </c>
+      <c r="C82" s="38">
         <v>43975</v>
       </c>
-      <c r="D82" s="41">
+      <c r="D82" s="38">
         <v>43995</v>
       </c>
       <c r="E82" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83" s="38">
         <v>44002</v>
       </c>
-      <c r="D83" s="41">
+      <c r="D83" s="38">
         <v>44002</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
-      </c>
-      <c r="C84" s="41">
+        <v>323</v>
+      </c>
+      <c r="C84" s="38">
         <v>43823</v>
       </c>
-      <c r="D84" s="41">
+      <c r="D84" s="38">
         <v>43843</v>
       </c>
       <c r="E84" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
-      </c>
-      <c r="C85" s="41">
+        <v>234</v>
+      </c>
+      <c r="C85" s="38">
         <v>43995</v>
       </c>
-      <c r="D85" s="41">
+      <c r="D85" s="38">
         <v>43995</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>330</v>
-      </c>
-      <c r="C86" s="41">
+        <v>324</v>
+      </c>
+      <c r="C86" s="38">
         <v>43465</v>
       </c>
-      <c r="D86" s="41">
+      <c r="D86" s="38">
         <v>43465</v>
       </c>
       <c r="E86" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
-      </c>
-      <c r="C87" s="41">
+        <v>325</v>
+      </c>
+      <c r="C87" s="38">
         <v>42485</v>
       </c>
-      <c r="D87" s="41">
+      <c r="D87" s="38">
         <v>43184</v>
       </c>
       <c r="E87" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="41">
+        <v>326</v>
+      </c>
+      <c r="C88" s="38">
         <v>43988</v>
       </c>
-      <c r="D88" s="41">
+      <c r="D88" s="38">
         <v>44000</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
-      </c>
-      <c r="C89" s="41">
+        <v>327</v>
+      </c>
+      <c r="C89" s="38">
         <v>43829</v>
       </c>
-      <c r="D89" s="41">
+      <c r="D89" s="38">
         <v>43829</v>
       </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
-      </c>
-      <c r="C90" s="41">
+        <v>328</v>
+      </c>
+      <c r="C90" s="38">
         <v>43820</v>
       </c>
-      <c r="D90" s="41">
+      <c r="D90" s="38">
         <v>43820</v>
       </c>
       <c r="E90" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="38">
+        <v>42693</v>
+      </c>
+      <c r="D91" s="38">
+        <v>43800</v>
+      </c>
+      <c r="E91" t="s">
         <v>335</v>
-      </c>
-      <c r="C91" s="41">
-        <v>42693</v>
-      </c>
-      <c r="D91" s="41">
-        <v>43800</v>
-      </c>
-      <c r="E91" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>336</v>
-      </c>
-      <c r="C92" s="41">
+        <v>330</v>
+      </c>
+      <c r="C92" s="38">
         <v>43466</v>
       </c>
-      <c r="D92" s="41">
+      <c r="D92" s="38">
         <v>43800</v>
       </c>
       <c r="E92" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" s="41">
+        <v>331</v>
+      </c>
+      <c r="C93" s="38">
         <v>43780</v>
       </c>
-      <c r="D93" s="41">
+      <c r="D93" s="38">
         <v>43836</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>338</v>
-      </c>
-      <c r="C94" s="41">
+        <v>332</v>
+      </c>
+      <c r="C94" s="38">
         <v>43968</v>
       </c>
-      <c r="D94" s="41">
+      <c r="D94" s="38">
         <v>43968</v>
       </c>
       <c r="E94" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
-      </c>
-      <c r="C95" s="41">
+        <v>333</v>
+      </c>
+      <c r="C95" s="38">
         <v>43465</v>
       </c>
-      <c r="D95" s="41">
+      <c r="D95" s="38">
         <v>43820</v>
       </c>
       <c r="E95" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5790,281 +6489,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="5.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="228.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10" t="str">
-        <f>IF(B2="Home", "Away", IF(B2="Away", "Home",""))</f>
-        <v/>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>IF(B2="Us", "Team", IF(B2="Op", "Opp ",""))</f>
-        <v>Team</v>
-      </c>
-      <c r="E2" s="10" t="str">
-        <f>IF(B2="Us", "Allowed", IF(B2="Op", "Scored ",""))</f>
-        <v>Allowed</v>
-      </c>
-      <c r="F2" s="10">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="str">
-        <f>", (b.ShotsMade" &amp; B2 &amp; "RegPt" &amp; F2 &amp; " - IsNull(bL5.Q4Last1Min" &amp; B2 &amp; "Pt" &amp; F2 &amp; ", @LgAvgLastMinPt" &amp; F2 &amp; ") + @LgAvgLastMinPt" &amp; F2 &amp; ") * ( 1.0 + (( (r.TotalLine" &amp; D2 &amp; "  / b.ScoreReg" &amp; B2 &amp; " ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPct" &amp; E2 &amp; " - 1.0) * @BxScTmStrPct) AS AverageMade" &amp; B2 &amp; "Pt" &amp; F2</f>
-        <v>, (b.ShotsMadeUsRegPt3 - IsNull(bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineTeam  / b.ScoreRegUs ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctAllowed - 1.0) * @BxScTmStrPct) AS AverageMadeUsPt3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10" t="b">
-        <f>H2=H3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="b">
-        <f>H$2 = H4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="b">
-        <f>H$2 = H5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="str">
-        <f>IF(B6="Home", "Away", IF(B6="Away", "Home",""))</f>
-        <v>Away</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f>IF(B6="Us", "Team", IF(B6="Op", "Opp ",""))</f>
-        <v/>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>IF(B6="Us", "Allowed", IF(B6="Op", "Scored ",""))</f>
-        <v/>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f>"     , @Pt" &amp; F6 &amp; " * t" &amp; B6 &amp; "GB" &amp; G6 &amp; ".AverageMadeUsPt" &amp; F6 &amp; " * ( 1.0 + (( (t" &amp; C6 &amp; "GB10.AverageMadeOpPt" &amp; F6 &amp; " / @LgAvgShotsMade" &amp; C6 &amp; "Pt" &amp; F6 &amp; ") - 1.0 ) * @TmStrAdjPct) )   as Calc" &amp; B6 &amp; "GB" &amp; G6 &amp; "Pt" &amp; F6 &amp; ""</f>
-        <v xml:space="preserve">     , @Pt1 * tHomeGB1.AverageMadeUsPt1 * ( 1.0 + (( (tAwayGB10.AverageMadeOpPt1 / @LgAvgShotsMadeAwayPt1) - 1.0 ) * @TmStrAdjPct) )   as CalcHomeGB1Pt1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <f>H$6=H7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f>"     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1"</f>
-        <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10" t="b">
-        <f t="shared" ref="C8:C9" si="0">H$6=H8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9711F86-DE7B-4E15-86DB-8EEAFCC6C4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE335E-25B7-4181-B3C6-E46F95FA83BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1005" windowWidth="23115" windowHeight="13800" tabRatio="649" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="210" yWindow="360" windowWidth="28065" windowHeight="14940" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,24 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
     <sheet name="22 Teams" sheetId="9" r:id="rId5"/>
     <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId6"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId8"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId9"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId10"/>
-    <sheet name="Templates" sheetId="4" r:id="rId11"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId12"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId13"/>
+    <sheet name="Bills ADJs" sheetId="18" r:id="rId7"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId8"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId9"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId10"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId11"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId12"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId13"/>
+    <sheet name="Templates" sheetId="4" r:id="rId14"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId15"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId16"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId17"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$H$5</definedName>
+    <definedName name="TmTL">'Avg Atmp'!$A$2</definedName>
+    <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -101,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="491">
   <si>
     <t>Name</t>
   </si>
@@ -1867,12 +1874,387 @@
   <si>
     <t>pop Boxscores</t>
   </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Pt 1</t>
+  </si>
+  <si>
+    <t>T Overs</t>
+  </si>
+  <si>
+    <t>Off RB</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rot#</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Tm TL</t>
+  </si>
+  <si>
+    <t>LeagueName</t>
+  </si>
+  <si>
+    <t>RotNum</t>
+  </si>
+  <si>
+    <t>Opp</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>GameTime</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>SubSeason</t>
+  </si>
+  <si>
+    <t>SubSeasonPeriod</t>
+  </si>
+  <si>
+    <t>MinutesPlayed</t>
+  </si>
+  <si>
+    <t>OtPeriods</t>
+  </si>
+  <si>
+    <t>ScoreReg</t>
+  </si>
+  <si>
+    <t>ScoreOT</t>
+  </si>
+  <si>
+    <t>ScoreRegUs</t>
+  </si>
+  <si>
+    <t>ScoreRegOp</t>
+  </si>
+  <si>
+    <t>ScoreOTUs</t>
+  </si>
+  <si>
+    <t>ScoreOTOp</t>
+  </si>
+  <si>
+    <t>ScoreQ1Us</t>
+  </si>
+  <si>
+    <t>ScoreQ1Op</t>
+  </si>
+  <si>
+    <t>ScoreQ2Us</t>
+  </si>
+  <si>
+    <t>ScoreQ2Op</t>
+  </si>
+  <si>
+    <t>ScoreQ3Us</t>
+  </si>
+  <si>
+    <t>ScoreQ3Op</t>
+  </si>
+  <si>
+    <t>ScoreQ4Us</t>
+  </si>
+  <si>
+    <t>ScoreQ4Op</t>
+  </si>
+  <si>
+    <t>ShotsActualMadeUsPt1</t>
+  </si>
+  <si>
+    <t>ShotsActualMadeUsPt2</t>
+  </si>
+  <si>
+    <t>ShotsActualMadeUsPt3</t>
+  </si>
+  <si>
+    <t>ShotsActualMadeOpPt1</t>
+  </si>
+  <si>
+    <t>ShotsActualMadeOpPt2</t>
+  </si>
+  <si>
+    <t>ShotsActualMadeOpPt3</t>
+  </si>
+  <si>
+    <t>ShotsActualAttemptedUsPt1</t>
+  </si>
+  <si>
+    <t>ShotsActualAttemptedUsPt2</t>
+  </si>
+  <si>
+    <t>ShotsActualAttemptedUsPt3</t>
+  </si>
+  <si>
+    <t>ShotsActualAttemptedOpPt1</t>
+  </si>
+  <si>
+    <t>ShotsActualAttemptedOpPt2</t>
+  </si>
+  <si>
+    <t>ShotsActualAttemptedOpPt3</t>
+  </si>
+  <si>
+    <t>ShotsMadeUsRegPt1</t>
+  </si>
+  <si>
+    <t>ShotsMadeUsRegPt2</t>
+  </si>
+  <si>
+    <t>ShotsMadeUsRegPt3</t>
+  </si>
+  <si>
+    <t>ShotsMadeOpRegPt1</t>
+  </si>
+  <si>
+    <t>ShotsMadeOpRegPt2</t>
+  </si>
+  <si>
+    <t>ShotsMadeOpRegPt3</t>
+  </si>
+  <si>
+    <t>ShotsAttemptedUsRegPt1</t>
+  </si>
+  <si>
+    <t>ShotsAttemptedUsRegPt2</t>
+  </si>
+  <si>
+    <t>ShotsAttemptedUsRegPt3</t>
+  </si>
+  <si>
+    <t>ShotsAttemptedOpRegPt1</t>
+  </si>
+  <si>
+    <t>ShotsAttemptedOpRegPt2</t>
+  </si>
+  <si>
+    <t>ShotsAttemptedOpRegPt3</t>
+  </si>
+  <si>
+    <t>TurnOversUs</t>
+  </si>
+  <si>
+    <t>TurnOversOp</t>
+  </si>
+  <si>
+    <t>OffRBUs</t>
+  </si>
+  <si>
+    <t>OffRBOp</t>
+  </si>
+  <si>
+    <t>AssistsUs</t>
+  </si>
+  <si>
+    <t>AssistsOp</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>LoadDate</t>
+  </si>
+  <si>
+    <t>LoadTimeSeconds</t>
+  </si>
+  <si>
+    <t>Boxscores</t>
+  </si>
+  <si>
+    <t>LastYears Boxscores</t>
+  </si>
+  <si>
+    <t>Manually Update BSS w Adjs</t>
+  </si>
+  <si>
+    <t>Exec</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Pop @TeamTable, @VenueTable</t>
+  </si>
+  <si>
+    <t>OP 1 Row per Team per Venue</t>
+  </si>
+  <si>
+    <t>Select LY BS from Reg Season</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Update TY Stats w LY Stats + Adjs</t>
+  </si>
+  <si>
+    <t>LY Stats</t>
+  </si>
+  <si>
+    <t>TmStr</t>
+  </si>
+  <si>
+    <t>Pts</t>
+  </si>
+  <si>
+    <t>Made</t>
+  </si>
+  <si>
+    <t>Adj</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Adjed</t>
+  </si>
+  <si>
+    <t>AdjPct</t>
+  </si>
+  <si>
+    <t>Set Lg, Season, User</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>SP#</t>
+  </si>
+  <si>
+    <t>scr_BSS1_CreateBoxScoresSeedsTable.sql</t>
+  </si>
+  <si>
+    <t>scr_BSS2_UpdateBoxSocresSeeds.sql</t>
+  </si>
+  <si>
+    <t>scr_BSS3_SeedThisSeason.sql</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATL                           </t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>NYL</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>Check Rotation for Games - Return If None</t>
+  </si>
+  <si>
+    <t>WRONG - Update EVERY row where SubSeason is NULL</t>
+  </si>
+  <si>
+    <t>Calc Defaults instead</t>
+  </si>
+  <si>
+    <t>Test - I NULLIFIED</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1924,8 +2306,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1947,6 +2344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,7 +2475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2172,6 +2575,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2181,6 +2599,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2204,13 +2624,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>381649</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2248,13 +2668,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>295912</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2292,13 +2712,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>86418</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2892,6 +3312,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="43">
+        <v>1</v>
+      </c>
+      <c r="C1" s="43">
+        <v>2</v>
+      </c>
+      <c r="D1" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B1*B2</f>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D3" si="0">C1*C2</f>
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="44">
+        <f xml:space="preserve"> B2 * (TmTL/TotAtmps)</f>
+        <v>18.18181818181818</v>
+      </c>
+      <c r="C4" s="44">
+        <f xml:space="preserve"> C2 * (TmTL/TotAtmps)</f>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="D4" s="44">
+        <f xml:space="preserve"> D2 * (TmTL/TotAtmps)</f>
+        <v>9.0909090909090899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="44">
+        <f>B4*B1</f>
+        <v>18.18181818181818</v>
+      </c>
+      <c r="C5" s="44">
+        <f t="shared" ref="C5:D5" si="1">C4*C1</f>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="D5" s="44">
+        <f t="shared" si="1"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="E5">
+        <f>SUM(B5:D5)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="8" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J1" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="51"/>
+      <c r="C4" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="51"/>
+      <c r="C5" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="38">
+        <v>43841</v>
+      </c>
+      <c r="D2" s="38">
+        <v>43841</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="38">
+        <v>43983</v>
+      </c>
+      <c r="D3" s="38">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="38">
+        <v>43809</v>
+      </c>
+      <c r="D4" s="38">
+        <v>43809</v>
+      </c>
+      <c r="E4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="38">
+        <v>44001</v>
+      </c>
+      <c r="D5" s="38">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="38">
+        <v>43998</v>
+      </c>
+      <c r="D6" s="38">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="38">
+        <v>43810</v>
+      </c>
+      <c r="D7" s="38">
+        <v>43810</v>
+      </c>
+      <c r="E7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="38">
+        <v>43809</v>
+      </c>
+      <c r="D8" s="38">
+        <v>43809</v>
+      </c>
+      <c r="E8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="38">
+        <v>43809</v>
+      </c>
+      <c r="D9" s="38">
+        <v>43809</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="38">
+        <v>43836</v>
+      </c>
+      <c r="D10" s="38">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="38">
+        <v>43841</v>
+      </c>
+      <c r="D11" s="38">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="38">
+        <v>43857</v>
+      </c>
+      <c r="D12" s="38">
+        <v>43857</v>
+      </c>
+      <c r="E12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="38">
+        <v>43883</v>
+      </c>
+      <c r="D13" s="38">
+        <v>43883</v>
+      </c>
+      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="38">
+        <v>42427</v>
+      </c>
+      <c r="D14" s="38">
+        <v>42427</v>
+      </c>
+      <c r="E14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="38">
+        <v>43811</v>
+      </c>
+      <c r="D15" s="38">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="38">
+        <v>43781</v>
+      </c>
+      <c r="D16" s="38">
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="38">
+        <v>43766</v>
+      </c>
+      <c r="D17" s="38">
+        <v>43766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="38">
+        <v>43792</v>
+      </c>
+      <c r="D18" s="38">
+        <v>43792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="38">
+        <v>43804</v>
+      </c>
+      <c r="D19" s="38">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="38">
+        <v>43982</v>
+      </c>
+      <c r="D20" s="38">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="38">
+        <v>43960</v>
+      </c>
+      <c r="D21" s="38">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="38">
+        <v>43998</v>
+      </c>
+      <c r="D22" s="38">
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="38">
+        <v>43883</v>
+      </c>
+      <c r="D23" s="38">
+        <v>43883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="38">
+        <v>43998</v>
+      </c>
+      <c r="D24" s="38">
+        <v>43998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="38">
+        <v>43855</v>
+      </c>
+      <c r="D25" s="38">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="38">
+        <v>43855</v>
+      </c>
+      <c r="D26" s="38">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="38">
+        <v>43995</v>
+      </c>
+      <c r="D27" s="38">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="38">
+        <v>43963</v>
+      </c>
+      <c r="D28" s="38">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="38">
+        <v>43875</v>
+      </c>
+      <c r="D29" s="38">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="38">
+        <v>43935</v>
+      </c>
+      <c r="D30" s="38">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="38">
+        <v>43988</v>
+      </c>
+      <c r="D31" s="38">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="38">
+        <v>43845</v>
+      </c>
+      <c r="D32" s="38">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="38">
+        <v>43845</v>
+      </c>
+      <c r="D33" s="38">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="38">
+        <v>43996</v>
+      </c>
+      <c r="D34" s="38">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="38">
+        <v>43873</v>
+      </c>
+      <c r="D35" s="38">
+        <v>43876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="38">
+        <v>43939</v>
+      </c>
+      <c r="D36" s="38">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="38">
+        <v>43883</v>
+      </c>
+      <c r="D37" s="38">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="38">
+        <v>43962</v>
+      </c>
+      <c r="D38" s="38">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="38">
+        <v>43845</v>
+      </c>
+      <c r="D39" s="38">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="38">
+        <v>43465</v>
+      </c>
+      <c r="D40" s="38">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="38">
+        <v>43988</v>
+      </c>
+      <c r="D41" s="38">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="38">
+        <v>43989</v>
+      </c>
+      <c r="D42" s="38">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B43" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="38">
+        <v>43872</v>
+      </c>
+      <c r="D43" s="38">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="38">
+        <v>44001</v>
+      </c>
+      <c r="D44" s="38">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="38">
+        <v>43989</v>
+      </c>
+      <c r="D45" s="38">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="38">
+        <v>43858</v>
+      </c>
+      <c r="D46" s="38">
+        <v>43858</v>
+      </c>
+      <c r="E46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="38">
+        <v>43992</v>
+      </c>
+      <c r="D47" s="38">
+        <v>43992</v>
+      </c>
+      <c r="E47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="38">
+        <v>42427</v>
+      </c>
+      <c r="D48" s="38">
+        <v>43151</v>
+      </c>
+      <c r="E48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C49" s="38">
+        <v>42422</v>
+      </c>
+      <c r="D49" s="38">
+        <v>42427</v>
+      </c>
+      <c r="E49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C50" s="38">
+        <v>43962</v>
+      </c>
+      <c r="D50" s="38">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B51" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="38">
+        <v>43842</v>
+      </c>
+      <c r="D51" s="38">
+        <v>43842</v>
+      </c>
+      <c r="E51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" s="38">
+        <v>43151</v>
+      </c>
+      <c r="D52" s="38">
+        <v>43478</v>
+      </c>
+      <c r="E52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C53" s="38">
+        <v>43151</v>
+      </c>
+      <c r="D53" s="38">
+        <v>43989</v>
+      </c>
+      <c r="E53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" s="38">
+        <v>44002</v>
+      </c>
+      <c r="D54" s="38">
+        <v>44002</v>
+      </c>
+      <c r="E54" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55" s="38">
+        <v>42823</v>
+      </c>
+      <c r="D55" s="38">
+        <v>42823</v>
+      </c>
+      <c r="E55" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C56" s="38">
+        <v>43833</v>
+      </c>
+      <c r="D56" s="38">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="38">
+        <v>43992</v>
+      </c>
+      <c r="D57" s="38">
+        <v>43992</v>
+      </c>
+      <c r="E57" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C58" s="38">
+        <v>43996</v>
+      </c>
+      <c r="D58" s="38">
+        <v>43996</v>
+      </c>
+      <c r="E58" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="38">
+        <v>42400</v>
+      </c>
+      <c r="D59" s="38">
+        <v>42400</v>
+      </c>
+      <c r="E59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="38">
+        <v>43851</v>
+      </c>
+      <c r="D60" s="38">
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C61" s="38">
+        <v>43982</v>
+      </c>
+      <c r="D61" s="38">
+        <v>43996</v>
+      </c>
+      <c r="E61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="38">
+        <v>43819</v>
+      </c>
+      <c r="D62" s="38">
+        <v>43982</v>
+      </c>
+      <c r="E62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="38">
+        <v>43798</v>
+      </c>
+      <c r="D63" s="38">
+        <v>43799</v>
+      </c>
+      <c r="E63" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" s="38">
+        <v>43974</v>
+      </c>
+      <c r="D64" s="38">
+        <v>43974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="38">
+        <v>43845</v>
+      </c>
+      <c r="D65" s="38">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" s="38">
+        <v>44001</v>
+      </c>
+      <c r="D66" s="38">
+        <v>44001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="38">
+        <v>43850</v>
+      </c>
+      <c r="D67" s="38">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="38">
+        <v>43827</v>
+      </c>
+      <c r="D68" s="38">
+        <v>43827</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" s="38">
+        <v>42400</v>
+      </c>
+      <c r="D69" s="38">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="38">
+        <v>43996</v>
+      </c>
+      <c r="D70" s="38">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="38">
+        <v>43996</v>
+      </c>
+      <c r="D71" s="38">
+        <v>43997</v>
+      </c>
+      <c r="E71" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="38">
+        <v>43995</v>
+      </c>
+      <c r="D72" s="38">
+        <v>43995</v>
+      </c>
+      <c r="E72" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C73" s="38">
+        <v>43992</v>
+      </c>
+      <c r="D73" s="38">
+        <v>43992</v>
+      </c>
+      <c r="E73" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="38">
+        <v>43809</v>
+      </c>
+      <c r="D74" s="38">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="38">
+        <v>43975</v>
+      </c>
+      <c r="D75" s="38">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="38">
+        <v>43975</v>
+      </c>
+      <c r="D76" s="38">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="38">
+        <v>43846</v>
+      </c>
+      <c r="D77" s="38">
+        <v>43846</v>
+      </c>
+      <c r="E77" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" s="38">
+        <v>43187</v>
+      </c>
+      <c r="D78" s="38">
+        <v>43810</v>
+      </c>
+      <c r="E78" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="38">
+        <v>43975</v>
+      </c>
+      <c r="D79" s="38">
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>290</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="38">
+        <v>43988</v>
+      </c>
+      <c r="D80" s="38">
+        <v>43988</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="38">
+        <v>43844</v>
+      </c>
+      <c r="D81" s="38">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" t="s">
+        <v>322</v>
+      </c>
+      <c r="C82" s="38">
+        <v>43975</v>
+      </c>
+      <c r="D82" s="38">
+        <v>43995</v>
+      </c>
+      <c r="E82" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="38">
+        <v>44002</v>
+      </c>
+      <c r="D83" s="38">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>290</v>
+      </c>
+      <c r="B84" t="s">
+        <v>323</v>
+      </c>
+      <c r="C84" s="38">
+        <v>43823</v>
+      </c>
+      <c r="D84" s="38">
+        <v>43843</v>
+      </c>
+      <c r="E84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="38">
+        <v>43995</v>
+      </c>
+      <c r="D85" s="38">
+        <v>43995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" s="38">
+        <v>43465</v>
+      </c>
+      <c r="D86" s="38">
+        <v>43465</v>
+      </c>
+      <c r="E86" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" t="s">
+        <v>325</v>
+      </c>
+      <c r="C87" s="38">
+        <v>42485</v>
+      </c>
+      <c r="D87" s="38">
+        <v>43184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" s="38">
+        <v>43988</v>
+      </c>
+      <c r="D88" s="38">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" s="38">
+        <v>43829</v>
+      </c>
+      <c r="D89" s="38">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" s="38">
+        <v>43820</v>
+      </c>
+      <c r="D90" s="38">
+        <v>43820</v>
+      </c>
+      <c r="E90" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>290</v>
+      </c>
+      <c r="B91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="38">
+        <v>42693</v>
+      </c>
+      <c r="D91" s="38">
+        <v>43800</v>
+      </c>
+      <c r="E91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92" s="38">
+        <v>43466</v>
+      </c>
+      <c r="D92" s="38">
+        <v>43800</v>
+      </c>
+      <c r="E92" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" t="s">
+        <v>331</v>
+      </c>
+      <c r="C93" s="38">
+        <v>43780</v>
+      </c>
+      <c r="D93" s="38">
+        <v>43836</v>
+      </c>
+      <c r="E93" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" s="38">
+        <v>43968</v>
+      </c>
+      <c r="D94" s="38">
+        <v>43968</v>
+      </c>
+      <c r="E94" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" s="38">
+        <v>43465</v>
+      </c>
+      <c r="D95" s="38">
+        <v>43820</v>
+      </c>
+      <c r="E95" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E95" xr:uid="{E56B1FF9-3346-45D9-A8E8-48BE81B057F7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="U"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -2952,13 +5058,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3168,7 +5274,175 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>13.74</v>
+      </c>
+      <c r="E3">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C5" si="0">A4*B4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>73.3</v>
+      </c>
+      <c r="E6">
+        <v>82.584999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C7">
+        <v>-0.5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8">
+        <f>(C6+C7) / C6</f>
+        <v>0.995</v>
+      </c>
+      <c r="D8">
+        <f>(D6+D7) / D6</f>
+        <v>1.0272851296043657</v>
+      </c>
+      <c r="E8">
+        <f>(E6+E7) / E6</f>
+        <v>1.0242174729067022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>C3*C$8</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D10">
+        <f>D3*D$8</f>
+        <v>14.114897680763985</v>
+      </c>
+      <c r="E10">
+        <f>E3*E$8</f>
+        <v>17.155642671187262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C12" si="1">C4*C$8</f>
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>SUM(C10:C12)</f>
+        <v>99.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -3184,7 +5458,371 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
+  <dimension ref="A2:B62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
@@ -3284,7 +5922,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -3295,7 +5933,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="21" t="s">
         <v>72</v>
       </c>
@@ -3304,14 +5942,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="22"/>
       <c r="C30" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="19"/>
       <c r="C31" s="18" t="s">
         <v>70</v>
@@ -3352,7 +5990,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3398,10 +6036,10 @@
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="35" topLeftCell="G36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="35" topLeftCell="G117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,11 +6712,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,17 +6726,16 @@
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="46" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" customWidth="1"/>
     <col min="21" max="21" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
       <c r="C1" s="28" t="s">
         <v>231</v>
       </c>
@@ -4111,7 +6748,7 @@
       <c r="F1" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="55" t="s">
         <v>349</v>
       </c>
       <c r="H1" t="str">
@@ -4129,645 +6766,665 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1.4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>364</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" t="s">
-        <v>248</v>
-      </c>
-      <c r="U6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R7" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="T7" t="s">
         <v>248</v>
       </c>
+      <c r="U7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R8" t="s">
-        <v>244</v>
-      </c>
-      <c r="S8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="R9" t="s">
+        <v>244</v>
+      </c>
+      <c r="S9" t="s">
+        <v>246</v>
       </c>
       <c r="T9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="T10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1.5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>365</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1.6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C19" s="33" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.7</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" t="s">
-        <v>366</v>
+        <v>196</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>1.8</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" t="s">
+        <v>366</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1.9</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C22" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="J23" t="s">
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="56"/>
+      <c r="J24" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B27" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="C27" s="31"/>
+      <c r="G27" s="46" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="41">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G30" s="46" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B31" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="14" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s">
-        <v>186</v>
-      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2.1</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
         <v>234</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E38" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>348</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="G38" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="F40" t="s">
+      <c r="C41" s="2"/>
+      <c r="F41" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="C43" s="5"/>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="33"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3.1</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="33"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>3.1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>3.2</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B52" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="14" t="s">
+      <c r="C52" s="35"/>
+      <c r="D52" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" t="s">
-        <v>43</v>
-      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="36"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
+      <c r="C54" s="36"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="37"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="37"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="36" t="s">
+      <c r="C57" s="37"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="36"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="37" t="s">
+      <c r="C58" s="36"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="36"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="36"/>
       <c r="C59" s="36"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>4</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>236</v>
-      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B61" t="s">
-        <v>237</v>
+        <v>4</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>4.2</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>238</v>
       </c>
-      <c r="J62">
+      <c r="J63">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>4.3</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>239</v>
-      </c>
-      <c r="J63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="B64" t="s">
-        <v>240</v>
       </c>
       <c r="J64">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
+        <v>4.3099999999999996</v>
+      </c>
       <c r="B65" t="s">
+        <v>240</v>
+      </c>
+      <c r="J65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="27" t="s">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="27"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>4.32</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B69" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="C68" s="27"/>
-    </row>
-    <row r="69" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="27" t="s">
+      <c r="C69" s="27"/>
+    </row>
+    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="F69" t="s">
+      <c r="C70" s="27"/>
+      <c r="F70" t="s">
         <v>353</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" s="46" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>4.33</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B71" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="27"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="C71" s="27"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="14" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" t="s">
         <v>44</v>
       </c>
-      <c r="H72" t="str">
-        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D72</f>
+      <c r="H73" t="str">
+        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D73</f>
         <v>SELECT  max(GameDate) as MaxDate FROM TodaysMatchups</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="33" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>337</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H4" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
+  <autoFilter ref="A1:H5" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4775,10 +7432,317 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="50">
+        <v>-3</v>
+      </c>
+      <c r="C2" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="50">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="50">
+        <v>0</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="50">
+        <v>0</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="50">
+        <v>0</v>
+      </c>
+      <c r="C6" s="50">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" s="50">
+        <v>0</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="50">
+        <v>0</v>
+      </c>
+      <c r="C8" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="50">
+        <v>3</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" s="50">
+        <v>0</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="50">
+        <v>1</v>
+      </c>
+      <c r="C12" s="50">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" s="50">
+        <v>-3</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="45">
+        <v>1</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>459</v>
+      </c>
+      <c r="I2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>459</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" s="45">
+        <v>3</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
   <dimension ref="A3:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
@@ -4967,1526 +7931,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
-  <dimension ref="A2:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E95"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" s="38">
-        <v>43841</v>
-      </c>
-      <c r="D2" s="38">
-        <v>43841</v>
-      </c>
-      <c r="E2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="38">
-        <v>43983</v>
-      </c>
-      <c r="D3" s="38">
-        <v>43996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="38">
-        <v>43809</v>
-      </c>
-      <c r="D4" s="38">
-        <v>43809</v>
-      </c>
-      <c r="E4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="38">
-        <v>44001</v>
-      </c>
-      <c r="D5" s="38">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="38">
-        <v>43998</v>
-      </c>
-      <c r="D6" s="38">
-        <v>43998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="38">
-        <v>43810</v>
-      </c>
-      <c r="D7" s="38">
-        <v>43810</v>
-      </c>
-      <c r="E7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="38">
-        <v>43809</v>
-      </c>
-      <c r="D8" s="38">
-        <v>43809</v>
-      </c>
-      <c r="E8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="38">
-        <v>43809</v>
-      </c>
-      <c r="D9" s="38">
-        <v>43809</v>
-      </c>
-      <c r="E9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="38">
-        <v>43836</v>
-      </c>
-      <c r="D10" s="38">
-        <v>43836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="38">
-        <v>43841</v>
-      </c>
-      <c r="D11" s="38">
-        <v>43841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="38">
-        <v>43857</v>
-      </c>
-      <c r="D12" s="38">
-        <v>43857</v>
-      </c>
-      <c r="E12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="38">
-        <v>43883</v>
-      </c>
-      <c r="D13" s="38">
-        <v>43883</v>
-      </c>
-      <c r="E13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="38">
-        <v>42427</v>
-      </c>
-      <c r="D14" s="38">
-        <v>42427</v>
-      </c>
-      <c r="E14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="38">
-        <v>43811</v>
-      </c>
-      <c r="D15" s="38">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="38">
-        <v>43781</v>
-      </c>
-      <c r="D16" s="38">
-        <v>43792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="38">
-        <v>43766</v>
-      </c>
-      <c r="D17" s="38">
-        <v>43766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="38">
-        <v>43792</v>
-      </c>
-      <c r="D18" s="38">
-        <v>43792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="38">
-        <v>43804</v>
-      </c>
-      <c r="D19" s="38">
-        <v>43804</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="38">
-        <v>43982</v>
-      </c>
-      <c r="D20" s="38">
-        <v>43995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="38">
-        <v>43960</v>
-      </c>
-      <c r="D21" s="38">
-        <v>43960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="38">
-        <v>43998</v>
-      </c>
-      <c r="D22" s="38">
-        <v>44003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="38">
-        <v>43883</v>
-      </c>
-      <c r="D23" s="38">
-        <v>43883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="38">
-        <v>43998</v>
-      </c>
-      <c r="D24" s="38">
-        <v>43998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="38">
-        <v>43855</v>
-      </c>
-      <c r="D25" s="38">
-        <v>43855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" s="38">
-        <v>43855</v>
-      </c>
-      <c r="D26" s="38">
-        <v>43857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="38">
-        <v>43995</v>
-      </c>
-      <c r="D27" s="38">
-        <v>43995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="38">
-        <v>43963</v>
-      </c>
-      <c r="D28" s="38">
-        <v>43963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="38">
-        <v>43875</v>
-      </c>
-      <c r="D29" s="38">
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="38">
-        <v>43935</v>
-      </c>
-      <c r="D30" s="38">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" t="s">
-        <v>277</v>
-      </c>
-      <c r="C31" s="38">
-        <v>43988</v>
-      </c>
-      <c r="D31" s="38">
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>267</v>
-      </c>
-      <c r="B32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C32" s="38">
-        <v>43845</v>
-      </c>
-      <c r="D32" s="38">
-        <v>43848</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="38">
-        <v>43845</v>
-      </c>
-      <c r="D33" s="38">
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" t="s">
-        <v>279</v>
-      </c>
-      <c r="C34" s="38">
-        <v>43996</v>
-      </c>
-      <c r="D34" s="38">
-        <v>43996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="38">
-        <v>43873</v>
-      </c>
-      <c r="D35" s="38">
-        <v>43876</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="38">
-        <v>43939</v>
-      </c>
-      <c r="D36" s="38">
-        <v>43939</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" s="38">
-        <v>43883</v>
-      </c>
-      <c r="D37" s="38">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="38">
-        <v>43962</v>
-      </c>
-      <c r="D38" s="38">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>281</v>
-      </c>
-      <c r="B39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" s="38">
-        <v>43845</v>
-      </c>
-      <c r="D39" s="38">
-        <v>43845</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>281</v>
-      </c>
-      <c r="B40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="38">
-        <v>43465</v>
-      </c>
-      <c r="D40" s="38">
-        <v>43465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" t="s">
-        <v>286</v>
-      </c>
-      <c r="C41" s="38">
-        <v>43988</v>
-      </c>
-      <c r="D41" s="38">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>285</v>
-      </c>
-      <c r="B42" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="38">
-        <v>43989</v>
-      </c>
-      <c r="D42" s="38">
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>288</v>
-      </c>
-      <c r="B43" t="s">
-        <v>289</v>
-      </c>
-      <c r="C43" s="38">
-        <v>43872</v>
-      </c>
-      <c r="D43" s="38">
-        <v>43872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="38">
-        <v>44001</v>
-      </c>
-      <c r="D44" s="38">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>290</v>
-      </c>
-      <c r="B45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="38">
-        <v>43989</v>
-      </c>
-      <c r="D45" s="38">
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" t="s">
-        <v>292</v>
-      </c>
-      <c r="C46" s="38">
-        <v>43858</v>
-      </c>
-      <c r="D46" s="38">
-        <v>43858</v>
-      </c>
-      <c r="E46" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>290</v>
-      </c>
-      <c r="B47" t="s">
-        <v>293</v>
-      </c>
-      <c r="C47" s="38">
-        <v>43992</v>
-      </c>
-      <c r="D47" s="38">
-        <v>43992</v>
-      </c>
-      <c r="E47" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B48" t="s">
-        <v>294</v>
-      </c>
-      <c r="C48" s="38">
-        <v>42427</v>
-      </c>
-      <c r="D48" s="38">
-        <v>43151</v>
-      </c>
-      <c r="E48" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>290</v>
-      </c>
-      <c r="B49" t="s">
-        <v>295</v>
-      </c>
-      <c r="C49" s="38">
-        <v>42422</v>
-      </c>
-      <c r="D49" s="38">
-        <v>42427</v>
-      </c>
-      <c r="E49" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>290</v>
-      </c>
-      <c r="B50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" s="38">
-        <v>43962</v>
-      </c>
-      <c r="D50" s="38">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="38">
-        <v>43842</v>
-      </c>
-      <c r="D51" s="38">
-        <v>43842</v>
-      </c>
-      <c r="E51" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>290</v>
-      </c>
-      <c r="B52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C52" s="38">
-        <v>43151</v>
-      </c>
-      <c r="D52" s="38">
-        <v>43478</v>
-      </c>
-      <c r="E52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>290</v>
-      </c>
-      <c r="B53" t="s">
-        <v>299</v>
-      </c>
-      <c r="C53" s="38">
-        <v>43151</v>
-      </c>
-      <c r="D53" s="38">
-        <v>43989</v>
-      </c>
-      <c r="E53" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>290</v>
-      </c>
-      <c r="B54" t="s">
-        <v>300</v>
-      </c>
-      <c r="C54" s="38">
-        <v>44002</v>
-      </c>
-      <c r="D54" s="38">
-        <v>44002</v>
-      </c>
-      <c r="E54" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B55" t="s">
-        <v>301</v>
-      </c>
-      <c r="C55" s="38">
-        <v>42823</v>
-      </c>
-      <c r="D55" s="38">
-        <v>42823</v>
-      </c>
-      <c r="E55" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" s="38">
-        <v>43833</v>
-      </c>
-      <c r="D56" s="38">
-        <v>43873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>290</v>
-      </c>
-      <c r="B57" t="s">
-        <v>302</v>
-      </c>
-      <c r="C57" s="38">
-        <v>43992</v>
-      </c>
-      <c r="D57" s="38">
-        <v>43992</v>
-      </c>
-      <c r="E57" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>290</v>
-      </c>
-      <c r="B58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C58" s="38">
-        <v>43996</v>
-      </c>
-      <c r="D58" s="38">
-        <v>43996</v>
-      </c>
-      <c r="E58" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>290</v>
-      </c>
-      <c r="B59" t="s">
-        <v>304</v>
-      </c>
-      <c r="C59" s="38">
-        <v>42400</v>
-      </c>
-      <c r="D59" s="38">
-        <v>42400</v>
-      </c>
-      <c r="E59" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>290</v>
-      </c>
-      <c r="B60" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" s="38">
-        <v>43851</v>
-      </c>
-      <c r="D60" s="38">
-        <v>43996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" t="s">
-        <v>306</v>
-      </c>
-      <c r="C61" s="38">
-        <v>43982</v>
-      </c>
-      <c r="D61" s="38">
-        <v>43996</v>
-      </c>
-      <c r="E61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" t="s">
-        <v>307</v>
-      </c>
-      <c r="C62" s="38">
-        <v>43819</v>
-      </c>
-      <c r="D62" s="38">
-        <v>43982</v>
-      </c>
-      <c r="E62" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>290</v>
-      </c>
-      <c r="B63" t="s">
-        <v>308</v>
-      </c>
-      <c r="C63" s="38">
-        <v>43798</v>
-      </c>
-      <c r="D63" s="38">
-        <v>43799</v>
-      </c>
-      <c r="E63" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>290</v>
-      </c>
-      <c r="B64" t="s">
-        <v>309</v>
-      </c>
-      <c r="C64" s="38">
-        <v>43974</v>
-      </c>
-      <c r="D64" s="38">
-        <v>43974</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>290</v>
-      </c>
-      <c r="B65" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="38">
-        <v>43845</v>
-      </c>
-      <c r="D65" s="38">
-        <v>43845</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" t="s">
-        <v>310</v>
-      </c>
-      <c r="C66" s="38">
-        <v>44001</v>
-      </c>
-      <c r="D66" s="38">
-        <v>44001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>290</v>
-      </c>
-      <c r="B67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C67" s="38">
-        <v>43850</v>
-      </c>
-      <c r="D67" s="38">
-        <v>43850</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>290</v>
-      </c>
-      <c r="B68" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="38">
-        <v>43827</v>
-      </c>
-      <c r="D68" s="38">
-        <v>43827</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>290</v>
-      </c>
-      <c r="B69" t="s">
-        <v>312</v>
-      </c>
-      <c r="C69" s="38">
-        <v>42400</v>
-      </c>
-      <c r="D69" s="38">
-        <v>42400</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>290</v>
-      </c>
-      <c r="B70" t="s">
-        <v>313</v>
-      </c>
-      <c r="C70" s="38">
-        <v>43996</v>
-      </c>
-      <c r="D70" s="38">
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" t="s">
-        <v>314</v>
-      </c>
-      <c r="C71" s="38">
-        <v>43996</v>
-      </c>
-      <c r="D71" s="38">
-        <v>43997</v>
-      </c>
-      <c r="E71" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>290</v>
-      </c>
-      <c r="B72" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="38">
-        <v>43995</v>
-      </c>
-      <c r="D72" s="38">
-        <v>43995</v>
-      </c>
-      <c r="E72" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>290</v>
-      </c>
-      <c r="B73" t="s">
-        <v>316</v>
-      </c>
-      <c r="C73" s="38">
-        <v>43992</v>
-      </c>
-      <c r="D73" s="38">
-        <v>43992</v>
-      </c>
-      <c r="E73" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>290</v>
-      </c>
-      <c r="B74" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" s="38">
-        <v>43809</v>
-      </c>
-      <c r="D74" s="38">
-        <v>43809</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>290</v>
-      </c>
-      <c r="B75" t="s">
-        <v>318</v>
-      </c>
-      <c r="C75" s="38">
-        <v>43975</v>
-      </c>
-      <c r="D75" s="38">
-        <v>43975</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>290</v>
-      </c>
-      <c r="B76" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="38">
-        <v>43975</v>
-      </c>
-      <c r="D76" s="38">
-        <v>43975</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>290</v>
-      </c>
-      <c r="B77" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" s="38">
-        <v>43846</v>
-      </c>
-      <c r="D77" s="38">
-        <v>43846</v>
-      </c>
-      <c r="E77" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>290</v>
-      </c>
-      <c r="B78" t="s">
-        <v>320</v>
-      </c>
-      <c r="C78" s="38">
-        <v>43187</v>
-      </c>
-      <c r="D78" s="38">
-        <v>43810</v>
-      </c>
-      <c r="E78" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>290</v>
-      </c>
-      <c r="B79" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="38">
-        <v>43975</v>
-      </c>
-      <c r="D79" s="38">
-        <v>43975</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>290</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="38">
-        <v>43988</v>
-      </c>
-      <c r="D80" s="38">
-        <v>43988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>290</v>
-      </c>
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="38">
-        <v>43844</v>
-      </c>
-      <c r="D81" s="38">
-        <v>43845</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>290</v>
-      </c>
-      <c r="B82" t="s">
-        <v>322</v>
-      </c>
-      <c r="C82" s="38">
-        <v>43975</v>
-      </c>
-      <c r="D82" s="38">
-        <v>43995</v>
-      </c>
-      <c r="E82" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>290</v>
-      </c>
-      <c r="B83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="38">
-        <v>44002</v>
-      </c>
-      <c r="D83" s="38">
-        <v>44002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>290</v>
-      </c>
-      <c r="B84" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" s="38">
-        <v>43823</v>
-      </c>
-      <c r="D84" s="38">
-        <v>43843</v>
-      </c>
-      <c r="E84" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>290</v>
-      </c>
-      <c r="B85" t="s">
-        <v>234</v>
-      </c>
-      <c r="C85" s="38">
-        <v>43995</v>
-      </c>
-      <c r="D85" s="38">
-        <v>43995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>290</v>
-      </c>
-      <c r="B86" t="s">
-        <v>324</v>
-      </c>
-      <c r="C86" s="38">
-        <v>43465</v>
-      </c>
-      <c r="D86" s="38">
-        <v>43465</v>
-      </c>
-      <c r="E86" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>290</v>
-      </c>
-      <c r="B87" t="s">
-        <v>325</v>
-      </c>
-      <c r="C87" s="38">
-        <v>42485</v>
-      </c>
-      <c r="D87" s="38">
-        <v>43184</v>
-      </c>
-      <c r="E87" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B88" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="38">
-        <v>43988</v>
-      </c>
-      <c r="D88" s="38">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>290</v>
-      </c>
-      <c r="B89" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" s="38">
-        <v>43829</v>
-      </c>
-      <c r="D89" s="38">
-        <v>43829</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>290</v>
-      </c>
-      <c r="B90" t="s">
-        <v>328</v>
-      </c>
-      <c r="C90" s="38">
-        <v>43820</v>
-      </c>
-      <c r="D90" s="38">
-        <v>43820</v>
-      </c>
-      <c r="E90" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>290</v>
-      </c>
-      <c r="B91" t="s">
-        <v>329</v>
-      </c>
-      <c r="C91" s="38">
-        <v>42693</v>
-      </c>
-      <c r="D91" s="38">
-        <v>43800</v>
-      </c>
-      <c r="E91" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>290</v>
-      </c>
-      <c r="B92" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" s="38">
-        <v>43466</v>
-      </c>
-      <c r="D92" s="38">
-        <v>43800</v>
-      </c>
-      <c r="E92" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>290</v>
-      </c>
-      <c r="B93" t="s">
-        <v>331</v>
-      </c>
-      <c r="C93" s="38">
-        <v>43780</v>
-      </c>
-      <c r="D93" s="38">
-        <v>43836</v>
-      </c>
-      <c r="E93" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" t="s">
-        <v>332</v>
-      </c>
-      <c r="C94" s="38">
-        <v>43968</v>
-      </c>
-      <c r="D94" s="38">
-        <v>43968</v>
-      </c>
-      <c r="E94" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>290</v>
-      </c>
-      <c r="B95" t="s">
-        <v>333</v>
-      </c>
-      <c r="C95" s="38">
-        <v>43465</v>
-      </c>
-      <c r="D95" s="38">
-        <v>43820</v>
-      </c>
-      <c r="E95" t="s">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E95" xr:uid="{E56B1FF9-3346-45D9-A8E8-48BE81B057F7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="U"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="?"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CE335E-25B7-4181-B3C6-E46F95FA83BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EE961-BF31-4E16-9D1C-63F317661362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="360" windowWidth="28065" windowHeight="14940" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="1020" yWindow="825" windowWidth="26250" windowHeight="14565" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,20 @@
     <sheet name="Bills ADJs" sheetId="18" r:id="rId7"/>
     <sheet name="BSS Flow" sheetId="16" r:id="rId8"/>
     <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId9"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId10"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId11"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId12"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId13"/>
-    <sheet name="Templates" sheetId="4" r:id="rId14"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId15"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId16"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId17"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId18"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId10"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId11"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId12"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId13"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId14"/>
+    <sheet name="Templates" sheetId="4" r:id="rId15"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId16"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId17"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId18"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$38</definedName>
     <definedName name="TmTL">'Avg Atmp'!$A$2</definedName>
     <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
   </definedNames>
@@ -42,12 +43,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -108,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="518">
   <si>
     <t>Name</t>
   </si>
@@ -1750,9 +1745,6 @@
     <t>Volatility</t>
   </si>
   <si>
-    <t>Pop Each Tm &amp; Game</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -2244,7 +2236,91 @@
     <t>Test - I NULLIFIED</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t>@AdjLeague</t>
+  </si>
+  <si>
+    <t>'@AdjRecentLeagueHistory</t>
+  </si>
+  <si>
+    <t>@AdjOTwithSide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select @AdjOTwithSide = DefaultOTamt </t>
+  </si>
+  <si>
+    <t>PACE</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Mins</t>
+  </si>
+  <si>
+    <t>Secs</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t>MinPerPeriod</t>
+  </si>
+  <si>
+    <t>PeriodsLeft</t>
+  </si>
+  <si>
+    <t>PtsPerMin</t>
+  </si>
+  <si>
+    <t>MinsLeft</t>
+  </si>
+  <si>
+    <t>GamePace</t>
+  </si>
+  <si>
+    <t>Un/OvAmt</t>
+  </si>
+  <si>
+    <t>3rd end</t>
+  </si>
+  <si>
+    <t>UI Flow</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Lg GD</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>SortedList&lt;string, CoversDTO&gt; ocRotation = new SortedList&lt;string, CoversDTO&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RotationDO.PopulateRotation(ocRotation, _oBballInfoDTO, _oLeagueDTO);</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>TL / Side</t>
+  </si>
+  <si>
+    <t>Rot#/Gm Time</t>
+  </si>
+  <si>
+    <t>ToDo--&gt;</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2321,8 +2397,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF005259"/>
+      <name val="Titillium Web"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2350,6 +2431,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,7 +2568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2512,9 +2605,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2574,7 +2664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2587,6 +2676,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2599,8 +2692,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2622,16 +2720,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>381649</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133475</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>514475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2666,15 +2764,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>295912</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2710,15 +2808,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>86418</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>95343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2756,6 +2854,275 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>375141</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB776A27-EE79-4023-9FC5-83A67AA7DCD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="381000"/>
+          <a:ext cx="7690341" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361948</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126FC75D-4D36-44CC-8A4E-F1DE5BB96A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3095625"/>
+          <a:ext cx="7000873" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>568037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA44036-89AC-4072-8CA1-C057E593BB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="1333500"/>
+          <a:ext cx="7273637" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371952</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E54D037-F157-4F8E-9904-B0C548D0B2A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="4000500"/>
+          <a:ext cx="3419952" cy="1362265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>305438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE86E137-A857-4AA6-AB7C-707A7ACF7E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="762000"/>
+          <a:ext cx="4572638" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>10973</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>181532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B88C6D-E19D-49F5-859F-EB2F54D92E06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="4000500"/>
+          <a:ext cx="10374173" cy="3991532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2804,7 +3171,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3201,107 +3568,107 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -3312,34 +3679,231 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="51">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="25">
+        <f>C2+D2</f>
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="51">
+        <v>12</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="44">
+        <f>B1 / (B6*B7)</f>
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="44">
+        <f>B6-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" s="44">
+        <f>((B9*B7)+B4)+ B5/60</f>
+        <v>1.7166666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" s="44">
+        <f>B10*B8 + B2</f>
+        <v>242.26145833333334</v>
+      </c>
+      <c r="W11" s="52" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="42" t="str">
+        <f>IF(B2&gt;B1,"OVER",B11-B1)</f>
+        <v>OVER</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27" t="s">
+        <v>514</v>
+      </c>
+      <c r="E27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="43">
+        <v>380</v>
+      </c>
+      <c r="B1" s="41">
         <v>1</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="41">
         <v>2</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3353,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="B3">
         <f>B1*B2</f>
         <v>20</v>
@@ -3371,30 +3935,30 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="44">
+    <row r="4" spans="1:5">
+      <c r="B4" s="42">
         <f xml:space="preserve"> B2 * (TmTL/TotAtmps)</f>
         <v>18.18181818181818</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <f xml:space="preserve"> C2 * (TmTL/TotAtmps)</f>
         <v>27.272727272727273</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="42">
         <f xml:space="preserve"> D2 * (TmTL/TotAtmps)</f>
         <v>9.0909090909090899</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="44">
+    <row r="5" spans="1:5">
+      <c r="B5" s="42">
         <f>B4*B1</f>
         <v>18.18181818181818</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <f t="shared" ref="C5:D5" si="1">C4*C1</f>
         <v>54.545454545454547</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="42">
         <f t="shared" si="1"/>
         <v>27.27272727272727</v>
       </c>
@@ -3408,101 +3972,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="8" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
+      <c r="J1" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
       <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N2" t="s">
+        <v>374</v>
+      </c>
+      <c r="O2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G2" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K2" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2" t="s">
-        <v>358</v>
-      </c>
-      <c r="M2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N2" t="s">
-        <v>375</v>
-      </c>
-      <c r="O2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="53"/>
+      <c r="C4" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="53"/>
+      <c r="C5" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="51"/>
-      <c r="C5" s="10" t="s">
-        <v>380</v>
-      </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3514,9 +4079,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3524,14 +4089,14 @@
       <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>251</v>
       </c>
@@ -3544,1434 +4109,1434 @@
       <c r="D1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" t="s">
         <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>43841</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>43841</v>
       </c>
       <c r="E2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" t="s">
         <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>43983</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>43996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" t="s">
         <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <v>43809</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>43809</v>
       </c>
       <c r="E4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
         <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>44001</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>44001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" t="s">
         <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>43998</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>43998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" t="s">
         <v>255</v>
       </c>
       <c r="B7" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>43810</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>43810</v>
       </c>
       <c r="E7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" t="s">
         <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>43809</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>43809</v>
       </c>
       <c r="E8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" t="s">
         <v>255</v>
       </c>
       <c r="B9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>43809</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>43809</v>
       </c>
       <c r="E9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" t="s">
         <v>255</v>
       </c>
       <c r="B10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>43836</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>43836</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" t="s">
         <v>255</v>
       </c>
       <c r="B11" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>43841</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>43841</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" t="s">
         <v>255</v>
       </c>
       <c r="B12" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>43857</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>43857</v>
       </c>
       <c r="E12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" t="s">
         <v>267</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>43883</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>43883</v>
       </c>
       <c r="E13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
         <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>42427</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>42427</v>
       </c>
       <c r="E14" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
         <v>267</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>43811</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>43811</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
         <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>43781</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>43792</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>43766</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>43766</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>267</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="37">
         <v>43792</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>43792</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>267</v>
       </c>
       <c r="B19" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>43804</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>43804</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
         <v>267</v>
       </c>
       <c r="B20" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <v>43982</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>43995</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>267</v>
       </c>
       <c r="B21" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>43960</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>43960</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>267</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="37">
         <v>43998</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>44003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>267</v>
       </c>
       <c r="B23" t="s">
         <v>271</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <v>43883</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>43883</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>267</v>
       </c>
       <c r="B24" t="s">
         <v>272</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="37">
         <v>43998</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>43998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>267</v>
       </c>
       <c r="B25" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>43855</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>43855</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>267</v>
       </c>
       <c r="B26" t="s">
         <v>274</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="37">
         <v>43855</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>43857</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>267</v>
       </c>
       <c r="B27" t="s">
         <v>275</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>43995</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>43995</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>267</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="37">
         <v>43963</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>43963</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>267</v>
       </c>
       <c r="B29" t="s">
         <v>276</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>43875</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>43989</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>267</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="37">
         <v>43935</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>43992</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>267</v>
       </c>
       <c r="B31" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="37">
         <v>43988</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>43989</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>267</v>
       </c>
       <c r="B32" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="37">
         <v>43845</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>43848</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
         <v>267</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <v>43845</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>43997</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
         <v>267</v>
       </c>
       <c r="B34" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <v>43996</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>43996</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
         <v>267</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="37">
         <v>43873</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>43876</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
         <v>267</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>43939</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="37">
         <v>43939</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
         <v>267</v>
       </c>
       <c r="B37" t="s">
         <v>280</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="37">
         <v>43883</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="37">
         <v>43924</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
         <v>281</v>
       </c>
       <c r="B38" t="s">
         <v>282</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="37">
         <v>43962</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="37">
         <v>43962</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
         <v>281</v>
       </c>
       <c r="B39" t="s">
         <v>283</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="37">
         <v>43845</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="37">
         <v>43845</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
         <v>281</v>
       </c>
       <c r="B40" t="s">
         <v>284</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="37">
         <v>43465</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="37">
         <v>43465</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
         <v>285</v>
       </c>
       <c r="B41" t="s">
         <v>286</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <v>43988</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="37">
         <v>43988</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
         <v>285</v>
       </c>
       <c r="B42" t="s">
         <v>287</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="37">
         <v>43989</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="37">
         <v>43989</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
         <v>288</v>
       </c>
       <c r="B43" t="s">
         <v>289</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="37">
         <v>43872</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="37">
         <v>43872</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>290</v>
       </c>
       <c r="B44" t="s">
         <v>291</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="37">
         <v>44001</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="37">
         <v>44001</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>290</v>
       </c>
       <c r="B45" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="37">
         <v>43989</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="37">
         <v>43989</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
         <v>290</v>
       </c>
       <c r="B46" t="s">
         <v>292</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="37">
         <v>43858</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="37">
         <v>43858</v>
       </c>
       <c r="E46" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
         <v>290</v>
       </c>
       <c r="B47" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="37">
         <v>43992</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="37">
         <v>43992</v>
       </c>
       <c r="E47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
         <v>290</v>
       </c>
       <c r="B48" t="s">
         <v>294</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="37">
         <v>42427</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="37">
         <v>43151</v>
       </c>
       <c r="E48" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
         <v>290</v>
       </c>
       <c r="B49" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <v>42422</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="37">
         <v>42427</v>
       </c>
       <c r="E49" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>290</v>
       </c>
       <c r="B50" t="s">
         <v>296</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="37">
         <v>43962</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="37">
         <v>43962</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
         <v>290</v>
       </c>
       <c r="B51" t="s">
         <v>297</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <v>43842</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="37">
         <v>43842</v>
       </c>
       <c r="E51" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
         <v>290</v>
       </c>
       <c r="B52" t="s">
         <v>298</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="37">
         <v>43151</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="37">
         <v>43478</v>
       </c>
       <c r="E52" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
         <v>290</v>
       </c>
       <c r="B53" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <v>43151</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="37">
         <v>43989</v>
       </c>
       <c r="E53" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
         <v>290</v>
       </c>
       <c r="B54" t="s">
         <v>300</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="37">
         <v>44002</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="37">
         <v>44002</v>
       </c>
       <c r="E54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
         <v>290</v>
       </c>
       <c r="B55" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>42823</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="37">
         <v>42823</v>
       </c>
       <c r="E55" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>290</v>
       </c>
       <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="37">
         <v>43833</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="37">
         <v>43873</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
         <v>290</v>
       </c>
       <c r="B57" t="s">
         <v>302</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="37">
         <v>43992</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="37">
         <v>43992</v>
       </c>
       <c r="E57" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
         <v>290</v>
       </c>
       <c r="B58" t="s">
         <v>303</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="37">
         <v>43996</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="37">
         <v>43996</v>
       </c>
       <c r="E58" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
         <v>290</v>
       </c>
       <c r="B59" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="37">
         <v>42400</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="37">
         <v>42400</v>
       </c>
       <c r="E59" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>290</v>
       </c>
       <c r="B60" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="38">
+      <c r="C60" s="37">
         <v>43851</v>
       </c>
-      <c r="D60" s="38">
+      <c r="D60" s="37">
         <v>43996</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
         <v>290</v>
       </c>
       <c r="B61" t="s">
         <v>306</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="37">
         <v>43982</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="37">
         <v>43996</v>
       </c>
       <c r="E61" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
         <v>290</v>
       </c>
       <c r="B62" t="s">
         <v>307</v>
       </c>
-      <c r="C62" s="38">
+      <c r="C62" s="37">
         <v>43819</v>
       </c>
-      <c r="D62" s="38">
+      <c r="D62" s="37">
         <v>43982</v>
       </c>
       <c r="E62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
         <v>290</v>
       </c>
       <c r="B63" t="s">
         <v>308</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="37">
         <v>43798</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="37">
         <v>43799</v>
       </c>
       <c r="E63" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>290</v>
       </c>
       <c r="B64" t="s">
         <v>309</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C64" s="37">
         <v>43974</v>
       </c>
-      <c r="D64" s="38">
+      <c r="D64" s="37">
         <v>43974</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>290</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="37">
         <v>43845</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="37">
         <v>43845</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>290</v>
       </c>
       <c r="B66" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66" s="37">
         <v>44001</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66" s="37">
         <v>44001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>290</v>
       </c>
       <c r="B67" t="s">
         <v>311</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="37">
         <v>43850</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="37">
         <v>43850</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>290</v>
       </c>
       <c r="B68" t="s">
         <v>232</v>
       </c>
-      <c r="C68" s="38">
+      <c r="C68" s="37">
         <v>43827</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="37">
         <v>43827</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>290</v>
       </c>
       <c r="B69" t="s">
         <v>312</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="37">
         <v>42400</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="37">
         <v>42400</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>290</v>
       </c>
       <c r="B70" t="s">
         <v>313</v>
       </c>
-      <c r="C70" s="38">
+      <c r="C70" s="37">
         <v>43996</v>
       </c>
-      <c r="D70" s="38">
+      <c r="D70" s="37">
         <v>43997</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
         <v>290</v>
       </c>
       <c r="B71" t="s">
         <v>314</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="37">
         <v>43996</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="37">
         <v>43997</v>
       </c>
       <c r="E71" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
         <v>290</v>
       </c>
       <c r="B72" t="s">
         <v>315</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72" s="37">
         <v>43995</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72" s="37">
         <v>43995</v>
       </c>
       <c r="E72" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
         <v>290</v>
       </c>
       <c r="B73" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="37">
         <v>43992</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="37">
         <v>43992</v>
       </c>
       <c r="E73" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>290</v>
       </c>
       <c r="B74" t="s">
         <v>317</v>
       </c>
-      <c r="C74" s="38">
+      <c r="C74" s="37">
         <v>43809</v>
       </c>
-      <c r="D74" s="38">
+      <c r="D74" s="37">
         <v>43809</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>290</v>
       </c>
       <c r="B75" t="s">
         <v>318</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="37">
         <v>43975</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="37">
         <v>43975</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>290</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="38">
+      <c r="C76" s="37">
         <v>43975</v>
       </c>
-      <c r="D76" s="38">
+      <c r="D76" s="37">
         <v>43975</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
         <v>290</v>
       </c>
       <c r="B77" t="s">
         <v>319</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="37">
         <v>43846</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="37">
         <v>43846</v>
       </c>
       <c r="E77" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
         <v>290</v>
       </c>
       <c r="B78" t="s">
         <v>320</v>
       </c>
-      <c r="C78" s="38">
+      <c r="C78" s="37">
         <v>43187</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78" s="37">
         <v>43810</v>
       </c>
       <c r="E78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>290</v>
       </c>
       <c r="B79" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="38">
+      <c r="C79" s="37">
         <v>43975</v>
       </c>
-      <c r="D79" s="38">
+      <c r="D79" s="37">
         <v>43975</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>290</v>
       </c>
       <c r="B80" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="38">
+      <c r="C80" s="37">
         <v>43988</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="37">
         <v>43988</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>290</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
       </c>
-      <c r="C81" s="38">
+      <c r="C81" s="37">
         <v>43844</v>
       </c>
-      <c r="D81" s="38">
+      <c r="D81" s="37">
         <v>43845</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
         <v>290</v>
       </c>
       <c r="B82" t="s">
         <v>322</v>
       </c>
-      <c r="C82" s="38">
+      <c r="C82" s="37">
         <v>43975</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="37">
         <v>43995</v>
       </c>
       <c r="E82" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>290</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="38">
+      <c r="C83" s="37">
         <v>44002</v>
       </c>
-      <c r="D83" s="38">
+      <c r="D83" s="37">
         <v>44002</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
         <v>290</v>
       </c>
       <c r="B84" t="s">
         <v>323</v>
       </c>
-      <c r="C84" s="38">
+      <c r="C84" s="37">
         <v>43823</v>
       </c>
-      <c r="D84" s="38">
+      <c r="D84" s="37">
         <v>43843</v>
       </c>
       <c r="E84" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>290</v>
       </c>
       <c r="B85" t="s">
         <v>234</v>
       </c>
-      <c r="C85" s="38">
+      <c r="C85" s="37">
         <v>43995</v>
       </c>
-      <c r="D85" s="38">
+      <c r="D85" s="37">
         <v>43995</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>290</v>
       </c>
       <c r="B86" t="s">
         <v>324</v>
       </c>
-      <c r="C86" s="38">
+      <c r="C86" s="37">
         <v>43465</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="37">
         <v>43465</v>
       </c>
       <c r="E86" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>290</v>
       </c>
       <c r="B87" t="s">
         <v>325</v>
       </c>
-      <c r="C87" s="38">
+      <c r="C87" s="37">
         <v>42485</v>
       </c>
-      <c r="D87" s="38">
+      <c r="D87" s="37">
         <v>43184</v>
       </c>
       <c r="E87" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>290</v>
       </c>
       <c r="B88" t="s">
         <v>326</v>
       </c>
-      <c r="C88" s="38">
+      <c r="C88" s="37">
         <v>43988</v>
       </c>
-      <c r="D88" s="38">
+      <c r="D88" s="37">
         <v>44000</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>290</v>
       </c>
       <c r="B89" t="s">
         <v>327</v>
       </c>
-      <c r="C89" s="38">
+      <c r="C89" s="37">
         <v>43829</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="37">
         <v>43829</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
         <v>290</v>
       </c>
       <c r="B90" t="s">
         <v>328</v>
       </c>
-      <c r="C90" s="38">
+      <c r="C90" s="37">
         <v>43820</v>
       </c>
-      <c r="D90" s="38">
+      <c r="D90" s="37">
         <v>43820</v>
       </c>
       <c r="E90" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
         <v>290</v>
       </c>
       <c r="B91" t="s">
         <v>329</v>
       </c>
-      <c r="C91" s="38">
+      <c r="C91" s="37">
         <v>42693</v>
       </c>
-      <c r="D91" s="38">
+      <c r="D91" s="37">
         <v>43800</v>
       </c>
       <c r="E91" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
         <v>290</v>
       </c>
       <c r="B92" t="s">
         <v>330</v>
       </c>
-      <c r="C92" s="38">
+      <c r="C92" s="37">
         <v>43466</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D92" s="37">
         <v>43800</v>
       </c>
       <c r="E92" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
         <v>290</v>
       </c>
       <c r="B93" t="s">
         <v>331</v>
       </c>
-      <c r="C93" s="38">
+      <c r="C93" s="37">
         <v>43780</v>
       </c>
-      <c r="D93" s="38">
+      <c r="D93" s="37">
         <v>43836</v>
       </c>
       <c r="E93" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
         <v>290</v>
       </c>
       <c r="B94" t="s">
         <v>332</v>
       </c>
-      <c r="C94" s="38">
+      <c r="C94" s="37">
         <v>43968</v>
       </c>
-      <c r="D94" s="38">
+      <c r="D94" s="37">
         <v>43968</v>
       </c>
       <c r="E94" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
         <v>290</v>
       </c>
       <c r="B95" t="s">
         <v>333</v>
       </c>
-      <c r="C95" s="38">
+      <c r="C95" s="37">
         <v>43465</v>
       </c>
-      <c r="D95" s="38">
+      <c r="D95" s="37">
         <v>43820</v>
       </c>
       <c r="E95" t="s">
@@ -4997,7 +5562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -5006,13 +5571,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5023,7 +5588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5031,7 +5596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="73.5" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5042,7 +5607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5058,7 +5623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H9"/>
@@ -5067,7 +5632,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="3" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
@@ -5077,7 +5642,7 @@
     <col min="8" max="8" width="228.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
@@ -5103,7 +5668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -5133,7 +5698,7 @@
         <v>, (b.ShotsMadeUsRegPt3 - IsNull(bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineTeam  / b.ScoreRegUs ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctAllowed - 1.0) * @BxScTmStrPct) AS AverageMadeUsPt3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.25" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
@@ -5151,7 +5716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
@@ -5167,7 +5732,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
@@ -5183,7 +5748,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -5213,7 +5778,7 @@
         <v xml:space="preserve">     , @Pt1 * tHomeGB1.AverageMadeUsPt1 * ( 1.0 + (( (tAwayGB10.AverageMadeOpPt1 / @LgAvgShotsMadeAwayPt1) - 1.0 ) * @TmStrAdjPct) )   as CalcHomeGB1Pt1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
@@ -5232,7 +5797,7 @@
         <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="10" t="s">
         <v>33</v>
       </c>
@@ -5250,7 +5815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
@@ -5274,33 +5839,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5318,7 +5884,7 @@
         <v>16.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5330,7 +5896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5342,12 +5908,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
@@ -5360,9 +5926,9 @@
         <v>82.584999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7">
         <v>-0.5</v>
@@ -5374,9 +5940,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8">
         <f>(C6+C7) / C6</f>
@@ -5391,12 +5957,12 @@
         <v>1.0242174729067022</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5413,7 +5979,7 @@
         <v>17.155642671187262</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5422,7 +5988,7 @@
         <v>49.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5431,7 +5997,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="C13">
         <f>SUM(C10:C12)</f>
         <v>99.5</v>
@@ -5442,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -5451,29 +6017,30 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5481,15 +6048,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5497,15 +6064,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5513,308 +6080,308 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -5822,7 +6389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
@@ -5831,21 +6398,21 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="16" t="s">
+    <row r="3" spans="4:9" ht="15.75">
+      <c r="D3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9">
       <c r="D4" t="s">
         <v>50</v>
       </c>
@@ -5853,7 +6420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9">
       <c r="D5" t="s">
         <v>51</v>
       </c>
@@ -5861,7 +6428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9">
       <c r="D6" t="s">
         <v>52</v>
       </c>
@@ -5869,7 +6436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
         <v>53</v>
       </c>
@@ -5877,100 +6444,100 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9">
       <c r="I8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9">
       <c r="I9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="26"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="26" t="s">
+    <row r="17" spans="1:3">
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+    <row r="19" spans="1:3">
+      <c r="C19" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="26" t="s">
+    <row r="20" spans="1:3">
+      <c r="C20" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="26"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="26"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+    <row r="21" spans="1:3">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="25"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:3" ht="11.25" customHeight="1">
+      <c r="A28" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="21" t="s">
+    <row r="29" spans="1:3" ht="12" customHeight="1">
+      <c r="A29" s="55"/>
+      <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="25" t="s">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="55"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18" t="s">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="E42">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="E43">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="E44">
         <f>E42+E43-220</f>
         <v>226</v>
@@ -5994,22 +6561,22 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -6017,7 +6584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6042,110 +6609,110 @@
       <selection pane="bottomRight" activeCell="G14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="C22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="C23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="D24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="C25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="C26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="C27" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="B28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -6157,25 +6724,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319AFF3D-2E3E-47FC-96E4-8D0D10DB3969}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B2" t="str">
@@ -6183,8 +6751,8 @@
         <v>Convert.ToDateTime("2018-11-21"),</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B3" t="str">
@@ -6192,8 +6760,8 @@
         <v>Convert.ToDateTime("2018-11-24"),</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B4" t="str">
@@ -6201,8 +6769,8 @@
         <v>Convert.ToDateTime("2018-12-16"),</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B5" t="str">
@@ -6210,8 +6778,8 @@
         <v>Convert.ToDateTime("2019-01-04"),</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B6" t="str">
@@ -6219,8 +6787,8 @@
         <v>Convert.ToDateTime("2019-01-05"),</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B7" t="str">
@@ -6228,8 +6796,8 @@
         <v>Convert.ToDateTime("2019-01-08"),</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B8" t="str">
@@ -6237,8 +6805,8 @@
         <v>Convert.ToDateTime("2019-01-21"),</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B9" t="str">
@@ -6246,8 +6814,8 @@
         <v>Convert.ToDateTime("2019-01-25"),</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B10" t="str">
@@ -6255,8 +6823,8 @@
         <v>Convert.ToDateTime("2019-01-27"),</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B11" t="str">
@@ -6264,8 +6832,8 @@
         <v>Convert.ToDateTime("2019-01-29"),</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B12" t="str">
@@ -6273,8 +6841,8 @@
         <v>Convert.ToDateTime("2019-02-02"),</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B13" t="str">
@@ -6282,8 +6850,8 @@
         <v>Convert.ToDateTime("2019-02-05"),</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B14" t="str">
@@ -6291,8 +6859,8 @@
         <v>Convert.ToDateTime("2019-02-11"),</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B15" t="str">
@@ -6300,8 +6868,8 @@
         <v>Convert.ToDateTime("2019-02-13"),</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B16" t="str">
@@ -6309,8 +6877,8 @@
         <v>Convert.ToDateTime("2019-02-23"),</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B17" t="str">
@@ -6318,8 +6886,8 @@
         <v>Convert.ToDateTime("2019-02-24"),</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B18" t="str">
@@ -6327,8 +6895,8 @@
         <v>Convert.ToDateTime("2019-02-25"),</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B19" t="str">
@@ -6336,8 +6904,8 @@
         <v>Convert.ToDateTime("2019-03-02"),</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B20" t="str">
@@ -6345,8 +6913,8 @@
         <v>Convert.ToDateTime("2019-03-03"),</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B21" t="str">
@@ -6354,8 +6922,8 @@
         <v>Convert.ToDateTime("2019-04-05"),</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B22" t="str">
@@ -6363,8 +6931,8 @@
         <v>Convert.ToDateTime("2019-12-26"),</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B23" t="str">
@@ -6372,8 +6940,8 @@
         <v>Convert.ToDateTime("2020-01-06"),</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B24" t="str">
@@ -6381,8 +6949,8 @@
         <v>Convert.ToDateTime("2020-01-28"),</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B25" t="str">
@@ -6390,8 +6958,8 @@
         <v>Convert.ToDateTime("2020-01-29"),</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B26" t="str">
@@ -6399,8 +6967,8 @@
         <v>Convert.ToDateTime("2020-01-31"),</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B27" t="str">
@@ -6408,8 +6976,8 @@
         <v>Convert.ToDateTime("2020-02-08"),</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B28" t="str">
@@ -6417,8 +6985,8 @@
         <v>Convert.ToDateTime("2020-02-12"),</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B29" t="str">
@@ -6426,8 +6994,8 @@
         <v>Convert.ToDateTime("2020-03-04"),</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:2">
+      <c r="A30" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6436,30 +7004,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C427DCF-E7C3-4561-9673-B3729B2C7435}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6470,7 +7039,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -6481,7 +7050,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -6492,7 +7061,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -6503,7 +7072,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -6514,7 +7083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -6525,7 +7094,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -6536,7 +7105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -6547,7 +7116,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6558,7 +7127,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -6569,7 +7138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -6580,7 +7149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -6591,7 +7160,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -6602,7 +7171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -6613,7 +7182,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -6624,7 +7193,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -6635,7 +7204,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -6646,7 +7215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -6657,7 +7226,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -6668,7 +7237,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -6679,7 +7248,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -6690,7 +7259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -6712,472 +7281,501 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="74.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="H1" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
         <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="57" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="B4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>1.2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>1.3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>1.4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" hidden="1">
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="U9" t="s">
+        <v>248</v>
+      </c>
+      <c r="V9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" hidden="1">
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="S10" t="s">
+        <v>245</v>
+      </c>
+      <c r="U10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" hidden="1">
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="S11" t="s">
+        <v>244</v>
+      </c>
+      <c r="T11" t="s">
+        <v>246</v>
+      </c>
+      <c r="U11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" hidden="1">
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="U12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" hidden="1">
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" hidden="1">
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" hidden="1">
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" hidden="1">
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
+      <c r="B17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
+      <c r="B18" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" hidden="1">
+      <c r="A19">
+        <v>1.41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="F19" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
+      <c r="A20">
+        <v>1.5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>364</v>
+      </c>
+      <c r="C20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
+      <c r="B21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
+      <c r="B22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
+      <c r="A23">
+        <v>1.6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
+      <c r="B24" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
+      <c r="A25">
+        <v>1.7</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
+      <c r="A26">
+        <v>1.8</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+      <c r="H26" s="44" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1.2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>187</v>
-      </c>
-      <c r="T7" t="s">
-        <v>248</v>
-      </c>
-      <c r="U7" t="s">
+    <row r="27" spans="1:11" hidden="1">
+      <c r="A27">
+        <v>1.9</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
+      <c r="B28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="1:11" hidden="1">
+      <c r="B29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="50"/>
+      <c r="K29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-      <c r="R8" t="s">
-        <v>245</v>
-      </c>
-      <c r="T8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>189</v>
-      </c>
-      <c r="R9" t="s">
-        <v>244</v>
-      </c>
-      <c r="S9" t="s">
-        <v>246</v>
-      </c>
-      <c r="T9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
-      <c r="T10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1.6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1.7</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1.8</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" t="s">
-        <v>366</v>
-      </c>
-      <c r="G21" s="46" t="s">
+    <row r="30" spans="1:11" hidden="1">
+      <c r="B30" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
+      <c r="B31" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="F31" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
+      <c r="A32" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="H32" s="44" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1.9</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="14" t="s">
+    <row r="33" spans="1:8">
+      <c r="B33" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="30"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45">
+      <c r="A35" s="40">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="56"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="56"/>
-      <c r="J24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="G27" s="46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="14" t="s">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="57">
+        <v>2</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="2"/>
+      <c r="E39" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39" t="s">
+        <v>493</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="G42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2.1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="F38" t="s">
-        <v>348</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="F41" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="1:8">
+      <c r="B45" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="57">
         <v>3</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="33"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="32"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>3.1</v>
       </c>
@@ -7186,7 +7784,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>3.2</v>
       </c>
@@ -7195,8 +7793,8 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="33" t="s">
         <v>219</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -7204,8 +7802,8 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="33" t="s">
         <v>220</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -7213,218 +7811,214 @@
       </c>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C52" s="35"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="36" t="s">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="35"/>
       <c r="D53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="36" t="s">
+    <row r="54" spans="1:11">
+      <c r="B54" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="36"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H55" t="s">
+      <c r="C54" s="35"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="I55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C56" s="37"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+    <row r="56" spans="1:11">
+      <c r="B56" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C57" s="37"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="36"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="35"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="B58" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="C58" s="36"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="36"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="35"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="57">
+        <v>4</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>4.2</v>
+        <v>239</v>
+      </c>
+      <c r="K62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="33">
+        <v>4.3099999999999996</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
-      </c>
-      <c r="J63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>4.3</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="K63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="B64" t="s">
-        <v>239</v>
-      </c>
-      <c r="J64">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="B65" t="s">
-        <v>240</v>
-      </c>
-      <c r="J65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+    <row r="65" spans="1:9">
+      <c r="B65" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="27" t="s">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="30.75" customHeight="1">
+      <c r="B66" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="27"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="26"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>4.32</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="26"/>
+    </row>
+    <row r="68" spans="1:9" ht="30.75" customHeight="1">
+      <c r="B68" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="G68" t="s">
+        <v>352</v>
+      </c>
+      <c r="H68" s="44" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
-        <v>4.32</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="C69" s="27"/>
-    </row>
-    <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="C70" s="27"/>
-      <c r="F70" t="s">
-        <v>353</v>
-      </c>
-      <c r="G70" s="46" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71">
         <v>4.33</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C71" s="27"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="14" t="s">
+      <c r="C70" s="1"/>
+      <c r="D70" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" t="s">
         <v>44</v>
       </c>
-      <c r="H73" t="str">
-        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D73</f>
+      <c r="I71" t="str">
+        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D71</f>
         <v>SELECT  max(GameDate) as MaxDate FROM TodaysMatchups</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+    <row r="72" spans="1:9">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="33" t="s">
+    <row r="75" spans="1:9">
+      <c r="B75" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C75" t="s">
         <v>337</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D75" t="s">
         <v>234</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H5" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
+  <autoFilter ref="A1:I38" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7433,154 +8027,155 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="48" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="B2" s="48">
+        <v>-3</v>
+      </c>
+      <c r="C2" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B3" s="48">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="48">
+        <v>0</v>
+      </c>
+      <c r="C4" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="48">
+        <v>0</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="48">
+        <v>0</v>
+      </c>
+      <c r="C8" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="48">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="48">
+        <v>3</v>
+      </c>
+      <c r="C10" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="48">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="48">
+        <v>1</v>
+      </c>
+      <c r="C12" s="48">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="48">
         <v>-3</v>
       </c>
-      <c r="C2" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="50">
-        <v>0</v>
-      </c>
-      <c r="C3" s="50">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="B4" s="50">
-        <v>0</v>
-      </c>
-      <c r="C4" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>477</v>
-      </c>
-      <c r="B5" s="50">
-        <v>0</v>
-      </c>
-      <c r="C5" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>478</v>
-      </c>
-      <c r="B6" s="50">
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="B7" s="50">
-        <v>0</v>
-      </c>
-      <c r="C7" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="50">
-        <v>0</v>
-      </c>
-      <c r="C8" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="B9" s="50">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>482</v>
-      </c>
-      <c r="B10" s="50">
-        <v>3</v>
-      </c>
-      <c r="C10" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>483</v>
-      </c>
-      <c r="B11" s="50">
-        <v>0</v>
-      </c>
-      <c r="C11" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="B12" s="50">
-        <v>1</v>
-      </c>
-      <c r="C12" s="50">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>485</v>
-      </c>
-      <c r="B13" s="50">
-        <v>-3</v>
-      </c>
-      <c r="C13" s="50">
+      <c r="C13" s="48">
         <v>0</v>
       </c>
     </row>
@@ -7591,145 +8186,146 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="43">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="43">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="43">
+        <v>2</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="45">
-        <v>1</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="G2" s="47" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="43">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="43">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="H2" t="s">
-        <v>459</v>
-      </c>
-      <c r="I2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G5" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" t="s">
         <v>443</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>441</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="45">
-        <v>2</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" t="s">
-        <v>459</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D5" s="45">
-        <v>3</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>444</v>
-      </c>
-      <c r="I5" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7740,33 +8336,34 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:M17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="D3" t="s">
         <v>82</v>
       </c>
       <c r="M3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="M4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>340</v>
       </c>
@@ -7774,12 +8371,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -7787,24 +8384,24 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="D10" t="str">
         <f t="shared" ref="D10:D15" si="0">"AverageAtmp"&amp;E12&amp;"Pt"</f>
         <v>AverageAtmpUsPt</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>AverageAtmpUsPt</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1</v>
       </c>
@@ -7826,7 +8423,7 @@
         <v>, tAwayGB10.AverageAtmpUsPt1 as HomeAverageAtmpUsPt1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7848,7 +8445,7 @@
         <v>, tAwayGB10.AverageAtmpUsPt2 as HomeAverageAtmpUsPt2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7870,7 +8467,7 @@
         <v>, tAwayGB10.AverageAtmpUsPt3 as HomeAverageAtmpUsPt3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1</v>
       </c>
@@ -7892,7 +8489,7 @@
         <v>, tAwayGB10.AverageAtmpOpPt1 as HomeAverageAtmpOpPt1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>2</v>
       </c>
@@ -7910,7 +8507,7 @@
         <v>, tAwayGB10.AverageAtmpOpPt2 as HomeAverageAtmpOpPt2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>3</v>
       </c>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26EE961-BF31-4E16-9D1C-63F317661362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFCC4F-2C9A-4F64-842F-2FFA31829D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="825" windowWidth="26250" windowHeight="14565" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="405" yWindow="945" windowWidth="27300" windowHeight="13620" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -2680,6 +2680,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2691,13 +2698,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3988,11 +3988,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="56" t="s">
         <v>372</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4053,7 +4053,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="53"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="10" t="s">
         <v>378</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="53"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="10" t="s">
         <v>379</v>
       </c>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -6500,7 +6500,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
@@ -6509,14 +6509,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>70</v>
@@ -7285,7 +7285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7333,10 +7333,10 @@
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="57">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="53" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7691,10 +7691,10 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="57">
+      <c r="A39" s="53">
         <v>2</v>
       </c>
-      <c r="B39" s="58"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="2"/>
       <c r="E39" t="s">
         <v>516</v>
@@ -7767,10 +7767,10 @@
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="57">
+      <c r="A47" s="53">
         <v>3</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="55" t="s">
         <v>215</v>
       </c>
       <c r="C47" s="32"/>
@@ -7870,10 +7870,10 @@
       <c r="C58" s="35"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="57">
+      <c r="A59" s="53">
         <v>4</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="55" t="s">
         <v>236</v>
       </c>
     </row>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFCC4F-2C9A-4F64-842F-2FFA31829D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A93F051-76A5-4FDB-9250-E339910068F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="945" windowWidth="27300" windowHeight="13620" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="59190" yWindow="765" windowWidth="22350" windowHeight="13470" tabRatio="831" activeTab="6" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,23 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
     <sheet name="22 Teams" sheetId="9" r:id="rId5"/>
     <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId6"/>
-    <sheet name="Bills ADJs" sheetId="18" r:id="rId7"/>
-    <sheet name="BSS Flow" sheetId="16" r:id="rId8"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId9"/>
-    <sheet name="GameStatus" sheetId="19" r:id="rId10"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId11"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId12"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId13"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId14"/>
-    <sheet name="Templates" sheetId="4" r:id="rId15"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId16"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId17"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId18"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId19"/>
+    <sheet name="Instances" sheetId="20" r:id="rId7"/>
+    <sheet name="Bills ADJs" sheetId="18" r:id="rId8"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId9"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId10"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId11"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId12"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId13"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId14"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId15"/>
+    <sheet name="Templates" sheetId="4" r:id="rId16"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId17"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId18"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId19"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$38</definedName>
     <definedName name="TmTL">'Avg Atmp'!$A$2</definedName>
     <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
@@ -103,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="530">
   <si>
     <t>Name</t>
   </si>
@@ -2321,6 +2322,42 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>FERRARI616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLEXPRESS2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQLEXPRESS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBALL </t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SQL Server 11.0.2100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FERRARI616\keith)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SQL Server 14.0.2027 </t>
+  </si>
+  <si>
+    <t>Ver Year</t>
   </si>
 </sst>
 </file>
@@ -3679,6 +3716,202 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A3:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="M4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D15" si="0">"AverageAtmp"&amp;E12&amp;"Pt"</f>
+        <v>AverageAtmpUsPt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpUsPt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpUsPt</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G17" si="1">", " &amp;B12&amp; "." &amp;  D10 &amp; A12 &amp; " as " &amp; F12 &amp;D10 &amp;A12</f>
+        <v>, tAwayGB10.AverageAtmpUsPt1 as HomeAverageAtmpUsPt1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpOpPt</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpUsPt2 as HomeAverageAtmpUsPt2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpOpPt</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpUsPt3 as HomeAverageAtmpUsPt3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>AverageAtmpOpPt</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpOpPt1 as HomeAverageAtmpOpPt1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpOpPt2 as HomeAverageAtmpOpPt2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>, tAwayGB10.AverageAtmpOpPt3 as HomeAverageAtmpOpPt3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W27"/>
@@ -3874,7 +4107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
@@ -3972,7 +4205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
@@ -4079,7 +4312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
@@ -5562,7 +5795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -5623,7 +5856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H9"/>
@@ -5839,7 +6072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E13"/>
@@ -6008,7 +6241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -6024,7 +6257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
@@ -6386,169 +6619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A3:I44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:9" ht="15.75">
-      <c r="D3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="4:9">
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="4:9">
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="4:9">
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9">
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9">
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="25"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="E42">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="E43">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="E44">
-        <f>E42+E43-220</f>
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A28:A31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6594,6 +6664,169 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A3:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:9" ht="15.75">
+      <c r="D3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9">
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="25"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="25"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="28" spans="1:3" ht="11.25" customHeight="1">
+      <c r="A28" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1">
+      <c r="A29" s="58"/>
+      <c r="B29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="58"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="E42">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="E43">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="E44">
+        <f>E42+E43-220</f>
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7283,7 +7516,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
@@ -8026,6 +8259,97 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>529</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2">
+        <v>2012</v>
+      </c>
+      <c r="E2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C13"/>
@@ -8184,7 +8508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I5"/>
@@ -8332,200 +8656,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A3:M17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:13">
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="M4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:D15" si="0">"AverageAtmp"&amp;E12&amp;"Pt"</f>
-        <v>AverageAtmpUsPt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpUsPt</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpUsPt</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ref="G12:G17" si="1">", " &amp;B12&amp; "." &amp;  D10 &amp; A12 &amp; " as " &amp; F12 &amp;D10 &amp;A12</f>
-        <v>, tAwayGB10.AverageAtmpUsPt1 as HomeAverageAtmpUsPt1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpOpPt</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpUsPt2 as HomeAverageAtmpUsPt2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpOpPt</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpUsPt3 as HomeAverageAtmpUsPt3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>AverageAtmpOpPt</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpOpPt1 as HomeAverageAtmpOpPt1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpOpPt2 as HomeAverageAtmpOpPt2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>, tAwayGB10.AverageAtmpOpPt3 as HomeAverageAtmpOpPt3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A93F051-76A5-4FDB-9250-E339910068F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90F32C-2DEF-48C5-BF3D-982C5947E630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59190" yWindow="765" windowWidth="22350" windowHeight="13470" tabRatio="831" activeTab="6" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="765" yWindow="825" windowWidth="27045" windowHeight="14280" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$71</definedName>
     <definedName name="TmTL">'Avg Atmp'!$A$2</definedName>
     <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
   </definedNames>
@@ -50,6 +50,47 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EE2F014B-DBE2-400B-A0C1-F919CB6A0134}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">StartDate: Add StartDate as well as GamesBack
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{E87E8845-7127-490F-A019-21205554E175}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">@varLgAvgGamesBack
+   Vary depending upon Lg Variance 
+  IE  play off
+ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Keith</author>
@@ -78,7 +119,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Keith</author>
@@ -104,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="531">
   <si>
     <t>Name</t>
   </si>
@@ -2318,9 +2359,6 @@
     <t>Rot#/Gm Time</t>
   </si>
   <si>
-    <t>ToDo--&gt;</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -2358,6 +2396,12 @@
   </si>
   <si>
     <t>Ver Year</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>VenueBoth</t>
   </si>
 </sst>
 </file>
@@ -2367,7 +2411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2438,6 +2482,12 @@
       <sz val="11"/>
       <color rgb="FF005259"/>
       <name val="Titillium Web"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2605,7 +2655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2713,7 +2763,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2735,6 +2784,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2765,8 +2823,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>381649</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>514475</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2809,7 +2867,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>295912</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95423</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3930,7 +3988,7 @@
       <c r="A1" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="50">
         <v>231</v>
       </c>
     </row>
@@ -3977,7 +4035,7 @@
       <c r="A6" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="50">
         <v>4</v>
       </c>
     </row>
@@ -3985,7 +4043,7 @@
       <c r="A7" t="s">
         <v>499</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="50">
         <v>12</v>
       </c>
       <c r="D7" s="44"/>
@@ -4030,7 +4088,7 @@
         <f>B10*B8 + B2</f>
         <v>242.26145833333334</v>
       </c>
-      <c r="W11" s="52" t="s">
+      <c r="W11" s="51" t="s">
         <v>505</v>
       </c>
     </row>
@@ -4221,11 +4279,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -4275,7 +4333,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4286,7 +4344,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="56"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="10" t="s">
         <v>378</v>
       </c>
@@ -4295,7 +4353,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="56"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="10" t="s">
         <v>379</v>
       </c>
@@ -6767,7 +6825,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="56" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -6778,7 +6836,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="58"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
@@ -6787,14 +6845,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="58"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>70</v>
@@ -7512,13 +7570,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7535,41 +7593,41 @@
     <col min="22" max="22" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:22" s="61" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A1" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="59" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="str">
+      <c r="I1" s="61" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
         <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="53">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7631,7 +7689,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1">
+    <row r="9" spans="1:22">
       <c r="B9" t="s">
         <v>187</v>
       </c>
@@ -7642,7 +7700,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1">
+    <row r="10" spans="1:22">
       <c r="B10" t="s">
         <v>188</v>
       </c>
@@ -7653,7 +7711,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1">
+    <row r="11" spans="1:22">
       <c r="B11" t="s">
         <v>189</v>
       </c>
@@ -7667,7 +7725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1">
+    <row r="12" spans="1:22">
       <c r="B12" t="s">
         <v>190</v>
       </c>
@@ -7675,40 +7733,40 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1">
+    <row r="13" spans="1:22">
       <c r="B13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1">
+    <row r="14" spans="1:22">
       <c r="B14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1">
+    <row r="15" spans="1:22">
       <c r="B15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="30" hidden="1">
+    <row r="16" spans="1:22" ht="30">
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:11" hidden="1">
+    <row r="17" spans="1:11">
       <c r="B17" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:11" hidden="1">
+    <row r="18" spans="1:11">
       <c r="B18" s="3" t="s">
         <v>491</v>
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:11" hidden="1">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1.41</v>
       </c>
@@ -7716,11 +7774,14 @@
         <v>492</v>
       </c>
       <c r="C19" s="3"/>
+      <c r="E19" t="s">
+        <v>454</v>
+      </c>
       <c r="F19" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>1.5</v>
       </c>
@@ -7731,19 +7792,19 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1">
+    <row r="21" spans="1:11">
       <c r="B21" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:11" hidden="1">
+    <row r="22" spans="1:11">
       <c r="B22" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:11" hidden="1">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>1.6</v>
       </c>
@@ -7751,7 +7812,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1">
+    <row r="24" spans="1:11">
       <c r="B24" s="30" t="s">
         <v>360</v>
       </c>
@@ -7759,7 +7820,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>1.7</v>
       </c>
@@ -7771,7 +7832,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>1.8</v>
       </c>
@@ -7788,7 +7849,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>1.9</v>
       </c>
@@ -7806,7 +7867,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
+    <row r="28" spans="1:11">
       <c r="B28" s="2" t="s">
         <v>199</v>
       </c>
@@ -7814,14 +7875,16 @@
       <c r="D28" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>454</v>
+      </c>
       <c r="F28" s="13" t="s">
         <v>201</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:11" hidden="1">
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="2" t="s">
         <v>202</v>
       </c>
@@ -7830,30 +7893,36 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="50"/>
+      <c r="H29" s="49"/>
       <c r="K29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="B30" s="30" t="s">
         <v>203</v>
       </c>
       <c r="C30" s="30"/>
+      <c r="E30" t="s">
+        <v>454</v>
+      </c>
       <c r="F30" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1">
+    <row r="31" spans="1:11">
       <c r="B31" s="30" t="s">
         <v>207</v>
       </c>
       <c r="C31" s="30"/>
+      <c r="E31" t="s">
+        <v>454</v>
+      </c>
       <c r="F31" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="31">
         <v>1.1000000000000001</v>
       </c>
@@ -7883,6 +7952,9 @@
       <c r="B35" s="6" t="s">
         <v>346</v>
       </c>
+      <c r="E35" t="s">
+        <v>454</v>
+      </c>
       <c r="F35" t="s">
         <v>490</v>
       </c>
@@ -7901,7 +7973,9 @@
       <c r="D36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="E36" t="s">
+        <v>529</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -7914,6 +7988,9 @@
       <c r="D37" t="s">
         <v>186</v>
       </c>
+      <c r="E37" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" s="2" t="s">
@@ -7922,15 +7999,18 @@
       <c r="C38" t="s">
         <v>186</v>
       </c>
+      <c r="E38" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="53">
+      <c r="A39" s="52">
         <v>2</v>
       </c>
-      <c r="B39" s="54"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="2"/>
       <c r="E39" t="s">
-        <v>516</v>
+        <v>359</v>
       </c>
       <c r="F39" t="s">
         <v>493</v>
@@ -7986,12 +8066,18 @@
       <c r="D44" t="s">
         <v>46</v>
       </c>
+      <c r="E44" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C45" s="5"/>
+      <c r="E45" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="5" t="s">
@@ -8000,10 +8086,10 @@
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="53">
+      <c r="A47" s="52">
         <v>3</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="54" t="s">
         <v>215</v>
       </c>
       <c r="C47" s="32"/>
@@ -8103,10 +8189,10 @@
       <c r="C58" s="35"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="53">
+      <c r="A59" s="52">
         <v>4</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="54" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8251,10 +8337,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I38" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
+  <autoFilter ref="A1:I71" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8262,7 +8349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8277,70 +8364,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>524</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" t="s">
         <v>518</v>
       </c>
-      <c r="B2" t="s">
-        <v>519</v>
-      </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D2">
         <v>2012</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90F32C-2DEF-48C5-BF3D-982C5947E630}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855CF85A-690D-4FD3-A656-745A9C3A7A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="825" windowWidth="27045" windowHeight="14280" tabRatio="831" activeTab="5" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="360" yWindow="195" windowWidth="25200" windowHeight="13365" tabRatio="831" activeTab="1" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
     <sheet name="Scripts" sheetId="2" r:id="rId2"/>
     <sheet name="LoadBoxScores" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="ToDateTime" sheetId="10" r:id="rId4"/>
     <sheet name="22 Teams" sheetId="9" r:id="rId5"/>
     <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId6"/>
-    <sheet name="Instances" sheetId="20" r:id="rId7"/>
-    <sheet name="Bills ADJs" sheetId="18" r:id="rId8"/>
-    <sheet name="BSS Flow" sheetId="16" r:id="rId9"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId10"/>
-    <sheet name="GameStatus" sheetId="19" r:id="rId11"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId12"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId13"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId14"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId15"/>
-    <sheet name="Templates" sheetId="4" r:id="rId16"/>
+    <sheet name="Templates" sheetId="4" r:id="rId7"/>
+    <sheet name="Instances" sheetId="20" r:id="rId8"/>
+    <sheet name="Bills ADJs" sheetId="18" r:id="rId9"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId10"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId11"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId12"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId13"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId14"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId15"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId16"/>
     <sheet name="BSS Update process" sheetId="17" r:id="rId17"/>
     <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId18"/>
     <sheet name="BoxScore Columns" sheetId="15" r:id="rId19"/>
     <sheet name="Bball Screenshot" sheetId="7" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$71</definedName>
     <definedName name="TmTL">'Avg Atmp'!$A$2</definedName>
     <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
@@ -96,6 +96,31 @@
     <author>Keith</author>
   </authors>
   <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C80605AE-F0B7-4683-94C5-1BEF37FB9C81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inerrt INTO TeamStatAveraves from BxSc
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E4C23ACE-F5EE-4382-BBD8-67A7FD16930C}">
       <text>
         <r>
@@ -112,31 +137,6 @@
 TF - Table Func
 TT - Table Type
 U - Table</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Keith</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C80605AE-F0B7-4683-94C5-1BEF37FB9C81}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Inerrt INTO TeamStatAveraves from BxSc
-</t>
         </r>
       </text>
     </comment>
@@ -2655,7 +2655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2744,7 +2744,6 @@
       <alignment horizontal="left" indent="6"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2773,6 +2772,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2785,13 +2793,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3774,11 +3779,161 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="42">
+        <v>2</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="42">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="42">
+        <v>3</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M4"/>
     </sheetView>
   </sheetViews>
@@ -3969,7 +4124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W27"/>
@@ -3988,7 +4143,7 @@
       <c r="A1" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="50">
+      <c r="B1" s="49">
         <v>231</v>
       </c>
     </row>
@@ -4035,7 +4190,7 @@
       <c r="A6" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>4</v>
       </c>
     </row>
@@ -4043,21 +4198,21 @@
       <c r="A7" t="s">
         <v>499</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>12</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>501</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="43">
         <f>B1 / (B6*B7)</f>
         <v>4.8125</v>
       </c>
@@ -4066,7 +4221,7 @@
       <c r="A9" t="s">
         <v>500</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="43">
         <f>B6-B3</f>
         <v>0</v>
       </c>
@@ -4075,7 +4230,7 @@
       <c r="A10" t="s">
         <v>502</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="43">
         <f>((B9*B7)+B4)+ B5/60</f>
         <v>1.7166666666666668</v>
       </c>
@@ -4084,11 +4239,11 @@
       <c r="A11" t="s">
         <v>503</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <f>B10*B8 + B2</f>
         <v>242.26145833333334</v>
       </c>
-      <c r="W11" s="51" t="s">
+      <c r="W11" s="50" t="s">
         <v>505</v>
       </c>
     </row>
@@ -4096,7 +4251,7 @@
       <c r="A12" t="s">
         <v>504</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>IF(B2&gt;B1,"OVER",B11-B1)</f>
         <v>OVER</v>
       </c>
@@ -4165,7 +4320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
@@ -4184,13 +4339,13 @@
       <c r="A1" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="41">
+      <c r="B1" s="40">
         <v>1</v>
       </c>
-      <c r="C1" s="41">
+      <c r="C1" s="40">
         <v>2</v>
       </c>
-      <c r="D1" s="41">
+      <c r="D1" s="40">
         <v>3</v>
       </c>
     </row>
@@ -4227,29 +4382,29 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="42">
+      <c r="B4" s="41">
         <f xml:space="preserve"> B2 * (TmTL/TotAtmps)</f>
         <v>18.18181818181818</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <f xml:space="preserve"> C2 * (TmTL/TotAtmps)</f>
         <v>27.272727272727273</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <f xml:space="preserve"> D2 * (TmTL/TotAtmps)</f>
         <v>9.0909090909090899</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="42">
+      <c r="B5" s="41">
         <f>B4*B1</f>
         <v>18.18181818181818</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <f t="shared" ref="C5:D5" si="1">C4*C1</f>
         <v>54.545454545454547</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <f t="shared" si="1"/>
         <v>27.27272727272727</v>
       </c>
@@ -4263,7 +4418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
@@ -4279,11 +4434,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -4333,7 +4488,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -4344,7 +4499,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="55"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="10" t="s">
         <v>378</v>
       </c>
@@ -4353,7 +4508,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="55"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="10" t="s">
         <v>379</v>
       </c>
@@ -4370,14 +4525,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4387,20 +4542,20 @@
     <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="56" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="62" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5853,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -5911,222 +6066,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="3" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
-    <col min="6" max="7" width="5.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="228.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10" t="str">
-        <f>IF(B2="Home", "Away", IF(B2="Away", "Home",""))</f>
-        <v/>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>IF(B2="Us", "Team", IF(B2="Op", "Opp ",""))</f>
-        <v>Team</v>
-      </c>
-      <c r="E2" s="10" t="str">
-        <f>IF(B2="Us", "Allowed", IF(B2="Op", "Scored ",""))</f>
-        <v>Allowed</v>
-      </c>
-      <c r="F2" s="10">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="str">
-        <f>", (b.ShotsMade" &amp; B2 &amp; "RegPt" &amp; F2 &amp; " - IsNull(bL5.Q4Last1Min" &amp; B2 &amp; "Pt" &amp; F2 &amp; ", @LgAvgLastMinPt" &amp; F2 &amp; ") + @LgAvgLastMinPt" &amp; F2 &amp; ") * ( 1.0 + (( (r.TotalLine" &amp; D2 &amp; "  / b.ScoreReg" &amp; B2 &amp; " ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPct" &amp; E2 &amp; " - 1.0) * @BxScTmStrPct) AS AverageMade" &amp; B2 &amp; "Pt" &amp; F2</f>
-        <v>, (b.ShotsMadeUsRegPt3 - IsNull(bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineTeam  / b.ScoreRegUs ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctAllowed - 1.0) * @BxScTmStrPct) AS AverageMadeUsPt3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29.25" customHeight="1">
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10" t="b">
-        <f>H2=H3</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="b">
-        <f>H$2 = H4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="10" t="b">
-        <f>H$2 = H5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="str">
-        <f>IF(B6="Home", "Away", IF(B6="Away", "Home",""))</f>
-        <v>Away</v>
-      </c>
-      <c r="D6" s="10" t="str">
-        <f>IF(B6="Us", "Team", IF(B6="Op", "Opp ",""))</f>
-        <v/>
-      </c>
-      <c r="E6" s="10" t="str">
-        <f>IF(B6="Us", "Allowed", IF(B6="Op", "Scored ",""))</f>
-        <v/>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f>"     , @Pt" &amp; F6 &amp; " * t" &amp; B6 &amp; "GB" &amp; G6 &amp; ".AverageMadeUsPt" &amp; F6 &amp; " * ( 1.0 + (( (t" &amp; C6 &amp; "GB10.AverageMadeOpPt" &amp; F6 &amp; " / @LgAvgShotsMade" &amp; C6 &amp; "Pt" &amp; F6 &amp; ") - 1.0 ) * @TmStrAdjPct) )   as Calc" &amp; B6 &amp; "GB" &amp; G6 &amp; "Pt" &amp; F6 &amp; ""</f>
-        <v xml:space="preserve">     , @Pt1 * tHomeGB1.AverageMadeUsPt1 * ( 1.0 + (( (tAwayGB10.AverageMadeOpPt1 / @LgAvgShotsMadeAwayPt1) - 1.0 ) * @TmStrAdjPct) )   as CalcHomeGB1Pt1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="b">
-        <f>H$6=H7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f>"     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1"</f>
-        <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10" t="b">
-        <f t="shared" ref="C8:C9" si="0">H$6=H8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6685,8 +6624,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6730,7 +6669,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -6825,7 +6764,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="58" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -6836,7 +6775,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="57"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
@@ -6845,14 +6784,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="57"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="58"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>70</v>
@@ -6894,10 +6833,7 @@
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="35" topLeftCell="G117" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="F14:G14"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7019,7 +6955,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7574,9 +7510,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7587,47 +7523,47 @@
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="43" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.42578125" customWidth="1"/>
     <col min="22" max="22" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="61" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:22" s="56" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="61" t="str">
+      <c r="I1" s="56" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
         <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="52">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7845,7 +7781,7 @@
       <c r="D26" t="s">
         <v>365</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H26" s="43" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7882,7 +7818,7 @@
         <v>201</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="49"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="2" t="s">
@@ -7893,7 +7829,7 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="49"/>
+      <c r="H29" s="48"/>
       <c r="K29" t="s">
         <v>250</v>
       </c>
@@ -7926,11 +7862,11 @@
       <c r="A32" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>204</v>
       </c>
       <c r="C32" s="30"/>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="43" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7946,7 +7882,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="45">
-      <c r="A35" s="40">
+      <c r="A35" s="39">
         <v>1.1100000000000001</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -7958,7 +7894,7 @@
       <c r="F35" t="s">
         <v>490</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="43" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8004,10 +7940,10 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="52">
+      <c r="A39" s="51">
         <v>2</v>
       </c>
-      <c r="B39" s="53"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="2"/>
       <c r="E39" t="s">
         <v>359</v>
@@ -8086,10 +8022,10 @@
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="52">
+      <c r="A47" s="51">
         <v>3</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>215</v>
       </c>
       <c r="C47" s="32"/>
@@ -8189,10 +8125,10 @@
       <c r="C58" s="35"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="52">
+      <c r="A59" s="51">
         <v>4</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="53" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8271,7 +8207,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="43" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8346,6 +8282,222 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
+    <col min="6" max="7" width="5.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="228.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(B2="Home", "Away", IF(B2="Away", "Home",""))</f>
+        <v/>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IF(B2="Us", "Team", IF(B2="Op", "Opp ",""))</f>
+        <v>Team</v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>IF(B2="Us", "Allowed", IF(B2="Op", "Scored ",""))</f>
+        <v>Allowed</v>
+      </c>
+      <c r="F2" s="10">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f>", (b.ShotsMade" &amp; B2 &amp; "RegPt" &amp; F2 &amp; " - IsNull(bL5.Q4Last1Min" &amp; B2 &amp; "Pt" &amp; F2 &amp; ", @LgAvgLastMinPt" &amp; F2 &amp; ") + @LgAvgLastMinPt" &amp; F2 &amp; ") * ( 1.0 + (( (r.TotalLine" &amp; D2 &amp; "  / b.ScoreReg" &amp; B2 &amp; " ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPct" &amp; E2 &amp; " - 1.0) * @BxScTmStrPct) AS AverageMade" &amp; B2 &amp; "Pt" &amp; F2</f>
+        <v>, (b.ShotsMadeUsRegPt3 - IsNull(bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineTeam  / b.ScoreRegUs ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctAllowed - 1.0) * @BxScTmStrPct) AS AverageMadeUsPt3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="b">
+        <f>H2=H3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <f>H$2 = H4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <f>H$2 = H5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f>IF(B6="Home", "Away", IF(B6="Away", "Home",""))</f>
+        <v>Away</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f>IF(B6="Us", "Team", IF(B6="Op", "Opp ",""))</f>
+        <v/>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>IF(B6="Us", "Allowed", IF(B6="Op", "Scored ",""))</f>
+        <v/>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f>"     , @Pt" &amp; F6 &amp; " * t" &amp; B6 &amp; "GB" &amp; G6 &amp; ".AverageMadeUsPt" &amp; F6 &amp; " * ( 1.0 + (( (t" &amp; C6 &amp; "GB10.AverageMadeOpPt" &amp; F6 &amp; " / @LgAvgShotsMade" &amp; C6 &amp; "Pt" &amp; F6 &amp; ") - 1.0 ) * @TmStrAdjPct) )   as Calc" &amp; B6 &amp; "GB" &amp; G6 &amp; "Pt" &amp; F6 &amp; ""</f>
+        <v xml:space="preserve">     , @Pt1 * tHomeGB1.AverageMadeUsPt1 * ( 1.0 + (( (tAwayGB10.AverageMadeOpPt1 / @LgAvgShotsMadeAwayPt1) - 1.0 ) * @TmStrAdjPct) )   as CalcHomeGB1Pt1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <f>H$6=H7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f>"     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1"</f>
+        <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <f t="shared" ref="C8:C9" si="0">H$6=H8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8363,19 +8515,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8436,311 +8588,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="47">
         <v>-3</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="47">
         <v>0</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>-1.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="47">
         <v>0</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="47">
         <v>0</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="47">
         <v>0</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="47">
         <v>-1.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="47">
         <v>0</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>479</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="47">
         <v>0</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="47">
         <v>-1</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="47">
         <v>3</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>482</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <v>0</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="47" t="s">
         <v>483</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <v>1</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>-3</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="43" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>440</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="43">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D4" s="43">
-        <v>2</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>469</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" t="s">
-        <v>458</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D5" s="43">
-        <v>3</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="H5" t="s">
-        <v>443</v>
-      </c>
-      <c r="I5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855CF85A-690D-4FD3-A656-745A9C3A7A3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C453AC-F53A-449D-809C-45C61FB48FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="195" windowWidth="25200" windowHeight="13365" tabRatio="831" activeTab="1" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="29880" yWindow="1440" windowWidth="21600" windowHeight="12600" tabRatio="831" activeTab="6" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,40 @@
     <sheet name="ToDateTime" sheetId="10" r:id="rId4"/>
     <sheet name="22 Teams" sheetId="9" r:id="rId5"/>
     <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId6"/>
-    <sheet name="Templates" sheetId="4" r:id="rId7"/>
-    <sheet name="Instances" sheetId="20" r:id="rId8"/>
-    <sheet name="Bills ADJs" sheetId="18" r:id="rId9"/>
-    <sheet name="BSS Flow" sheetId="16" r:id="rId10"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId11"/>
-    <sheet name="GameStatus" sheetId="19" r:id="rId12"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId13"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId14"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId15"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId16"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId17"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId18"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId19"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId20"/>
+    <sheet name="Curve %" sheetId="22" r:id="rId7"/>
+    <sheet name="LeagueInfo Rows" sheetId="21" r:id="rId8"/>
+    <sheet name="Templates" sheetId="4" r:id="rId9"/>
+    <sheet name="Instances" sheetId="20" r:id="rId10"/>
+    <sheet name="Bills ADJs" sheetId="18" r:id="rId11"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId12"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId13"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId14"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId15"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId16"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId17"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId18"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId19"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId20"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId21"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$112</definedName>
+    <definedName name="BxScLinePct">'Curve %'!$C$2</definedName>
+    <definedName name="BxScTmStrPct">'Curve %'!$D$2</definedName>
+    <definedName name="curLgAvgPts">'Curve %'!$D$24</definedName>
+    <definedName name="curPtsMade">'Curve %'!$B$24</definedName>
+    <definedName name="curPtsMadeOp">'Curve %'!$C$24</definedName>
+    <definedName name="Line">'Curve %'!$E$8</definedName>
+    <definedName name="OppTmStr">'Curve %'!$G$8</definedName>
+    <definedName name="Score">'Curve %'!$F$8</definedName>
+    <definedName name="TmStrAdjPct">'Curve %'!$E$1</definedName>
     <definedName name="TmTL">'Avg Atmp'!$A$2</definedName>
     <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{E87E8845-7127-490F-A019-21205554E175}">
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{E87E8845-7127-490F-A019-21205554E175}">
       <text>
         <r>
           <rPr>
@@ -96,6 +108,32 @@
     <author>Keith</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{72796302-BD37-4DF3-8280-263D23A603CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Courier New"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> -- BxScLinePct - referenced in 3.2.3 Insert Into TeamStatsAverages &amp; TmStr uspQueryCalcTeamStrength
+ --   0% = no curve to TL - use actual score || 100% = nullify Score use TL instead - MAKE 75% Ex: Result: 225, TL:220, Score: 240
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith</author>
+  </authors>
+  <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C80605AE-F0B7-4683-94C5-1BEF37FB9C81}">
       <text>
         <r>
@@ -115,7 +153,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Keith</author>
@@ -145,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="616">
   <si>
     <t>Name</t>
   </si>
@@ -858,15 +896,6 @@
   </si>
   <si>
     <t>@Threshold=Threshold</t>
-  </si>
-  <si>
-    <t>@BxScLinePct</t>
-  </si>
-  <si>
-    <t>@BxScTmStrPct</t>
-  </si>
-  <si>
-    <t>@TmStrAdjPct</t>
   </si>
   <si>
     <t>@varLgAvgGB</t>
@@ -2403,6 +2432,353 @@
   <si>
     <t>VenueBoth</t>
   </si>
+  <si>
+    <t>NumberOfTeams</t>
+  </si>
+  <si>
+    <t>MinutesPerPeriod</t>
+  </si>
+  <si>
+    <t>OverTimeMinutes</t>
+  </si>
+  <si>
+    <t>DefaultOTamt</t>
+  </si>
+  <si>
+    <t>MultiYearLeague</t>
+  </si>
+  <si>
+    <t>LeagueColor</t>
+  </si>
+  <si>
+    <t>BoxScoresL5MinURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.basketball-reference.com/boxscores/pbp/{oLast5MinDTO.GameDate.ToString("yyyyMMdd")}0{BbrferTeam}.html                                                                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WNBA    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">red       </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>@BoxscoresSpanSeasons</t>
+  </si>
+  <si>
+    <t>tm - first query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pt   * Pts                       * ( 1   + ((  ( OpVenueTm Avg Made / OpVenueLg Avg Made )          -1    ) * </t>
+  </si>
+  <si>
+    <t>@Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              ^ GB1, 2,        ^ Pt1, 2, 3</t>
+  </si>
+  <si>
+    <t>tm2 - second query</t>
+  </si>
+  <si>
+    <t>', (</t>
+  </si>
+  <si>
+    <t>' + ((tm.CalcAwayGB2Pt1 + tm.CalcAwayGB2Pt2 + tm.CalcAwayGB2Pt3 ) * @WeightGB2)</t>
+  </si>
+  <si>
+    <t>' + ((tm.CalcAwayGB3Pt1 + tm.CalcAwayGB3Pt2 + tm.CalcAwayGB3Pt3 ) * @WeightGB3)</t>
+  </si>
+  <si>
+    <t>) / (@WeightGB1 + @WeightGB2 + @WeightGB3)</t>
+  </si>
+  <si>
+    <t>as UnAdjTotalAway -- UnAdjTotalAway &amp; Home</t>
+  </si>
+  <si>
+    <t>, (tm.CalcAwayGB1Pt1 + tm.CalcAwayGB1Pt2 + tm.CalcAwayGB1Pt3 )  as CalcAwayGB1, 2, 3</t>
+  </si>
+  <si>
+    <t>'  Values Passed on</t>
+  </si>
+  <si>
+    <t>, (@AdjDbAway + @AdjOTwithSide + @AdjTV + @AdjRecentLeagueHistory) as AdjAmtAway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     ((tm.CalcAwayGB1Pt1 + tm.CalcAwayGB1Pt2 + tm.CalcAwayGB1Pt3 ) * @WeightGB1) </t>
+  </si>
+  <si>
+    <t>&lt;--</t>
+  </si>
+  <si>
+    <t>tm3 - third query</t>
+  </si>
+  <si>
+    <t>Grp 2</t>
+  </si>
+  <si>
+    <t>UnAdjTotalAway + UnAdjTotalHome as UnAdjTotal</t>
+  </si>
+  <si>
+    <t>AdjAmtAway + AdjAmtHome as AdjAmt</t>
+  </si>
+  <si>
+    <t>UnAdjTotalAway + AdjAmtAway as OurTotalLineAway &amp; Home</t>
+  </si>
+  <si>
+    <t>UnAdjTotalAway + UnAdjTotalHome+ AdjAmtAway + AdjAmtHome as OurTotalLine</t>
+  </si>
+  <si>
+    <t>, CASE -- PlayDiff</t>
+  </si>
+  <si>
+    <t>WHEN @TotalLine IS Null THEN Null</t>
+  </si>
+  <si>
+    <t>WHEN @TotalLine &lt; 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  THEN Null</t>
+  </si>
+  <si>
+    <t>ELSE UnAdjTotalAway + UnAdjTotalHome + AdjAmtAway + AdjAmtHome - @TotalLine</t>
+  </si>
+  <si>
+    <t>END AS PlayDiff</t>
+  </si>
+  <si>
+    <t>, CASE -- Play</t>
+  </si>
+  <si>
+    <t>WHEN @TotalLine = 0.0</t>
+  </si>
+  <si>
+    <t>WHEN ( (UnAdjTotalAway + UnAdjTotalHome+ AdjAmtAway + AdjAmtHome) - @TotalLine ) &gt;= @Threshold THEN @Over</t>
+  </si>
+  <si>
+    <t>WHEN ( @TotalLine - (UnAdjTotalAway + UnAdjTotalHome+ AdjAmtAway + AdjAmtHome) ) &gt;= @Threshold THEN @Under</t>
+  </si>
+  <si>
+    <t>ELSE ''</t>
+  </si>
+  <si>
+    <t>END AS Play</t>
+  </si>
+  <si>
+    <t>AwayAverageAtmpUsPt1 * @Pt1 + AwayAverageAtmpUsPt2 * @Pt2 + AwayAverageAtmpUsPt3 * @Pt3 as AwayTotAtmps</t>
+  </si>
+  <si>
+    <t>tm4 - forth query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AwayAverageAtmpUsPt1 * (OurTotalLineAway / AwayTotAtmps) as AwayProjectedAtmpPt1</t>
+  </si>
+  <si>
+    <t>11/6 - Calc Projected Points</t>
+  </si>
+  <si>
+    <t>, (AwayPtsScoredPctPt1 * OurTotalLineAway) / @Pt1 -- from tAwayGB10.PtsScoredPctPt1 in first Query</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Pts - 1/2</t>
+  </si>
+  <si>
+    <t>3 / Curve 
+to Line</t>
+  </si>
+  <si>
+    <t>1) OT already Out</t>
+  </si>
+  <si>
+    <t>2) Last Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) BxSc Curve2Line Pct - @BxScLinePct) - Curve Actual Score toward Tm TL - 1 + ((( TLtm / TmSc ) - 1) * @BxScLinePct - (1, 2, 3pters --&gt; Calculated or Line) 
+</t>
+  </si>
+  <si>
+    <t>4) Opp Tm Strength - ( 1.0 + (IsNull(ts.TeamStrengthBxScAdjPctAllowed, 1.0) - 1.0) * @BxScTmStrPct)</t>
+  </si>
+  <si>
+    <t>BxScLinePct</t>
+  </si>
+  <si>
+    <t>BxScTmStrPct</t>
+  </si>
+  <si>
+    <t>TmStrAdjPct</t>
+  </si>
+  <si>
+    <t>BxSc Adjs
+Calcs</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Calcs 
+References</t>
+  </si>
+  <si>
+    <t>4 / Opp TmStr</t>
+  </si>
+  <si>
+    <t>Opp
+Tm Str %</t>
+  </si>
+  <si>
+    <t>LgAvg
+------
+TmStr</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@BxScLinePct - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calc #3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@BxScTmStrPct -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Calc #4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@TmStrAdjPct - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.35 tm Query &amp; uspQueryCalcTeamStrength</t>
+    </r>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>#3, TS</t>
+  </si>
+  <si>
+    <t>4.35 TMs, TS</t>
+  </si>
+  <si>
+    <t>Pts Made</t>
+  </si>
+  <si>
+    <t>Pts Made Op</t>
+  </si>
+  <si>
+    <t>Lg Avg Pts</t>
+  </si>
+  <si>
+    <t>Calced Pts</t>
+  </si>
+  <si>
+    <t>(Away)</t>
+  </si>
+  <si>
+    <t>1.11.2</t>
+  </si>
+  <si>
+    <t>1.11.3</t>
+  </si>
+  <si>
+    <t>NOTE: MadeOP = Allowed</t>
+  </si>
+  <si>
+    <r>
+      <t>Pt   * Pts                       * ( 1   + ((  ( OpVenueTm Avg MadeOP(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>= Allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) / OpVenueLg Avg Made )          -1    ) * </t>
+    </r>
+  </si>
+  <si>
+    <t>Op Tm Home</t>
+  </si>
+  <si>
+    <t>Lg Home</t>
+  </si>
+  <si>
+    <t>1.11.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documentation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1) BxScLinePct, 2) BxScTmStrPct, 3) TmStrAdjPct</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2411,7 +2787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2489,8 +2865,67 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2530,6 +2965,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,10 +3093,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2781,6 +3223,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2793,15 +3288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2910,13 +3400,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>86418</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3779,6 +4269,256 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="46" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2">
+        <v>2012</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4">
+        <v>2017</v>
+      </c>
+      <c r="E4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" s="47">
+        <v>-3</v>
+      </c>
+      <c r="C2" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="47">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="47">
+        <v>0</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="47">
+        <v>0</v>
+      </c>
+      <c r="C8" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" s="47">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="47">
+        <v>3</v>
+      </c>
+      <c r="C10" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="47">
+        <v>0</v>
+      </c>
+      <c r="C11" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="47">
+        <v>1</v>
+      </c>
+      <c r="C12" s="47">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="B13" s="47">
+        <v>-3</v>
+      </c>
+      <c r="C13" s="47">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I5"/>
@@ -3799,57 +4539,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D2" s="42">
         <v>1</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3857,16 +4597,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3874,26 +4614,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D4" s="42">
         <v>2</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3901,25 +4641,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D5" s="42">
         <v>3</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3928,7 +4668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:M17"/>
@@ -3949,25 +4689,25 @@
         <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="M4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3975,7 +4715,7 @@
         <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4124,7 +4864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W27"/>
@@ -4141,7 +4881,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B1" s="49">
         <v>231</v>
@@ -4149,7 +4889,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B2" s="25">
         <f>C2+D2</f>
@@ -4164,7 +4904,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B3" s="25">
         <v>4</v>
@@ -4172,7 +4912,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B4" s="25">
         <v>1</v>
@@ -4180,7 +4920,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B5" s="25">
         <v>43</v>
@@ -4188,7 +4928,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B6" s="49">
         <v>4</v>
@@ -4196,7 +4936,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B7" s="49">
         <v>12</v>
@@ -4210,7 +4950,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B8" s="43">
         <f>B1 / (B6*B7)</f>
@@ -4219,7 +4959,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B9" s="43">
         <f>B6-B3</f>
@@ -4228,7 +4968,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B10" s="43">
         <f>((B9*B7)+B4)+ B5/60</f>
@@ -4237,19 +4977,19 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B11" s="43">
         <f>B10*B8 + B2</f>
         <v>242.26145833333334</v>
       </c>
       <c r="W11" s="50" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B12" s="41" t="str">
         <f>IF(B2&gt;B1,"OVER",B11-B1)</f>
@@ -4258,59 +4998,59 @@
     </row>
     <row r="15" spans="1:23">
       <c r="B15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="B20" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E27" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +5060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
@@ -4337,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B1" s="40">
         <v>1</v>
@@ -4369,11 +5109,11 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D3" si="0">C1*C2</f>
+        <f>C1*C2</f>
         <v>60</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>D1*D2</f>
         <v>30</v>
       </c>
       <c r="E3">
@@ -4401,11 +5141,11 @@
         <v>18.18181818181818</v>
       </c>
       <c r="C5" s="41">
-        <f t="shared" ref="C5:D5" si="1">C4*C1</f>
+        <f>C4*C1</f>
         <v>54.545454545454547</v>
       </c>
       <c r="D5" s="41">
-        <f t="shared" si="1"/>
+        <f>D4*D1</f>
         <v>27.27272727272727</v>
       </c>
       <c r="E5">
@@ -4418,7 +5158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
@@ -4434,86 +5174,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="J1" s="57" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="J1" s="80" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M2" t="s">
+        <v>370</v>
+      </c>
+      <c r="N2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" t="s">
-        <v>355</v>
-      </c>
-      <c r="K2" t="s">
-        <v>356</v>
-      </c>
-      <c r="L2" t="s">
-        <v>357</v>
-      </c>
-      <c r="M2" t="s">
-        <v>373</v>
-      </c>
-      <c r="N2" t="s">
-        <v>374</v>
-      </c>
-      <c r="O2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>378</v>
-      </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="57"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="57"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4525,7 +5265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
@@ -4543,28 +5283,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="56" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>334</v>
+      <c r="E1" s="58" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="37">
         <v>43841</v>
@@ -4573,15 +5313,15 @@
         <v>43841</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C3" s="37">
         <v>43983</v>
@@ -4592,10 +5332,10 @@
     </row>
     <row r="4" spans="1:5" hidden="1">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
         <v>255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>258</v>
       </c>
       <c r="C4" s="37">
         <v>43809</v>
@@ -4604,15 +5344,15 @@
         <v>43809</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C5" s="37">
         <v>44001</v>
@@ -4623,10 +5363,10 @@
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6" s="37">
         <v>43998</v>
@@ -4637,10 +5377,10 @@
     </row>
     <row r="7" spans="1:5" hidden="1">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C7" s="37">
         <v>43810</v>
@@ -4649,15 +5389,15 @@
         <v>43810</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C8" s="37">
         <v>43809</v>
@@ -4666,15 +5406,15 @@
         <v>43809</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C9" s="37">
         <v>43809</v>
@@ -4683,15 +5423,15 @@
         <v>43809</v>
       </c>
       <c r="E9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C10" s="37">
         <v>43836</v>
@@ -4702,10 +5442,10 @@
     </row>
     <row r="11" spans="1:5" hidden="1">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="37">
         <v>43841</v>
@@ -4716,10 +5456,10 @@
     </row>
     <row r="12" spans="1:5" hidden="1">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C12" s="37">
         <v>43857</v>
@@ -4728,12 +5468,12 @@
         <v>43857</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -4745,12 +5485,12 @@
         <v>43883</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -4762,12 +5502,12 @@
         <v>42427</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -4781,7 +5521,7 @@
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4795,7 +5535,7 @@
     </row>
     <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -4809,7 +5549,7 @@
     </row>
     <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -4823,10 +5563,10 @@
     </row>
     <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C19" s="37">
         <v>43804</v>
@@ -4837,10 +5577,10 @@
     </row>
     <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C20" s="37">
         <v>43982</v>
@@ -4851,10 +5591,10 @@
     </row>
     <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
         <v>267</v>
-      </c>
-      <c r="B21" t="s">
-        <v>270</v>
       </c>
       <c r="C21" s="37">
         <v>43960</v>
@@ -4865,7 +5605,7 @@
     </row>
     <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -4879,10 +5619,10 @@
     </row>
     <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C23" s="37">
         <v>43883</v>
@@ -4893,10 +5633,10 @@
     </row>
     <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C24" s="37">
         <v>43998</v>
@@ -4907,10 +5647,10 @@
     </row>
     <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C25" s="37">
         <v>43855</v>
@@ -4921,10 +5661,10 @@
     </row>
     <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C26" s="37">
         <v>43855</v>
@@ -4935,10 +5675,10 @@
     </row>
     <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C27" s="37">
         <v>43995</v>
@@ -4949,7 +5689,7 @@
     </row>
     <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -4963,10 +5703,10 @@
     </row>
     <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C29" s="37">
         <v>43875</v>
@@ -4977,7 +5717,7 @@
     </row>
     <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -4991,10 +5731,10 @@
     </row>
     <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31" s="37">
         <v>43988</v>
@@ -5005,10 +5745,10 @@
     </row>
     <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C32" s="37">
         <v>43845</v>
@@ -5019,7 +5759,7 @@
     </row>
     <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -5033,10 +5773,10 @@
     </row>
     <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C34" s="37">
         <v>43996</v>
@@ -5047,7 +5787,7 @@
     </row>
     <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -5061,7 +5801,7 @@
     </row>
     <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -5075,10 +5815,10 @@
     </row>
     <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C37" s="37">
         <v>43883</v>
@@ -5089,10 +5829,10 @@
     </row>
     <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C38" s="37">
         <v>43962</v>
@@ -5103,10 +5843,10 @@
     </row>
     <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C39" s="37">
         <v>43845</v>
@@ -5117,10 +5857,10 @@
     </row>
     <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" t="s">
         <v>281</v>
-      </c>
-      <c r="B40" t="s">
-        <v>284</v>
       </c>
       <c r="C40" s="37">
         <v>43465</v>
@@ -5131,10 +5871,10 @@
     </row>
     <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C41" s="37">
         <v>43988</v>
@@ -5145,10 +5885,10 @@
     </row>
     <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C42" s="37">
         <v>43989</v>
@@ -5159,10 +5899,10 @@
     </row>
     <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C43" s="37">
         <v>43872</v>
@@ -5173,10 +5913,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C44" s="37">
         <v>44001</v>
@@ -5187,10 +5927,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C45" s="37">
         <v>43989</v>
@@ -5201,10 +5941,10 @@
     </row>
     <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C46" s="37">
         <v>43858</v>
@@ -5213,15 +5953,15 @@
         <v>43858</v>
       </c>
       <c r="E46" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" t="s">
         <v>290</v>
-      </c>
-      <c r="B47" t="s">
-        <v>293</v>
       </c>
       <c r="C47" s="37">
         <v>43992</v>
@@ -5230,15 +5970,15 @@
         <v>43992</v>
       </c>
       <c r="E47" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C48" s="37">
         <v>42427</v>
@@ -5247,15 +5987,15 @@
         <v>43151</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C49" s="37">
         <v>42422</v>
@@ -5264,15 +6004,15 @@
         <v>42427</v>
       </c>
       <c r="E49" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C50" s="37">
         <v>43962</v>
@@ -5283,10 +6023,10 @@
     </row>
     <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C51" s="37">
         <v>43842</v>
@@ -5295,15 +6035,15 @@
         <v>43842</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B52" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C52" s="37">
         <v>43151</v>
@@ -5312,15 +6052,15 @@
         <v>43478</v>
       </c>
       <c r="E52" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C53" s="37">
         <v>43151</v>
@@ -5329,15 +6069,15 @@
         <v>43989</v>
       </c>
       <c r="E53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C54" s="37">
         <v>44002</v>
@@ -5346,15 +6086,15 @@
         <v>44002</v>
       </c>
       <c r="E54" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C55" s="37">
         <v>42823</v>
@@ -5363,15 +6103,15 @@
         <v>42823</v>
       </c>
       <c r="E55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C56" s="37">
         <v>43833</v>
@@ -5382,10 +6122,10 @@
     </row>
     <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C57" s="37">
         <v>43992</v>
@@ -5394,15 +6134,15 @@
         <v>43992</v>
       </c>
       <c r="E57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C58" s="37">
         <v>43996</v>
@@ -5411,15 +6151,15 @@
         <v>43996</v>
       </c>
       <c r="E58" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C59" s="37">
         <v>42400</v>
@@ -5428,15 +6168,15 @@
         <v>42400</v>
       </c>
       <c r="E59" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C60" s="37">
         <v>43851</v>
@@ -5447,10 +6187,10 @@
     </row>
     <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C61" s="37">
         <v>43982</v>
@@ -5459,15 +6199,15 @@
         <v>43996</v>
       </c>
       <c r="E61" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C62" s="37">
         <v>43819</v>
@@ -5476,15 +6216,15 @@
         <v>43982</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C63" s="37">
         <v>43798</v>
@@ -5493,15 +6233,15 @@
         <v>43799</v>
       </c>
       <c r="E63" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C64" s="37">
         <v>43974</v>
@@ -5512,7 +6252,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
@@ -5526,10 +6266,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B66" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C66" s="37">
         <v>44001</v>
@@ -5540,10 +6280,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B67" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C67" s="37">
         <v>43850</v>
@@ -5554,10 +6294,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C68" s="37">
         <v>43827</v>
@@ -5568,10 +6308,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C69" s="37">
         <v>42400</v>
@@ -5582,10 +6322,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B70" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C70" s="37">
         <v>43996</v>
@@ -5596,10 +6336,10 @@
     </row>
     <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B71" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C71" s="37">
         <v>43996</v>
@@ -5608,15 +6348,15 @@
         <v>43997</v>
       </c>
       <c r="E71" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C72" s="37">
         <v>43995</v>
@@ -5625,15 +6365,15 @@
         <v>43995</v>
       </c>
       <c r="E72" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C73" s="37">
         <v>43992</v>
@@ -5642,15 +6382,15 @@
         <v>43992</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B74" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C74" s="37">
         <v>43809</v>
@@ -5661,10 +6401,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C75" s="37">
         <v>43975</v>
@@ -5675,7 +6415,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -5689,10 +6429,10 @@
     </row>
     <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C77" s="37">
         <v>43846</v>
@@ -5701,15 +6441,15 @@
         <v>43846</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B78" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C78" s="37">
         <v>43187</v>
@@ -5718,15 +6458,15 @@
         <v>43810</v>
       </c>
       <c r="E78" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C79" s="37">
         <v>43975</v>
@@ -5737,7 +6477,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
         <v>43</v>
@@ -5751,7 +6491,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -5765,10 +6505,10 @@
     </row>
     <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B82" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C82" s="37">
         <v>43975</v>
@@ -5777,12 +6517,12 @@
         <v>43995</v>
       </c>
       <c r="E82" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -5796,10 +6536,10 @@
     </row>
     <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C84" s="37">
         <v>43823</v>
@@ -5808,15 +6548,15 @@
         <v>43843</v>
       </c>
       <c r="E84" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C85" s="37">
         <v>43995</v>
@@ -5827,10 +6567,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C86" s="37">
         <v>43465</v>
@@ -5839,15 +6579,15 @@
         <v>43465</v>
       </c>
       <c r="E86" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C87" s="37">
         <v>42485</v>
@@ -5856,15 +6596,15 @@
         <v>43184</v>
       </c>
       <c r="E87" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C88" s="37">
         <v>43988</v>
@@ -5875,10 +6615,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C89" s="37">
         <v>43829</v>
@@ -5889,10 +6629,10 @@
     </row>
     <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C90" s="37">
         <v>43820</v>
@@ -5901,15 +6641,15 @@
         <v>43820</v>
       </c>
       <c r="E90" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C91" s="37">
         <v>42693</v>
@@ -5918,15 +6658,15 @@
         <v>43800</v>
       </c>
       <c r="E91" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C92" s="37">
         <v>43466</v>
@@ -5935,15 +6675,15 @@
         <v>43800</v>
       </c>
       <c r="E92" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C93" s="37">
         <v>43780</v>
@@ -5952,15 +6692,15 @@
         <v>43836</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C94" s="37">
         <v>43968</v>
@@ -5969,15 +6709,15 @@
         <v>43968</v>
       </c>
       <c r="E94" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C95" s="37">
         <v>43465</v>
@@ -5986,7 +6726,7 @@
         <v>43820</v>
       </c>
       <c r="E95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +6748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -6069,7 +6809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E13"/>
@@ -6082,18 +6822,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6122,7 +6862,7 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="0">A4*B4</f>
+        <f>A4*B4</f>
         <v>50</v>
       </c>
     </row>
@@ -6134,16 +6874,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>A5*B5</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C6">
         <f>SUM(C3:C5)</f>
@@ -6158,7 +6898,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C7">
         <v>-0.5</v>
@@ -6172,7 +6912,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C8">
         <f>(C6+C7) / C6</f>
@@ -6189,7 +6929,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6214,7 +6954,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:C12" si="1">C4*C$8</f>
+        <f>C4*C$8</f>
         <v>49.75</v>
       </c>
     </row>
@@ -6223,7 +6963,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f>C5*C$8</f>
         <v>29.85</v>
       </c>
     </row>
@@ -6238,7 +6978,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED607D8-F56A-46DB-9E73-EC70446DCC5E}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -6254,7 +7039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
@@ -6275,7 +7060,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6283,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6299,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6315,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6323,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6331,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6339,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6347,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6355,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6363,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6371,247 +7156,247 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -6619,52 +7404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED607D8-F56A-46DB-9E73-EC70446DCC5E}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
@@ -6764,7 +7504,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="81" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -6775,7 +7515,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="59"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
@@ -6784,14 +7524,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="59"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="60"/>
+      <c r="A31" s="83"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>70</v>
@@ -7508,11 +8248,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7531,28 +8271,28 @@
   <sheetData>
     <row r="1" spans="1:22" s="56" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="54" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I1" s="56" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
@@ -7564,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -7572,7 +8312,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -7583,11 +8323,11 @@
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -7595,7 +8335,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -7603,7 +8343,7 @@
         <v>1.2</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -7611,7 +8351,7 @@
         <v>1.3</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -7619,661 +8359,1129 @@
         <v>1.4</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>187</v>
       </c>
       <c r="U9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="V9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>188</v>
       </c>
       <c r="S10" t="s">
+        <v>242</v>
+      </c>
+      <c r="U10" t="s">
         <v>245</v>
       </c>
-      <c r="U10" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>189</v>
       </c>
       <c r="S11" t="s">
+        <v>241</v>
+      </c>
+      <c r="T11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U11" t="s">
         <v>244</v>
       </c>
-      <c r="T11" t="s">
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="77" t="s">
+        <v>596</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="U12" t="s">
         <v>246</v>
       </c>
-      <c r="U11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="B12" t="s">
-        <v>190</v>
-      </c>
-      <c r="U12" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" t="s">
-        <v>191</v>
+      <c r="B13" s="77" t="s">
+        <v>597</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" t="s">
-        <v>192</v>
+      <c r="B14" s="77" t="s">
+        <v>598</v>
+      </c>
+      <c r="E14">
+        <v>0.67</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="B15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="30">
-      <c r="B16" s="3" t="s">
+      <c r="B15" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30">
+      <c r="B17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="3" t="s">
-        <v>491</v>
+        <v>238</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19">
-        <v>1.41</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" t="s">
-        <v>454</v>
-      </c>
-      <c r="F19" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
+        <v>1.41</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="E20" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
         <v>1.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="B21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23">
+      <c r="B23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
         <v>1.6</v>
       </c>
-      <c r="B23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>310</v>
+      <c r="B24" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25">
-        <v>1.7</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>226</v>
+      <c r="B25" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>362</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>365</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>486</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
+        <v>1.8</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D27" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
         <v>1.9</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="B28" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="48"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="G29" s="13"/>
       <c r="H29" s="48"/>
-      <c r="K29" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="E30" t="s">
-        <v>454</v>
-      </c>
-      <c r="F30" t="s">
-        <v>277</v>
+      <c r="B30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="48"/>
+      <c r="K30" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="30" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C31" s="30"/>
       <c r="E31" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F31" t="s">
-        <v>489</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="31">
+      <c r="B32" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="E32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F32" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="H32" s="43" t="s">
+      <c r="B33" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="H33" s="43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="30"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45">
+      <c r="A36" s="39">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" t="s">
+        <v>451</v>
+      </c>
+      <c r="F36" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45">
-      <c r="A35" s="39">
+      <c r="H36" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>526</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="51">
+        <v>2</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="2"/>
+      <c r="E41" t="s">
+        <v>356</v>
+      </c>
+      <c r="F41" t="s">
+        <v>490</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="G44" t="s">
         <v>346</v>
-      </c>
-      <c r="E35" t="s">
-        <v>454</v>
-      </c>
-      <c r="F35" t="s">
-        <v>490</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>529</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="51">
-        <v>2</v>
-      </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="2"/>
-      <c r="E39" t="s">
-        <v>359</v>
-      </c>
-      <c r="F39" t="s">
-        <v>493</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="G42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="E45" t="s">
-        <v>530</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="E47" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="51">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="51">
         <v>3</v>
       </c>
-      <c r="B47" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="32"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
+      <c r="B49" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="32"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
         <v>3.1</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
+      <c r="B50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
         <v>3.2</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="35"/>
-      <c r="D53" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="35"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="I55" t="s">
+      <c r="C56" s="35"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="I57" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="B56" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="36"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="B57" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="35"/>
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C58" s="35"/>
+        <v>224</v>
+      </c>
+      <c r="C58" s="36"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="51">
+      <c r="B59" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="35"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="35"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="51">
         <v>4</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B61" s="53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>4.2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A64">
+        <v>4.3</v>
+      </c>
+      <c r="B64" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="K64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="33">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B65" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>4.2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>238</v>
-      </c>
-      <c r="K61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62">
-        <v>4.3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>239</v>
-      </c>
-      <c r="K62">
+      <c r="K65">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="33">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="B63" t="s">
-        <v>240</v>
-      </c>
-      <c r="K63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" t="s">
+    <row r="66" spans="1:11">
+      <c r="B66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="B65" s="4" t="s">
+    <row r="67" spans="1:11">
+      <c r="B67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" ht="30.75" customHeight="1">
-      <c r="B66" s="26" t="s">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" ht="30.75" customHeight="1">
+      <c r="B68" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="26"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67">
+      <c r="C68" s="26"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
         <v>4.32</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C67" s="26"/>
-    </row>
-    <row r="68" spans="1:9" ht="30.75" customHeight="1">
-      <c r="B68" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="C68" s="26"/>
-      <c r="G68" t="s">
-        <v>352</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69">
+      <c r="B69" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" spans="1:11" ht="30.75" customHeight="1">
+      <c r="B70" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="G70" t="s">
+        <v>349</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
         <v>4.33</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B71" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="26"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70">
+      <c r="C71" s="26"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="14" t="s">
+      <c r="C72" s="1"/>
+      <c r="D72" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="2" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" s="61" t="s">
+        <v>577</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" s="61" t="s">
+        <v>578</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="61" t="s">
+        <v>579</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" s="65" t="s">
+        <v>558</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" s="65" t="s">
+        <v>559</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="B80" s="65" t="s">
+        <v>560</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="65" t="s">
+        <v>561</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="65" t="s">
+        <v>562</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="65" t="s">
+        <v>563</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="66" t="s">
+        <v>565</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="65" t="s">
+        <v>569</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="66" t="s">
+        <v>573</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="65" t="s">
+        <v>574</v>
+      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="65" t="s">
+        <v>575</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="B99" s="61" t="s">
+        <v>547</v>
+      </c>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="63"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="B100" s="61" t="s">
+        <v>555</v>
+      </c>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="63"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="B101" s="61" t="s">
+        <v>548</v>
+      </c>
+      <c r="C101" s="61"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="63"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102" s="61" t="s">
+        <v>549</v>
+      </c>
+      <c r="C102" s="61"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="63"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103" s="62" t="s">
+        <v>550</v>
+      </c>
+      <c r="C103" s="61"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="63" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="B104" s="61" t="s">
+        <v>552</v>
+      </c>
+      <c r="C104" s="61"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="63"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="B105" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="C105" s="61"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="63"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="B106" s="61" t="s">
+        <v>554</v>
+      </c>
+      <c r="C106" s="61"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="63"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" s="67" t="s">
+        <v>544</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="60" t="s">
+        <v>545</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="B112" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s">
+      <c r="C112" s="2"/>
+      <c r="D112" t="s">
         <v>44</v>
       </c>
-      <c r="I71" t="str">
-        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D71</f>
+      <c r="I112" t="str">
+        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; D112</f>
         <v>SELECT  max(GameDate) as MaxDate FROM TodaysMatchups</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C74" s="14" t="s">
+    <row r="113" spans="2:4">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
-      <c r="B75" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C75" t="s">
-        <v>337</v>
-      </c>
-      <c r="D75" t="s">
-        <v>234</v>
+    <row r="116" spans="2:4">
+      <c r="B116" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" t="s">
+        <v>334</v>
+      </c>
+      <c r="D116" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I71" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
+  <autoFilter ref="A1:I112" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8282,6 +9490,353 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E4049-9F4E-45E8-AABC-5F47FA805C8C}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="C1" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>588</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C2" s="73">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="73">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="73">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="73">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="73">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="B5" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>601</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="E5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36.75">
+      <c r="A7" s="70" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>593</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>594</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f>B8*C8*D8</f>
+        <v>229.5</v>
+      </c>
+      <c r="B8">
+        <f>F8</f>
+        <v>240</v>
+      </c>
+      <c r="C8" s="13">
+        <f>(1+(( Line / Score )-1)*BxScLinePct)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D8" s="13">
+        <f>1 + ( OppTmStr - 1) *BxScTmStrPct</f>
+        <v>1.02</v>
+      </c>
+      <c r="E8">
+        <v>220</v>
+      </c>
+      <c r="F8">
+        <v>240</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="72" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="79" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="59" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>612</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="68" t="s">
+        <v>606</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>603</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <f>curPtsMade * ( 1 + (( curPtsMadeOp / curLgAvgPts) - 1) * E2)</f>
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C3573A-0E80-4451-B722-6CF5C050FC48}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="177.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B2" s="37">
+        <v>36526</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>0.6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" s="37">
+        <v>36526</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H9"/>
@@ -8460,7 +10015,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="10" t="b">
-        <f t="shared" ref="C8:C9" si="0">H$6=H8</f>
+        <f>H$6=H8</f>
         <v>0</v>
       </c>
       <c r="F8" s="10">
@@ -8478,7 +10033,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="b">
-        <f t="shared" si="0"/>
+        <f>H$6=H9</f>
         <v>0</v>
       </c>
       <c r="F9" s="10">
@@ -8495,254 +10050,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="46" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>523</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>528</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D2">
-        <v>2012</v>
-      </c>
-      <c r="E2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>517</v>
-      </c>
-      <c r="B3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C3" t="s">
-        <v>527</v>
-      </c>
-      <c r="D3">
-        <v>2017</v>
-      </c>
-      <c r="E3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>517</v>
-      </c>
-      <c r="B4" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4" t="s">
-        <v>527</v>
-      </c>
-      <c r="D4">
-        <v>2017</v>
-      </c>
-      <c r="E4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="B2" s="47">
-        <v>-3</v>
-      </c>
-      <c r="C2" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="47">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="47">
-        <v>0</v>
-      </c>
-      <c r="C4" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="47">
-        <v>0</v>
-      </c>
-      <c r="C5" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="47">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" s="47">
-        <v>0</v>
-      </c>
-      <c r="C7" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="B8" s="47">
-        <v>0</v>
-      </c>
-      <c r="C8" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="47">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="47" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" s="47">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="47" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="47">
-        <v>0</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="B12" s="47">
-        <v>1</v>
-      </c>
-      <c r="C12" s="47">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="47">
-        <v>-3</v>
-      </c>
-      <c r="C13" s="47">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C453AC-F53A-449D-809C-45C61FB48FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8998C37F-A893-44BB-B4DB-B431FF398378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29880" yWindow="1440" windowWidth="21600" windowHeight="12600" tabRatio="831" activeTab="6" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="0" yWindow="855" windowWidth="22815" windowHeight="11835" tabRatio="831" firstSheet="4" activeTab="13" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -30,20 +30,36 @@
     <sheet name="Avg Atmp" sheetId="14" r:id="rId15"/>
     <sheet name="Post Gm" sheetId="13" r:id="rId16"/>
     <sheet name="Migrate DB" sheetId="11" r:id="rId17"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId18"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId19"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId20"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId21"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId22"/>
+    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId18"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId19"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId20"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId21"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId22"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$112</definedName>
     <definedName name="BxScLinePct">'Curve %'!$C$2</definedName>
     <definedName name="BxScTmStrPct">'Curve %'!$D$2</definedName>
+    <definedName name="csSecs">GameStatus!$B$3</definedName>
     <definedName name="curLgAvgPts">'Curve %'!$D$24</definedName>
     <definedName name="curPtsMade">'Curve %'!$B$24</definedName>
     <definedName name="curPtsMadeOp">'Curve %'!$C$24</definedName>
+    <definedName name="gsAwayScore">GameStatus!$B$5</definedName>
+    <definedName name="gsGamePace">GameStatus!$B$14</definedName>
+    <definedName name="gsHomeScore">GameStatus!$B$6</definedName>
+    <definedName name="gsMins">GameStatus!$B$2</definedName>
+    <definedName name="gsMinsLeft">GameStatus!$B$13</definedName>
+    <definedName name="gsMinsPerPeriod">GameStatus!$B$10</definedName>
+    <definedName name="gsOvUnAmt">GameStatus!$B$15</definedName>
+    <definedName name="gsPeriod">GameStatus!$B$1</definedName>
+    <definedName name="gsPeriods">GameStatus!$B$9</definedName>
+    <definedName name="gsPeriodsLeft">GameStatus!$B$12</definedName>
+    <definedName name="gsPtsPerMin">GameStatus!$B$11</definedName>
+    <definedName name="gsScore">GameStatus!$B$7</definedName>
+    <definedName name="gsSecsLeft">GameStatus!$B$4</definedName>
+    <definedName name="gsTL">GameStatus!$B$8</definedName>
     <definedName name="Line">'Curve %'!$E$8</definedName>
     <definedName name="OppTmStr">'Curve %'!$G$8</definedName>
     <definedName name="Score">'Curve %'!$F$8</definedName>
@@ -183,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="649">
   <si>
     <t>Name</t>
   </si>
@@ -1035,31 +1051,6 @@
   </si>
   <si>
     <t>Insert TodaysMatchupsResults from Yesterday</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EXEC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uspInsertTodaysMatchupsResults</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> @UserName, @LeagueName</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2352,9 +2343,6 @@
     <t>GamePace</t>
   </si>
   <si>
-    <t>Un/OvAmt</t>
-  </si>
-  <si>
     <t>3rd end</t>
   </si>
   <si>
@@ -2778,6 +2766,142 @@
       </rPr>
       <t xml:space="preserve"> 1) BxScLinePct, 2) BxScTmStrPct, 3) TmStrAdjPct</t>
     </r>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>[BoxScoresAdjusted]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -- EXEC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uspInsertTodaysMatchupsResults</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @UserName, @GameDate, @LeagueName</t>
+    </r>
+  </si>
+  <si>
+    <t>GamePace - TL</t>
+  </si>
+  <si>
+    <t>sc + MinsLeft * PtsPMin</t>
+  </si>
+  <si>
+    <t>7:05</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>(4) 6:20</t>
+  </si>
+  <si>
+    <t>105 (-15)</t>
+  </si>
+  <si>
+    <t>Ov 10</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Under</t>
+  </si>
+  <si>
+    <t>9:05</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Play
+Direction</t>
+  </si>
+  <si>
+    <t>Score
+Away</t>
+  </si>
+  <si>
+    <t>Score
+Home</t>
+  </si>
+  <si>
+    <t>Time
+Status</t>
+  </si>
+  <si>
+    <t>Current
+Status</t>
+  </si>
+  <si>
+    <t>Game
+Time</t>
+  </si>
+  <si>
+    <t>Team
+Away</t>
+  </si>
+  <si>
+    <t>Team
+Home</t>
+  </si>
+  <si>
+    <t>OvUn
+Status</t>
+  </si>
+  <si>
+    <t>Ov 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Away Sore</t>
+  </si>
+  <si>
+    <t>Home Score</t>
+  </si>
+  <si>
+    <t>SecsLeft</t>
+  </si>
+  <si>
+    <t>OvUnAmt</t>
+  </si>
+  <si>
+    <t>NotStarted</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;== Final</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
   </si>
 </sst>
 </file>
@@ -2925,7 +3049,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2974,8 +3098,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3092,12 +3222,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -3279,6 +3508,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3449,13 +3733,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>375141</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3493,13 +3777,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>361948</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3537,13 +3821,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>568037</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3581,13 +3865,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>371952</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3625,13 +3909,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>305438</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3669,14 +3953,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>10973</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>181532</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>372032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4273,7 +4557,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4287,70 +4571,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>519</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>520</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D2">
         <v>2012</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" t="s">
         <v>514</v>
       </c>
-      <c r="B3" t="s">
-        <v>516</v>
-      </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4372,18 +4656,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>468</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" s="47">
         <v>-3</v>
@@ -4394,7 +4678,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="47">
         <v>0</v>
@@ -4405,7 +4689,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4" s="47">
         <v>0</v>
@@ -4416,7 +4700,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B5" s="47">
         <v>0</v>
@@ -4427,7 +4711,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
@@ -4438,7 +4722,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B7" s="47">
         <v>0</v>
@@ -4449,7 +4733,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B8" s="47">
         <v>0</v>
@@ -4460,7 +4744,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="47">
         <v>-1</v>
@@ -4471,7 +4755,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" s="47">
         <v>3</v>
@@ -4482,7 +4766,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" s="47">
         <v>0</v>
@@ -4493,7 +4777,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="47" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B12" s="47">
         <v>1</v>
@@ -4504,7 +4788,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13" s="47">
         <v>-3</v>
@@ -4539,57 +4823,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>458</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D2" s="42">
         <v>1</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4597,16 +4881,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4614,26 +4898,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D4" s="42">
         <v>2</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4641,25 +4925,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="42">
         <v>3</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H5" t="s">
+        <v>439</v>
+      </c>
+      <c r="I5" t="s">
         <v>440</v>
-      </c>
-      <c r="I5" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -4689,25 +4973,25 @@
         <v>82</v>
       </c>
       <c r="M3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="M4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
         <v>337</v>
-      </c>
-      <c r="C5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4715,7 +4999,7 @@
         <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4867,10 +5151,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4883,179 +5167,541 @@
       <c r="A1" t="s">
         <v>491</v>
       </c>
-      <c r="B1" s="49">
-        <v>231</v>
+      <c r="B1" s="25">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>492</v>
       </c>
       <c r="B2" s="25">
-        <f>C2+D2</f>
-        <v>234</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B3" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B4" s="25">
-        <v>1</v>
+        <v>643</v>
+      </c>
+      <c r="B4" s="49">
+        <f>gsMins*60 + csSecs</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>641</v>
       </c>
       <c r="B5" s="25">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B6" s="49">
-        <v>4</v>
+        <v>642</v>
+      </c>
+      <c r="B6" s="25">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>363</v>
       </c>
       <c r="B7" s="49">
-        <v>12</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+        <f>B5+B6</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>498</v>
-      </c>
-      <c r="B8" s="43">
-        <f>B1 / (B6*B7)</f>
-        <v>4.8125</v>
+        <v>490</v>
+      </c>
+      <c r="B8" s="25">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B9" s="43">
-        <f>B6-B3</f>
-        <v>0</v>
+        <v>494</v>
+      </c>
+      <c r="B9" s="25">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B10" s="43">
-        <f>((B9*B7)+B4)+ B5/60</f>
-        <v>1.7166666666666668</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B10" s="25">
+        <v>12</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B11" s="43">
-        <f>B10*B8 + B2</f>
-        <v>242.26145833333334</v>
-      </c>
-      <c r="W11" s="50" t="s">
-        <v>502</v>
+        <v>497</v>
+      </c>
+      <c r="B11" s="97">
+        <f>B8 / (B9*B10)</f>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="49">
+        <f>B9-B1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13" s="49">
+        <f>(gsPeriodsLeft*gsMinsPerPeriod)+gsMins+ csSecs/60</f>
+        <v>24</v>
+      </c>
+      <c r="C13" s="43">
+        <f>(gsPeriodsLeft*gsMinsPerPeriod) + gsSecsLeft / 60</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>499</v>
+      </c>
+      <c r="B14" s="49">
+        <f>B13*B11 + B7</f>
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>618</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B15" s="49">
+        <f>IF(B7&gt;B8,"OVER",B14-B8)</f>
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>501</v>
       </c>
-      <c r="B12" s="41" t="str">
-        <f>IF(B2&gt;B1,"OVER",B11-B1)</f>
-        <v>OVER</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="B15" t="s">
+      <c r="B19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="B19" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="B20" t="s">
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" t="s">
-        <v>512</v>
-      </c>
-      <c r="C27" t="s">
-        <v>468</v>
-      </c>
-      <c r="D27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E27" t="s">
-        <v>510</v>
+      <c r="E30" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="80">
+        <v>1</v>
+      </c>
+      <c r="C32" s="80">
+        <v>2</v>
+      </c>
+      <c r="D32" s="80">
+        <v>3</v>
+      </c>
+      <c r="E32" s="80">
+        <v>4</v>
+      </c>
+      <c r="F32" s="80">
+        <v>5</v>
+      </c>
+      <c r="G32" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>646</v>
+      </c>
+      <c r="B34" s="81">
+        <v>603</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>621</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" s="82">
+        <v>100</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>622</v>
+      </c>
+      <c r="G34" s="84"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="85" t="s">
+        <v>619</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D35" s="86">
+        <v>220</v>
+      </c>
+      <c r="E35" s="86">
+        <v>105</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>623</v>
+      </c>
+      <c r="G35" s="88" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>645</v>
+      </c>
+      <c r="B36" s="81">
+        <v>603</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>621</v>
+      </c>
+      <c r="D36" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="89" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="85" t="s">
+        <v>627</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D37" s="86">
+        <v>220</v>
+      </c>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>648</v>
+      </c>
+      <c r="B38" s="81">
+        <v>603</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>621</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="85" t="s">
+        <v>627</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D39" s="86">
+        <v>220</v>
+      </c>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>578</v>
+      </c>
+      <c r="B40" s="81">
+        <v>603</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>621</v>
+      </c>
+      <c r="D40" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="82">
+        <v>100</v>
+      </c>
+      <c r="F40" s="83" t="s">
+        <v>578</v>
+      </c>
+      <c r="G40" s="84"/>
+      <c r="H40" s="98" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="85" t="s">
+        <v>619</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D41" s="86">
+        <v>220</v>
+      </c>
+      <c r="E41" s="86">
+        <v>105</v>
+      </c>
+      <c r="F41" s="87" t="s">
+        <v>626</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30">
+      <c r="B42" s="90" t="s">
+        <v>378</v>
+      </c>
+      <c r="C42" s="91" t="s">
+        <v>636</v>
+      </c>
+      <c r="D42" s="91" t="s">
+        <v>630</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>631</v>
+      </c>
+      <c r="F42" s="92" t="s">
+        <v>633</v>
+      </c>
+      <c r="G42" s="90" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="B43" s="92" t="s">
+        <v>635</v>
+      </c>
+      <c r="C43" s="91" t="s">
+        <v>637</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>363</v>
+      </c>
+      <c r="E43" s="91" t="s">
+        <v>632</v>
+      </c>
+      <c r="F43" s="92" t="s">
+        <v>634</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="80">
+        <v>1</v>
+      </c>
+      <c r="C46" s="80">
+        <v>2</v>
+      </c>
+      <c r="D46" s="80">
+        <v>3</v>
+      </c>
+      <c r="E46" s="80">
+        <v>4</v>
+      </c>
+      <c r="F46" s="80">
+        <v>5</v>
+      </c>
+      <c r="G46" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="93">
+        <v>603</v>
+      </c>
+      <c r="C48" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="E48" s="94">
+        <v>115</v>
+      </c>
+      <c r="F48" s="95" t="s">
+        <v>622</v>
+      </c>
+      <c r="G48" s="96" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="93">
+        <v>603</v>
+      </c>
+      <c r="C49" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>640</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>627</v>
+      </c>
+      <c r="G49" s="96" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="93">
+        <v>603</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="D50" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="E50" s="94">
+        <v>222</v>
+      </c>
+      <c r="F50" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="G50" s="96" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5077,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" s="40">
         <v>1</v>
@@ -5174,86 +5820,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="J1" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="J1" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
       <c r="C2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M2" t="s">
+        <v>369</v>
+      </c>
+      <c r="N2" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" t="s">
-        <v>366</v>
-      </c>
-      <c r="G2" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K2" t="s">
-        <v>353</v>
-      </c>
-      <c r="L2" t="s">
-        <v>354</v>
-      </c>
-      <c r="M2" t="s">
-        <v>370</v>
-      </c>
-      <c r="N2" t="s">
-        <v>371</v>
-      </c>
-      <c r="O2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="99"/>
+      <c r="C4" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="99"/>
+      <c r="C5" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="B4" s="80"/>
-      <c r="C4" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="80"/>
-      <c r="C5" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5284,27 +5930,27 @@
   <sheetData>
     <row r="1" spans="1:5" s="56" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>251</v>
-      </c>
       <c r="E1" s="58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1">
       <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
         <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
       </c>
       <c r="C2" s="37">
         <v>43841</v>
@@ -5313,15 +5959,15 @@
         <v>43841</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="37">
         <v>43983</v>
@@ -5332,10 +5978,10 @@
     </row>
     <row r="4" spans="1:5" hidden="1">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="37">
         <v>43809</v>
@@ -5344,15 +5990,15 @@
         <v>43809</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="37">
         <v>44001</v>
@@ -5363,10 +6009,10 @@
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="37">
         <v>43998</v>
@@ -5377,10 +6023,10 @@
     </row>
     <row r="7" spans="1:5" hidden="1">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C7" s="37">
         <v>43810</v>
@@ -5389,15 +6035,15 @@
         <v>43810</v>
       </c>
       <c r="E7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="37">
         <v>43809</v>
@@ -5406,15 +6052,15 @@
         <v>43809</v>
       </c>
       <c r="E8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="37">
         <v>43809</v>
@@ -5423,15 +6069,15 @@
         <v>43809</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" s="37">
         <v>43836</v>
@@ -5442,10 +6088,10 @@
     </row>
     <row r="11" spans="1:5" hidden="1">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" s="37">
         <v>43841</v>
@@ -5456,10 +6102,10 @@
     </row>
     <row r="12" spans="1:5" hidden="1">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="37">
         <v>43857</v>
@@ -5468,12 +6114,12 @@
         <v>43857</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -5485,12 +6131,12 @@
         <v>43883</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -5502,12 +6148,12 @@
         <v>42427</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -5521,7 +6167,7 @@
     </row>
     <row r="16" spans="1:5" hidden="1">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -5535,7 +6181,7 @@
     </row>
     <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -5549,7 +6195,7 @@
     </row>
     <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -5563,10 +6209,10 @@
     </row>
     <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
         <v>264</v>
-      </c>
-      <c r="B19" t="s">
-        <v>265</v>
       </c>
       <c r="C19" s="37">
         <v>43804</v>
@@ -5577,10 +6223,10 @@
     </row>
     <row r="20" spans="1:4" hidden="1">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="37">
         <v>43982</v>
@@ -5591,10 +6237,10 @@
     </row>
     <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" s="37">
         <v>43960</v>
@@ -5605,7 +6251,7 @@
     </row>
     <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -5619,10 +6265,10 @@
     </row>
     <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="37">
         <v>43883</v>
@@ -5633,10 +6279,10 @@
     </row>
     <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="37">
         <v>43998</v>
@@ -5647,10 +6293,10 @@
     </row>
     <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C25" s="37">
         <v>43855</v>
@@ -5661,10 +6307,10 @@
     </row>
     <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C26" s="37">
         <v>43855</v>
@@ -5675,10 +6321,10 @@
     </row>
     <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="37">
         <v>43995</v>
@@ -5689,7 +6335,7 @@
     </row>
     <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -5703,10 +6349,10 @@
     </row>
     <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="37">
         <v>43875</v>
@@ -5717,7 +6363,7 @@
     </row>
     <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -5731,10 +6377,10 @@
     </row>
     <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="37">
         <v>43988</v>
@@ -5745,10 +6391,10 @@
     </row>
     <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="37">
         <v>43845</v>
@@ -5759,7 +6405,7 @@
     </row>
     <row r="33" spans="1:5" hidden="1">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -5773,10 +6419,10 @@
     </row>
     <row r="34" spans="1:5" hidden="1">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" s="37">
         <v>43996</v>
@@ -5787,7 +6433,7 @@
     </row>
     <row r="35" spans="1:5" hidden="1">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -5801,7 +6447,7 @@
     </row>
     <row r="36" spans="1:5" hidden="1">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -5815,10 +6461,10 @@
     </row>
     <row r="37" spans="1:5" hidden="1">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="37">
         <v>43883</v>
@@ -5829,10 +6475,10 @@
     </row>
     <row r="38" spans="1:5" hidden="1">
       <c r="A38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" t="s">
         <v>278</v>
-      </c>
-      <c r="B38" t="s">
-        <v>279</v>
       </c>
       <c r="C38" s="37">
         <v>43962</v>
@@ -5843,10 +6489,10 @@
     </row>
     <row r="39" spans="1:5" hidden="1">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" s="37">
         <v>43845</v>
@@ -5857,10 +6503,10 @@
     </row>
     <row r="40" spans="1:5" hidden="1">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" s="37">
         <v>43465</v>
@@ -5871,10 +6517,10 @@
     </row>
     <row r="41" spans="1:5" hidden="1">
       <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s">
         <v>282</v>
-      </c>
-      <c r="B41" t="s">
-        <v>283</v>
       </c>
       <c r="C41" s="37">
         <v>43988</v>
@@ -5885,10 +6531,10 @@
     </row>
     <row r="42" spans="1:5" hidden="1">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="37">
         <v>43989</v>
@@ -5899,10 +6545,10 @@
     </row>
     <row r="43" spans="1:5" hidden="1">
       <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" t="s">
         <v>285</v>
-      </c>
-      <c r="B43" t="s">
-        <v>286</v>
       </c>
       <c r="C43" s="37">
         <v>43872</v>
@@ -5913,10 +6559,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s">
         <v>287</v>
-      </c>
-      <c r="B44" t="s">
-        <v>288</v>
       </c>
       <c r="C44" s="37">
         <v>44001</v>
@@ -5927,10 +6573,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" s="37">
         <v>43989</v>
@@ -5941,10 +6587,10 @@
     </row>
     <row r="46" spans="1:5" hidden="1">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C46" s="37">
         <v>43858</v>
@@ -5953,15 +6599,15 @@
         <v>43858</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:5" hidden="1">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C47" s="37">
         <v>43992</v>
@@ -5970,15 +6616,15 @@
         <v>43992</v>
       </c>
       <c r="E47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C48" s="37">
         <v>42427</v>
@@ -5987,15 +6633,15 @@
         <v>43151</v>
       </c>
       <c r="E48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49" s="37">
         <v>42422</v>
@@ -6004,15 +6650,15 @@
         <v>42427</v>
       </c>
       <c r="E49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C50" s="37">
         <v>43962</v>
@@ -6023,10 +6669,10 @@
     </row>
     <row r="51" spans="1:5" hidden="1">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51" s="37">
         <v>43842</v>
@@ -6035,15 +6681,15 @@
         <v>43842</v>
       </c>
       <c r="E51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C52" s="37">
         <v>43151</v>
@@ -6052,15 +6698,15 @@
         <v>43478</v>
       </c>
       <c r="E52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C53" s="37">
         <v>43151</v>
@@ -6069,15 +6715,15 @@
         <v>43989</v>
       </c>
       <c r="E53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:5" hidden="1">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C54" s="37">
         <v>44002</v>
@@ -6086,15 +6732,15 @@
         <v>44002</v>
       </c>
       <c r="E54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C55" s="37">
         <v>42823</v>
@@ -6103,15 +6749,15 @@
         <v>42823</v>
       </c>
       <c r="E55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="37">
         <v>43833</v>
@@ -6122,10 +6768,10 @@
     </row>
     <row r="57" spans="1:5" hidden="1">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C57" s="37">
         <v>43992</v>
@@ -6134,15 +6780,15 @@
         <v>43992</v>
       </c>
       <c r="E57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1">
       <c r="A58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C58" s="37">
         <v>43996</v>
@@ -6151,15 +6797,15 @@
         <v>43996</v>
       </c>
       <c r="E58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C59" s="37">
         <v>42400</v>
@@ -6168,15 +6814,15 @@
         <v>42400</v>
       </c>
       <c r="E59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C60" s="37">
         <v>43851</v>
@@ -6187,10 +6833,10 @@
     </row>
     <row r="61" spans="1:5" hidden="1">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C61" s="37">
         <v>43982</v>
@@ -6199,15 +6845,15 @@
         <v>43996</v>
       </c>
       <c r="E61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:5" hidden="1">
       <c r="A62" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C62" s="37">
         <v>43819</v>
@@ -6216,15 +6862,15 @@
         <v>43982</v>
       </c>
       <c r="E62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C63" s="37">
         <v>43798</v>
@@ -6233,15 +6879,15 @@
         <v>43799</v>
       </c>
       <c r="E63" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C64" s="37">
         <v>43974</v>
@@ -6252,7 +6898,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B65" t="s">
         <v>186</v>
@@ -6266,10 +6912,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C66" s="37">
         <v>44001</v>
@@ -6280,10 +6926,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C67" s="37">
         <v>43850</v>
@@ -6294,10 +6940,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" s="37">
         <v>43827</v>
@@ -6308,10 +6954,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C69" s="37">
         <v>42400</v>
@@ -6322,10 +6968,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C70" s="37">
         <v>43996</v>
@@ -6336,10 +6982,10 @@
     </row>
     <row r="71" spans="1:5" hidden="1">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C71" s="37">
         <v>43996</v>
@@ -6348,15 +6994,15 @@
         <v>43997</v>
       </c>
       <c r="E71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1">
       <c r="A72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C72" s="37">
         <v>43995</v>
@@ -6365,15 +7011,15 @@
         <v>43995</v>
       </c>
       <c r="E72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1">
       <c r="A73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" s="37">
         <v>43992</v>
@@ -6382,15 +7028,15 @@
         <v>43992</v>
       </c>
       <c r="E73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" s="37">
         <v>43809</v>
@@ -6401,10 +7047,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C75" s="37">
         <v>43975</v>
@@ -6415,7 +7061,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s">
         <v>117</v>
@@ -6429,10 +7075,10 @@
     </row>
     <row r="77" spans="1:5" hidden="1">
       <c r="A77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C77" s="37">
         <v>43846</v>
@@ -6441,15 +7087,15 @@
         <v>43846</v>
       </c>
       <c r="E77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1">
       <c r="A78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" s="37">
         <v>43187</v>
@@ -6458,15 +7104,15 @@
         <v>43810</v>
       </c>
       <c r="E78" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C79" s="37">
         <v>43975</v>
@@ -6477,7 +7123,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
         <v>43</v>
@@ -6491,7 +7137,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B81" t="s">
         <v>46</v>
@@ -6505,10 +7151,10 @@
     </row>
     <row r="82" spans="1:5" hidden="1">
       <c r="A82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" s="37">
         <v>43975</v>
@@ -6517,12 +7163,12 @@
         <v>43995</v>
       </c>
       <c r="E82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -6536,10 +7182,10 @@
     </row>
     <row r="84" spans="1:5" hidden="1">
       <c r="A84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C84" s="37">
         <v>43823</v>
@@ -6548,15 +7194,15 @@
         <v>43843</v>
       </c>
       <c r="E84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" s="37">
         <v>43995</v>
@@ -6567,10 +7213,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C86" s="37">
         <v>43465</v>
@@ -6579,15 +7225,15 @@
         <v>43465</v>
       </c>
       <c r="E86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C87" s="37">
         <v>42485</v>
@@ -6596,15 +7242,15 @@
         <v>43184</v>
       </c>
       <c r="E87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C88" s="37">
         <v>43988</v>
@@ -6615,10 +7261,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C89" s="37">
         <v>43829</v>
@@ -6629,10 +7275,10 @@
     </row>
     <row r="90" spans="1:5" hidden="1">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C90" s="37">
         <v>43820</v>
@@ -6641,15 +7287,15 @@
         <v>43820</v>
       </c>
       <c r="E90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1">
       <c r="A91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C91" s="37">
         <v>42693</v>
@@ -6658,15 +7304,15 @@
         <v>43800</v>
       </c>
       <c r="E91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1">
       <c r="A92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C92" s="37">
         <v>43466</v>
@@ -6675,15 +7321,15 @@
         <v>43800</v>
       </c>
       <c r="E92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C93" s="37">
         <v>43780</v>
@@ -6692,15 +7338,15 @@
         <v>43836</v>
       </c>
       <c r="E93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C94" s="37">
         <v>43968</v>
@@ -6709,15 +7355,15 @@
         <v>43968</v>
       </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C95" s="37">
         <v>43465</v>
@@ -6726,7 +7372,7 @@
         <v>43820</v>
       </c>
       <c r="E95" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6749,6 +7395,49 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A5C7EC-EF5B-47DA-AE1B-CF3EEA06F69E}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -6802,175 +7491,6 @@
       </c>
       <c r="C5" t="s">
         <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>A3*B3</f>
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>13.74</v>
-      </c>
-      <c r="E3">
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <f>A4*B4</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <f>A5*B5</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>73.3</v>
-      </c>
-      <c r="E6">
-        <v>82.584999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7">
-        <v>-0.5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>454</v>
-      </c>
-      <c r="C8">
-        <f>(C6+C7) / C6</f>
-        <v>0.995</v>
-      </c>
-      <c r="D8">
-        <f>(D6+D7) / D6</f>
-        <v>1.0272851296043657</v>
-      </c>
-      <c r="E8">
-        <f>(E6+E7) / E6</f>
-        <v>1.0242174729067022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>C3*C$8</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D10">
-        <f>D3*D$8</f>
-        <v>14.114897680763985</v>
-      </c>
-      <c r="E10">
-        <f>E3*E$8</f>
-        <v>17.155642671187262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f>C4*C$8</f>
-        <v>49.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f>C5*C$8</f>
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13">
-        <f>SUM(C10:C12)</f>
-        <v>99.5</v>
       </c>
     </row>
   </sheetData>
@@ -7024,6 +7544,175 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>13.74</v>
+      </c>
+      <c r="E3">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>A4*B4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>A5*B5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>73.3</v>
+      </c>
+      <c r="E6">
+        <v>82.584999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7">
+        <v>-0.5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8">
+        <f>(C6+C7) / C6</f>
+        <v>0.995</v>
+      </c>
+      <c r="D8">
+        <f>(D6+D7) / D6</f>
+        <v>1.0272851296043657</v>
+      </c>
+      <c r="E8">
+        <f>(E6+E7) / E6</f>
+        <v>1.0242174729067022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>C3*C$8</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D10">
+        <f>D3*D$8</f>
+        <v>14.114897680763985</v>
+      </c>
+      <c r="E10">
+        <f>E3*E$8</f>
+        <v>17.155642671187262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>C4*C$8</f>
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>C5*C$8</f>
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13">
+        <f>SUM(C10:C12)</f>
+        <v>99.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -7039,7 +7728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
@@ -7060,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7068,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7084,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7100,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7108,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7116,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7124,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7132,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7140,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7148,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7156,247 +7845,247 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7404,7 +8093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
@@ -7504,7 +8193,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="100" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -7515,7 +8204,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="82"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
@@ -7524,14 +8213,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="82"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="83"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>70</v>
@@ -8250,9 +8939,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8271,28 +8960,28 @@
   <sheetData>
     <row r="1" spans="1:22" s="56" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="54" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G1" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>344</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>345</v>
       </c>
       <c r="I1" s="56" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
@@ -8322,12 +9011,12 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="B4" s="2" t="s">
-        <v>207</v>
+      <c r="B4" s="32" t="s">
+        <v>616</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -8335,7 +9024,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -8343,7 +9032,7 @@
         <v>1.2</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -8351,7 +9040,7 @@
         <v>1.3</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -8359,10 +9048,10 @@
         <v>1.4</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -8370,10 +9059,10 @@
         <v>187</v>
       </c>
       <c r="U9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -8381,10 +9070,10 @@
         <v>188</v>
       </c>
       <c r="S10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -8392,29 +9081,29 @@
         <v>189</v>
       </c>
       <c r="S11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T11" t="s">
+        <v>242</v>
+      </c>
+      <c r="U11" t="s">
         <v>243</v>
-      </c>
-      <c r="U11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="77" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E12">
         <v>0.2</v>
       </c>
       <c r="U12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="77" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E13">
         <v>0.5</v>
@@ -8422,7 +9111,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="77" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E14">
         <v>0.67</v>
@@ -8430,12 +9119,12 @@
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
@@ -8446,13 +9135,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -8461,14 +9150,14 @@
         <v>1.41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C20" s="3"/>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8476,10 +9165,10 @@
         <v>1.5</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8504,10 +9193,10 @@
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8519,7 +9208,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8527,16 +9216,16 @@
         <v>1.8</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>359</v>
-      </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8547,7 +9236,7 @@
         <v>195</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>45</v>
@@ -8566,7 +9255,7 @@
         <v>198</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>198</v>
@@ -8585,7 +9274,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="48"/>
       <c r="K30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8594,10 +9283,10 @@
       </c>
       <c r="C31" s="30"/>
       <c r="E31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8606,10 +9295,10 @@
       </c>
       <c r="C32" s="30"/>
       <c r="E32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8621,7 +9310,7 @@
       </c>
       <c r="C33" s="30"/>
       <c r="H33" s="43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -8640,16 +9329,16 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8664,7 +9353,7 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -8672,22 +9361,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="33" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s">
         <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="33" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>197</v>
@@ -8696,15 +9385,15 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -8714,13 +9403,13 @@
       <c r="B41" s="52"/>
       <c r="C41" s="2"/>
       <c r="E41" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8728,23 +9417,23 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="2"/>
       <c r="G44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -8752,7 +9441,7 @@
         <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>45</v>
@@ -8764,23 +9453,23 @@
     </row>
     <row r="46" spans="1:8">
       <c r="B46" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" t="s">
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="5"/>
       <c r="E47" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -8794,7 +9483,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="32"/>
     </row>
@@ -8803,7 +9492,7 @@
         <v>3.1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="2"/>
     </row>
@@ -8812,34 +9501,34 @@
         <v>3.2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="34"/>
       <c r="D54" s="14" t="s">
@@ -8852,7 +9541,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" t="s">
@@ -8861,13 +9550,13 @@
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C56" s="35"/>
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" s="36"/>
       <c r="I57" t="s">
@@ -8876,19 +9565,19 @@
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" s="36"/>
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C59" s="35"/>
     </row>
     <row r="60" spans="1:11">
       <c r="B60" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C60" s="35"/>
     </row>
@@ -8897,7 +9586,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -8905,7 +9594,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -8913,7 +9602,7 @@
         <v>4.2</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K63">
         <v>10</v>
@@ -8924,7 +9613,7 @@
         <v>4.3</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K64">
         <v>12</v>
@@ -8935,7 +9624,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="B65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K65">
         <v>12</v>
@@ -8963,20 +9652,20 @@
         <v>4.32</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C69" s="26"/>
     </row>
     <row r="70" spans="1:11" ht="30.75" customHeight="1">
       <c r="B70" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C70" s="26"/>
       <c r="G70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -9009,7 +9698,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="14"/>
@@ -9020,7 +9709,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="B74" s="61" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="14"/>
@@ -9031,7 +9720,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="B75" s="61" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="14"/>
@@ -9042,7 +9731,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="B76" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="14"/>
@@ -9056,7 +9745,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="14"/>
@@ -9067,7 +9756,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="B78" s="65" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="14"/>
@@ -9078,7 +9767,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="B79" s="65" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="14"/>
@@ -9089,7 +9778,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="B80" s="65" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="14"/>
@@ -9100,7 +9789,7 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="65" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="14"/>
@@ -9111,7 +9800,7 @@
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="65" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="14"/>
@@ -9122,7 +9811,7 @@
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="65" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="14"/>
@@ -9133,7 +9822,7 @@
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -9143,10 +9832,10 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="66" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -9155,7 +9844,7 @@
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="66" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -9165,7 +9854,7 @@
     </row>
     <row r="87" spans="2:8">
       <c r="B87" s="65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
@@ -9176,7 +9865,7 @@
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="65" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="14"/>
@@ -9187,7 +9876,7 @@
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -9197,10 +9886,10 @@
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="66" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
@@ -9209,7 +9898,7 @@
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="66" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
@@ -9219,7 +9908,7 @@
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="66" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
@@ -9229,7 +9918,7 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="66" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
@@ -9239,7 +9928,7 @@
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="65" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -9249,7 +9938,7 @@
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="65" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="14"/>
@@ -9281,7 +9970,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="14"/>
@@ -9292,7 +9981,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="B99" s="61" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C99" s="61"/>
       <c r="D99" s="62"/>
@@ -9304,7 +9993,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="B100" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D100" s="62"/>
       <c r="E100" s="62"/>
@@ -9315,7 +10004,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="B101" s="61" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C101" s="61"/>
       <c r="D101" s="62"/>
@@ -9327,7 +10016,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="B102" s="61" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C102" s="61"/>
       <c r="D102" s="62"/>
@@ -9339,7 +10028,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="B103" s="62" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C103" s="61"/>
       <c r="E103" s="62"/>
@@ -9347,12 +10036,12 @@
       <c r="G103" s="62"/>
       <c r="H103" s="62"/>
       <c r="I103" s="63" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="B104" s="61" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C104" s="61"/>
       <c r="D104" s="62"/>
@@ -9364,7 +10053,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="B105" s="61" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C105" s="61"/>
       <c r="D105" s="62"/>
@@ -9376,13 +10065,13 @@
     </row>
     <row r="106" spans="1:9">
       <c r="B106" s="61" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C106" s="61"/>
       <c r="D106" s="62"/>
       <c r="E106" s="62"/>
       <c r="F106" s="64" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G106" s="62"/>
       <c r="H106" s="62"/>
@@ -9393,7 +10082,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="14"/>
@@ -9404,7 +10093,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="B108" s="60" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="14"/>
@@ -9415,7 +10104,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="B109" s="67" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="14"/>
@@ -9426,7 +10115,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="B110" s="60" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="14"/>
@@ -9463,7 +10152,7 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C115" s="14" t="s">
         <v>45</v>
@@ -9471,13 +10160,13 @@
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -9493,7 +10182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E4049-9F4E-45E8-AABC-5F47FA805C8C}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -9508,18 +10197,18 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="C1" s="76" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>586</v>
+      </c>
+      <c r="E1" s="76" t="s">
         <v>587</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>588</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C2" s="73">
         <v>0.75</v>
@@ -9547,7 +10236,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C4" s="73">
         <v>0.75</v>
@@ -9561,42 +10250,42 @@
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="B5" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36.75">
       <c r="A7" s="70" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>581</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>582</v>
-      </c>
       <c r="D7" s="71" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -9628,67 +10317,67 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="69" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="72" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="78" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="79" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="59" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D22" s="59" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="68" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B23" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>602</v>
+      </c>
+      <c r="D23" s="68" t="s">
         <v>603</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>604</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -9737,39 +10426,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>526</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="H1" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="I1" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="J1" s="46" t="s">
         <v>532</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B2" s="37">
         <v>36526</v>
@@ -9793,15 +10482,15 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B3" s="37">
         <v>36526</v>
@@ -9825,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -9842,7 +10531,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8998C37F-A893-44BB-B4DB-B431FF398378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB0E5B-FD61-4064-8B5F-0F0B269088AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="855" windowWidth="22815" windowHeight="11835" tabRatio="831" firstSheet="4" activeTab="13" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="1950" yWindow="3270" windowWidth="22815" windowHeight="14595" tabRatio="831" firstSheet="4" activeTab="13" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,6 @@
     <definedName name="TotAtmps">'Avg Atmp'!$E$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -199,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="653">
   <si>
     <t>Name</t>
   </si>
@@ -2902,6 +2901,18 @@
   </si>
   <si>
     <t>Cancelled</t>
+  </si>
+  <si>
+    <t>2 Row display</t>
+  </si>
+  <si>
+    <t>Single row</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Single Line</t>
   </si>
 </sst>
 </file>
@@ -3959,7 +3970,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>10973</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>372032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5151,10 +5162,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5309,12 +5320,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>501</v>
       </c>
@@ -5322,37 +5333,37 @@
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>510</v>
       </c>
@@ -5366,90 +5377,57 @@
         <v>508</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="B32" s="80">
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>651</v>
+      </c>
+      <c r="C33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="80">
         <v>1</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C34" s="80">
         <v>2</v>
       </c>
-      <c r="D32" s="80">
+      <c r="D34" s="80">
         <v>3</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E34" s="80">
         <v>4</v>
       </c>
-      <c r="F32" s="80">
+      <c r="F34" s="80">
         <v>5</v>
       </c>
-      <c r="G32" s="80">
+      <c r="G34" s="80">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="9" t="s">
+    <row r="35" spans="1:8">
+      <c r="B35" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>646</v>
-      </c>
-      <c r="B34" s="81">
-        <v>603</v>
-      </c>
-      <c r="C34" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="E34" s="82">
-        <v>100</v>
-      </c>
-      <c r="F34" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="G34" s="84"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="B35" s="85" t="s">
-        <v>619</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="D35" s="86">
-        <v>220</v>
-      </c>
-      <c r="E35" s="86">
-        <v>105</v>
-      </c>
-      <c r="F35" s="87" t="s">
-        <v>623</v>
-      </c>
-      <c r="G35" s="88" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B36" s="81">
         <v>603</v>
@@ -5458,17 +5436,19 @@
         <v>621</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>626</v>
-      </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="89" t="s">
-        <v>627</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E36" s="82">
+        <v>100</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>622</v>
+      </c>
+      <c r="G36" s="84"/>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" s="85" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="C37" s="86" t="s">
         <v>620</v>
@@ -5476,15 +5456,19 @@
       <c r="D37" s="86">
         <v>220</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="87"/>
+      <c r="E37" s="86">
+        <v>105</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>623</v>
+      </c>
       <c r="G37" s="88" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B38" s="81">
         <v>603</v>
@@ -5498,7 +5482,7 @@
       <c r="E38" s="82"/>
       <c r="F38" s="83"/>
       <c r="G38" s="89" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -5513,11 +5497,13 @@
       </c>
       <c r="E39" s="86"/>
       <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
+      <c r="G39" s="88" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="B40" s="81">
         <v>603</v>
@@ -5526,22 +5512,17 @@
         <v>621</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="E40" s="82">
-        <v>100</v>
-      </c>
-      <c r="F40" s="83" t="s">
-        <v>578</v>
-      </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="98" t="s">
-        <v>647</v>
+        <v>626</v>
+      </c>
+      <c r="E40" s="82"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="89" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" s="85" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="C41" s="86" t="s">
         <v>620</v>
@@ -5549,137 +5530,144 @@
       <c r="D41" s="86">
         <v>220</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="88"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>578</v>
+      </c>
+      <c r="B42" s="81">
+        <v>603</v>
+      </c>
+      <c r="C42" s="82" t="s">
+        <v>621</v>
+      </c>
+      <c r="D42" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" s="82">
+        <v>100</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>578</v>
+      </c>
+      <c r="G42" s="84"/>
+      <c r="H42" s="98" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="85" t="s">
+        <v>619</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>620</v>
+      </c>
+      <c r="D43" s="86">
+        <v>220</v>
+      </c>
+      <c r="E43" s="86">
         <v>105</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F43" s="87" t="s">
         <v>626</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G43" s="88" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30">
-      <c r="B42" s="90" t="s">
+    <row r="44" spans="1:8" ht="30">
+      <c r="A44" t="s">
+        <v>649</v>
+      </c>
+      <c r="B44" s="90" t="s">
         <v>378</v>
       </c>
-      <c r="C42" s="91" t="s">
+      <c r="C44" s="91" t="s">
         <v>636</v>
       </c>
-      <c r="D42" s="91" t="s">
+      <c r="D44" s="91" t="s">
         <v>630</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E44" s="91" t="s">
         <v>631</v>
       </c>
-      <c r="F42" s="92" t="s">
+      <c r="F44" s="92" t="s">
         <v>633</v>
       </c>
-      <c r="G42" s="90" t="s">
+      <c r="G44" s="90" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30">
-      <c r="B43" s="92" t="s">
+    <row r="45" spans="1:8" ht="30">
+      <c r="B45" s="92" t="s">
         <v>635</v>
       </c>
-      <c r="C43" s="91" t="s">
+      <c r="C45" s="91" t="s">
         <v>637</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D45" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="91" t="s">
+        <v>632</v>
+      </c>
+      <c r="F45" s="92" t="s">
+        <v>634</v>
+      </c>
+      <c r="G45" s="91" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="80">
+        <v>1</v>
+      </c>
+      <c r="C48" s="80">
+        <v>2</v>
+      </c>
+      <c r="D48" s="80">
+        <v>3</v>
+      </c>
+      <c r="E48" s="80">
+        <v>4</v>
+      </c>
+      <c r="F48" s="80">
+        <v>5</v>
+      </c>
+      <c r="G48" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>650</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E43" s="91" t="s">
-        <v>632</v>
-      </c>
-      <c r="F43" s="92" t="s">
-        <v>634</v>
-      </c>
-      <c r="G43" s="91" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="80">
-        <v>1</v>
-      </c>
-      <c r="C46" s="80">
-        <v>2</v>
-      </c>
-      <c r="D46" s="80">
-        <v>3</v>
-      </c>
-      <c r="E46" s="80">
-        <v>4</v>
-      </c>
-      <c r="F46" s="80">
-        <v>5</v>
-      </c>
-      <c r="G46" s="80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="93">
-        <v>603</v>
-      </c>
-      <c r="C48" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="D48" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="E48" s="94">
-        <v>115</v>
-      </c>
-      <c r="F48" s="95" t="s">
-        <v>622</v>
-      </c>
-      <c r="G48" s="96" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="93">
-        <v>603</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="D49" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="E49" s="94" t="s">
-        <v>640</v>
-      </c>
-      <c r="F49" s="85" t="s">
-        <v>627</v>
-      </c>
-      <c r="G49" s="96" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>646</v>
+      </c>
       <c r="B50" s="93">
         <v>603</v>
       </c>
@@ -5690,12 +5678,77 @@
         <v>639</v>
       </c>
       <c r="E50" s="94">
+        <v>115</v>
+      </c>
+      <c r="F50" s="95" t="s">
+        <v>622</v>
+      </c>
+      <c r="G50" s="96" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="93">
+        <v>603</v>
+      </c>
+      <c r="C51" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="D51" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="E51" s="94" t="s">
+        <v>640</v>
+      </c>
+      <c r="F51" s="85" t="s">
+        <v>627</v>
+      </c>
+      <c r="G51" s="96" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>648</v>
+      </c>
+      <c r="B52" s="93">
+        <v>603</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="E52" s="94"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>578</v>
+      </c>
+      <c r="B53" s="93">
+        <v>603</v>
+      </c>
+      <c r="C53" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="D53" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="E53" s="94">
         <v>222</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F53" s="85" t="s">
         <v>578</v>
       </c>
-      <c r="G50" s="96" t="s">
+      <c r="G53" s="96" t="s">
         <v>375</v>
       </c>
     </row>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB0E5B-FD61-4064-8B5F-0F0B269088AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078A1B9-4012-408B-9CC5-EDBF12595E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="3270" windowWidth="22815" windowHeight="14595" tabRatio="831" firstSheet="4" activeTab="13" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25290" windowHeight="11835" tabRatio="831" firstSheet="14" activeTab="22" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="654">
   <si>
     <t>Name</t>
   </si>
@@ -2913,6 +2913,9 @@
   </si>
   <si>
     <t>Single Line</t>
+  </si>
+  <si>
+    <t>BBALLHISTORY</t>
   </si>
 </sst>
 </file>
@@ -4565,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4645,6 +4648,23 @@
         <v>2017</v>
       </c>
       <c r="E4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5164,7 +5184,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -5970,7 +5990,7 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -8151,7 +8171,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -8993,8 +9013,8 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10584,7 +10604,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078A1B9-4012-408B-9CC5-EDBF12595E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7550DE-78E5-4E2C-8402-50818974F00B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="25290" windowHeight="11835" tabRatio="831" firstSheet="14" activeTab="22" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="1425" yWindow="1050" windowWidth="26940" windowHeight="11835" tabRatio="831" firstSheet="3" activeTab="12" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -23,22 +23,21 @@
     <sheet name="LeagueInfo Rows" sheetId="21" r:id="rId8"/>
     <sheet name="Templates" sheetId="4" r:id="rId9"/>
     <sheet name="Instances" sheetId="20" r:id="rId10"/>
-    <sheet name="Bills ADJs" sheetId="18" r:id="rId11"/>
-    <sheet name="BSS Flow" sheetId="16" r:id="rId12"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId13"/>
-    <sheet name="GameStatus" sheetId="19" r:id="rId14"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId15"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId16"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId17"/>
-    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId18"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId19"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId20"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId21"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId22"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId23"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId11"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId12"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId13"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId14"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId15"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId16"/>
+    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId17"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId18"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId19"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId20"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId21"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">uspCalcTodaysMatchups!$A$1:$I$112</definedName>
     <definedName name="BxScLinePct">'Curve %'!$C$2</definedName>
     <definedName name="BxScTmStrPct">'Curve %'!$D$2</definedName>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="641">
   <si>
     <t>Name</t>
   </si>
@@ -2244,45 +2243,6 @@
   </si>
   <si>
     <t>Teams</t>
-  </si>
-  <si>
-    <t>Def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATL                           </t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>LAS</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>NYL</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>LVA</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>WAS</t>
   </si>
   <si>
     <t>Check Rotation for Games - Return If None</t>
@@ -3340,7 +3300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -3446,7 +3406,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4585,87 +4544,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D2">
         <v>2012</v>
       </c>
       <c r="E2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D3">
         <v>2017</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D4">
         <v>2017</v>
       </c>
       <c r="E4" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D5">
         <v>2017</v>
       </c>
       <c r="E5" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4675,165 +4634,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FCD9E5-810B-4ECB-B960-9878E4EA3925}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="B2" s="47">
-        <v>-3</v>
-      </c>
-      <c r="C2" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="47" t="s">
-        <v>470</v>
-      </c>
-      <c r="B3" s="47">
-        <v>0</v>
-      </c>
-      <c r="C3" s="47">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="47">
-        <v>0</v>
-      </c>
-      <c r="C4" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="47">
-        <v>0</v>
-      </c>
-      <c r="C5" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="47">
-        <v>0</v>
-      </c>
-      <c r="C6" s="47">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="B7" s="47">
-        <v>0</v>
-      </c>
-      <c r="C7" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="B8" s="47">
-        <v>0</v>
-      </c>
-      <c r="C8" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="47" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" s="47">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="B10" s="47">
-        <v>3</v>
-      </c>
-      <c r="C10" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="47" t="s">
-        <v>478</v>
-      </c>
-      <c r="B11" s="47">
-        <v>0</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="B12" s="47">
-        <v>1</v>
-      </c>
-      <c r="C12" s="47">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="B13" s="47">
-        <v>-3</v>
-      </c>
-      <c r="C13" s="47">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I5"/>
@@ -4983,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:M17"/>
@@ -5179,12 +4979,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -5196,7 +4996,7 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B1" s="25">
         <v>2</v>
@@ -5204,7 +5004,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B2" s="25">
         <v>0</v>
@@ -5212,7 +5012,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B3" s="25">
         <v>0</v>
@@ -5220,16 +5020,16 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B4" s="49">
+        <v>630</v>
+      </c>
+      <c r="B4" s="48">
         <f>gsMins*60 + csSecs</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B5" s="25">
         <v>64</v>
@@ -5237,7 +5037,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B6" s="25">
         <v>61</v>
@@ -5247,14 +5047,14 @@
       <c r="A7" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <f>B5+B6</f>
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B8" s="25">
         <v>200</v>
@@ -5262,7 +5062,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B9" s="25">
         <v>4</v>
@@ -5270,7 +5070,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B10" s="25">
         <v>12</v>
@@ -5284,27 +5084,27 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B11" s="97">
+        <v>484</v>
+      </c>
+      <c r="B11" s="96">
         <f>B8 / (B9*B10)</f>
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="49">
+        <v>483</v>
+      </c>
+      <c r="B12" s="48">
         <f>B9-B1</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B13" s="49">
+        <v>485</v>
+      </c>
+      <c r="B13" s="48">
         <f>(gsPeriodsLeft*gsMinsPerPeriod)+gsMins+ csSecs/60</f>
         <v>24</v>
       </c>
@@ -5315,62 +5115,62 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>499</v>
-      </c>
-      <c r="B14" s="49">
+        <v>486</v>
+      </c>
+      <c r="B14" s="48">
         <f>B13*B11 + B7</f>
         <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
-      </c>
-      <c r="W14" s="50" t="s">
-        <v>500</v>
+        <v>605</v>
+      </c>
+      <c r="W14" s="49" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>644</v>
-      </c>
-      <c r="B15" s="49">
+        <v>631</v>
+      </c>
+      <c r="B15" s="48">
         <f>IF(B7&gt;B8,"OVER",B14-B8)</f>
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="B23" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5380,48 +5180,48 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C30" t="s">
         <v>467</v>
       </c>
       <c r="D30" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E30" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C33" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" s="80">
+      <c r="B34" s="79">
         <v>1</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="79">
         <v>2</v>
       </c>
-      <c r="D34" s="80">
+      <c r="D34" s="79">
         <v>3</v>
       </c>
-      <c r="E34" s="80">
+      <c r="E34" s="79">
         <v>4</v>
       </c>
-      <c r="F34" s="80">
+      <c r="F34" s="79">
         <v>5</v>
       </c>
-      <c r="G34" s="80">
+      <c r="G34" s="79">
         <v>6</v>
       </c>
     </row>
@@ -5442,228 +5242,228 @@
         <v>455</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>646</v>
-      </c>
-      <c r="B36" s="81">
+        <v>633</v>
+      </c>
+      <c r="B36" s="80">
         <v>603</v>
       </c>
-      <c r="C36" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="D36" s="82" t="s">
+      <c r="C36" s="81" t="s">
+        <v>608</v>
+      </c>
+      <c r="D36" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="E36" s="82">
+      <c r="E36" s="81">
         <v>100</v>
       </c>
-      <c r="F36" s="83" t="s">
-        <v>622</v>
-      </c>
-      <c r="G36" s="84"/>
+      <c r="F36" s="82" t="s">
+        <v>609</v>
+      </c>
+      <c r="G36" s="83"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" s="85" t="s">
-        <v>619</v>
-      </c>
-      <c r="C37" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="D37" s="86">
+      <c r="B37" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="D37" s="85">
         <v>220</v>
       </c>
-      <c r="E37" s="86">
+      <c r="E37" s="85">
         <v>105</v>
       </c>
-      <c r="F37" s="87" t="s">
-        <v>623</v>
-      </c>
-      <c r="G37" s="88" t="s">
-        <v>624</v>
+      <c r="F37" s="86" t="s">
+        <v>610</v>
+      </c>
+      <c r="G37" s="87" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>645</v>
-      </c>
-      <c r="B38" s="81">
+        <v>632</v>
+      </c>
+      <c r="B38" s="80">
         <v>603</v>
       </c>
-      <c r="C38" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>626</v>
-      </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="89" t="s">
-        <v>627</v>
+      <c r="C38" s="81" t="s">
+        <v>608</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>613</v>
+      </c>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="88" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" s="85" t="s">
-        <v>627</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="D39" s="86">
+      <c r="B39" s="84" t="s">
+        <v>614</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="D39" s="85">
         <v>220</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88" t="s">
-        <v>628</v>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>648</v>
-      </c>
-      <c r="B40" s="81">
+        <v>635</v>
+      </c>
+      <c r="B40" s="80">
         <v>603</v>
       </c>
-      <c r="C40" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>626</v>
-      </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="89" t="s">
-        <v>648</v>
+      <c r="C40" s="81" t="s">
+        <v>608</v>
+      </c>
+      <c r="D40" s="81" t="s">
+        <v>613</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="88" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="85" t="s">
-        <v>627</v>
-      </c>
-      <c r="C41" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="D41" s="86">
+      <c r="B41" s="84" t="s">
+        <v>614</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="D41" s="85">
         <v>220</v>
       </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="88"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>578</v>
-      </c>
-      <c r="B42" s="81">
+        <v>565</v>
+      </c>
+      <c r="B42" s="80">
         <v>603</v>
       </c>
-      <c r="C42" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="D42" s="82" t="s">
+      <c r="C42" s="81" t="s">
+        <v>608</v>
+      </c>
+      <c r="D42" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="81">
         <v>100</v>
       </c>
-      <c r="F42" s="83" t="s">
-        <v>578</v>
-      </c>
-      <c r="G42" s="84"/>
-      <c r="H42" s="98" t="s">
-        <v>647</v>
+      <c r="F42" s="82" t="s">
+        <v>565</v>
+      </c>
+      <c r="G42" s="83"/>
+      <c r="H42" s="97" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="85" t="s">
-        <v>619</v>
-      </c>
-      <c r="C43" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="D43" s="86">
+      <c r="B43" s="84" t="s">
+        <v>606</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="D43" s="85">
         <v>220</v>
       </c>
-      <c r="E43" s="86">
+      <c r="E43" s="85">
         <v>105</v>
       </c>
-      <c r="F43" s="87" t="s">
-        <v>626</v>
-      </c>
-      <c r="G43" s="88" t="s">
-        <v>629</v>
+      <c r="F43" s="86" t="s">
+        <v>613</v>
+      </c>
+      <c r="G43" s="87" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="A44" t="s">
-        <v>649</v>
-      </c>
-      <c r="B44" s="90" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="C44" s="91" t="s">
-        <v>636</v>
-      </c>
-      <c r="D44" s="91" t="s">
-        <v>630</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>631</v>
-      </c>
-      <c r="F44" s="92" t="s">
-        <v>633</v>
-      </c>
-      <c r="G44" s="90" t="s">
+      <c r="C44" s="90" t="s">
+        <v>623</v>
+      </c>
+      <c r="D44" s="90" t="s">
+        <v>617</v>
+      </c>
+      <c r="E44" s="90" t="s">
+        <v>618</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>620</v>
+      </c>
+      <c r="G44" s="89" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
+      <c r="B45" s="91" t="s">
+        <v>622</v>
+      </c>
+      <c r="C45" s="90" t="s">
+        <v>624</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="90" t="s">
+        <v>619</v>
+      </c>
+      <c r="F45" s="91" t="s">
+        <v>621</v>
+      </c>
+      <c r="G45" s="90" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30">
-      <c r="B45" s="92" t="s">
-        <v>635</v>
-      </c>
-      <c r="C45" s="91" t="s">
-        <v>637</v>
-      </c>
-      <c r="D45" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>632</v>
-      </c>
-      <c r="F45" s="92" t="s">
-        <v>634</v>
-      </c>
-      <c r="G45" s="91" t="s">
-        <v>638</v>
-      </c>
-    </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="80">
+      <c r="B48" s="79">
         <v>1</v>
       </c>
-      <c r="C48" s="80">
+      <c r="C48" s="79">
         <v>2</v>
       </c>
-      <c r="D48" s="80">
+      <c r="D48" s="79">
         <v>3</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E48" s="79">
         <v>4</v>
       </c>
-      <c r="F48" s="80">
+      <c r="F48" s="79">
         <v>5</v>
       </c>
-      <c r="G48" s="80">
+      <c r="G48" s="79">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>372</v>
@@ -5681,94 +5481,94 @@
         <v>455</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>646</v>
-      </c>
-      <c r="B50" s="93">
+        <v>633</v>
+      </c>
+      <c r="B50" s="92">
         <v>603</v>
       </c>
-      <c r="C50" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="D50" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="E50" s="94">
+      <c r="C50" s="93" t="s">
+        <v>608</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>626</v>
+      </c>
+      <c r="E50" s="93">
         <v>115</v>
       </c>
-      <c r="F50" s="95" t="s">
-        <v>622</v>
-      </c>
-      <c r="G50" s="96" t="s">
-        <v>624</v>
+      <c r="F50" s="94" t="s">
+        <v>609</v>
+      </c>
+      <c r="G50" s="95" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>645</v>
-      </c>
-      <c r="B51" s="93">
+        <v>632</v>
+      </c>
+      <c r="B51" s="92">
         <v>603</v>
       </c>
-      <c r="C51" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="D51" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="E51" s="94" t="s">
-        <v>640</v>
-      </c>
-      <c r="F51" s="85" t="s">
+      <c r="C51" s="93" t="s">
+        <v>608</v>
+      </c>
+      <c r="D51" s="93" t="s">
+        <v>626</v>
+      </c>
+      <c r="E51" s="93" t="s">
         <v>627</v>
       </c>
-      <c r="G51" s="96" t="s">
-        <v>628</v>
+      <c r="F51" s="84" t="s">
+        <v>614</v>
+      </c>
+      <c r="G51" s="95" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>648</v>
-      </c>
-      <c r="B52" s="93">
+        <v>635</v>
+      </c>
+      <c r="B52" s="92">
         <v>603</v>
       </c>
-      <c r="C52" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="D52" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="E52" s="94"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="89" t="s">
-        <v>648</v>
+      <c r="C52" s="93" t="s">
+        <v>608</v>
+      </c>
+      <c r="D52" s="93" t="s">
+        <v>626</v>
+      </c>
+      <c r="E52" s="93"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="88" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>578</v>
-      </c>
-      <c r="B53" s="93">
+        <v>565</v>
+      </c>
+      <c r="B53" s="92">
         <v>603</v>
       </c>
-      <c r="C53" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="D53" s="94" t="s">
-        <v>639</v>
-      </c>
-      <c r="E53" s="94">
+      <c r="C53" s="93" t="s">
+        <v>608</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>626</v>
+      </c>
+      <c r="E53" s="93">
         <v>222</v>
       </c>
-      <c r="F53" s="85" t="s">
-        <v>578</v>
-      </c>
-      <c r="G53" s="96" t="s">
+      <c r="F53" s="84" t="s">
+        <v>565</v>
+      </c>
+      <c r="G53" s="95" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5779,7 +5579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
@@ -5877,7 +5677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
@@ -5893,11 +5693,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -5947,7 +5747,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="98" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -5958,7 +5758,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="99"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="10" t="s">
         <v>374</v>
       </c>
@@ -5967,7 +5767,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="B5" s="99"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="10" t="s">
         <v>375</v>
       </c>
@@ -5984,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
@@ -6001,20 +5801,20 @@
     <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="56" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:5" s="55" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7467,7 +7267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A5C7EC-EF5B-47DA-AE1B-CF3EEA06F69E}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7482,7 +7282,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -7492,7 +7292,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -7510,7 +7310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -7564,6 +7364,175 @@
       </c>
       <c r="C5" t="s">
         <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>13.74</v>
+      </c>
+      <c r="E3">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>A4*B4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>A5*B5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>73.3</v>
+      </c>
+      <c r="E6">
+        <v>82.584999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7">
+        <v>-0.5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8">
+        <f>(C6+C7) / C6</f>
+        <v>0.995</v>
+      </c>
+      <c r="D8">
+        <f>(D6+D7) / D6</f>
+        <v>1.0272851296043657</v>
+      </c>
+      <c r="E8">
+        <f>(E6+E7) / E6</f>
+        <v>1.0242174729067022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>C3*C$8</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D10">
+        <f>D3*D$8</f>
+        <v>14.114897680763985</v>
+      </c>
+      <c r="E10">
+        <f>E3*E$8</f>
+        <v>17.155642671187262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>C4*C$8</f>
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>C5*C$8</f>
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13">
+        <f>SUM(C10:C12)</f>
+        <v>99.5</v>
       </c>
     </row>
   </sheetData>
@@ -7617,175 +7586,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>A3*B3</f>
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>13.74</v>
-      </c>
-      <c r="E3">
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <f>A4*B4</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <f>A5*B5</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>73.3</v>
-      </c>
-      <c r="E6">
-        <v>82.584999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C7">
-        <v>-0.5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C8">
-        <f>(C6+C7) / C6</f>
-        <v>0.995</v>
-      </c>
-      <c r="D8">
-        <f>(D6+D7) / D6</f>
-        <v>1.0272851296043657</v>
-      </c>
-      <c r="E8">
-        <f>(E6+E7) / E6</f>
-        <v>1.0242174729067022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>C3*C$8</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D10">
-        <f>D3*D$8</f>
-        <v>14.114897680763985</v>
-      </c>
-      <c r="E10">
-        <f>E3*E$8</f>
-        <v>17.155642671187262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f>C4*C$8</f>
-        <v>49.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f>C5*C$8</f>
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13">
-        <f>SUM(C10:C12)</f>
-        <v>99.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -7801,7 +7601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
@@ -8166,12 +7966,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -8266,7 +8066,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="99" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -8277,7 +8077,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1">
-      <c r="A29" s="101"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="20" t="s">
         <v>72</v>
       </c>
@@ -8286,14 +8086,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="101"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A31" s="102"/>
+      <c r="A31" s="101"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>70</v>
@@ -9031,41 +8831,41 @@
     <col min="22" max="22" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="1:22" s="55" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="56" t="str">
+      <c r="I1" s="55" t="str">
         <f>"SELECT  max(GameDate) as " &amp; D1 &amp; "MaxDate FROM " &amp; D1</f>
         <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="51">
+      <c r="A2" s="50">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9085,7 +8885,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="32" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
@@ -9097,7 +8897,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -9164,8 +8964,8 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="77" t="s">
-        <v>594</v>
+      <c r="B12" s="76" t="s">
+        <v>581</v>
       </c>
       <c r="E12">
         <v>0.2</v>
@@ -9175,16 +8975,16 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="77" t="s">
-        <v>595</v>
+      <c r="B13" s="76" t="s">
+        <v>582</v>
       </c>
       <c r="E13">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" s="77" t="s">
-        <v>596</v>
+      <c r="B14" s="76" t="s">
+        <v>583</v>
       </c>
       <c r="E14">
         <v>0.67</v>
@@ -9197,7 +8997,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="13" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
@@ -9214,7 +9014,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="B19" s="3" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C19" s="3"/>
     </row>
@@ -9223,14 +9023,14 @@
         <v>1.41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C20" s="3"/>
       <c r="E20" t="s">
         <v>450</v>
       </c>
       <c r="F20" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -9298,7 +9098,7 @@
         <v>361</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -9334,7 +9134,7 @@
         <v>198</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="48"/>
+      <c r="H29" s="47"/>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="2" t="s">
@@ -9345,7 +9145,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="48"/>
+      <c r="H30" s="47"/>
       <c r="K30" t="s">
         <v>246</v>
       </c>
@@ -9371,7 +9171,7 @@
         <v>450</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9383,7 +9183,7 @@
       </c>
       <c r="C33" s="30"/>
       <c r="H33" s="43" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9408,10 +9208,10 @@
         <v>450</v>
       </c>
       <c r="F36" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9426,7 +9226,7 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -9434,7 +9234,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="33" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>354</v>
@@ -9444,12 +9244,12 @@
         <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="33" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>197</v>
@@ -9458,28 +9258,28 @@
         <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="33" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>2</v>
       </c>
-      <c r="B41" s="52"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="2"/>
       <c r="E41" t="s">
         <v>355</v>
       </c>
       <c r="F41" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>340</v>
@@ -9533,7 +9333,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9542,7 +9342,7 @@
       </c>
       <c r="C47" s="5"/>
       <c r="E47" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9552,10 +9352,10 @@
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>3</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="52" t="s">
         <v>211</v>
       </c>
       <c r="C49" s="32"/>
@@ -9655,10 +9455,10 @@
       <c r="C60" s="35"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="51">
+      <c r="A61" s="50">
         <v>4</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>232</v>
       </c>
     </row>
@@ -9771,7 +9571,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="14"/>
@@ -9781,8 +9581,8 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="B74" s="61" t="s">
-        <v>575</v>
+      <c r="B74" s="60" t="s">
+        <v>562</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="14"/>
@@ -9792,8 +9592,8 @@
       <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="B75" s="61" t="s">
-        <v>576</v>
+      <c r="B75" s="60" t="s">
+        <v>563</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="14"/>
@@ -9803,8 +9603,8 @@
       <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="B76" s="61" t="s">
-        <v>577</v>
+      <c r="B76" s="60" t="s">
+        <v>564</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="14"/>
@@ -9818,7 +9618,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="14"/>
@@ -9828,8 +9628,8 @@
       <c r="H77" s="14"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="B78" s="65" t="s">
-        <v>556</v>
+      <c r="B78" s="64" t="s">
+        <v>543</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="14"/>
@@ -9839,8 +9639,8 @@
       <c r="H78" s="14"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="B79" s="65" t="s">
-        <v>557</v>
+      <c r="B79" s="64" t="s">
+        <v>544</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="14"/>
@@ -9850,8 +9650,8 @@
       <c r="H79" s="14"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="B80" s="65" t="s">
-        <v>558</v>
+      <c r="B80" s="64" t="s">
+        <v>545</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="14"/>
@@ -9861,8 +9661,8 @@
       <c r="H80" s="14"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="65" t="s">
-        <v>559</v>
+      <c r="B81" s="64" t="s">
+        <v>546</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="14"/>
@@ -9872,8 +9672,8 @@
       <c r="H81" s="14"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="65" t="s">
-        <v>560</v>
+      <c r="B82" s="64" t="s">
+        <v>547</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="14"/>
@@ -9883,8 +9683,8 @@
       <c r="H82" s="14"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="65" t="s">
-        <v>561</v>
+      <c r="B83" s="64" t="s">
+        <v>548</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="14"/>
@@ -9894,8 +9694,8 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="66" t="s">
-        <v>562</v>
+      <c r="B84" s="65" t="s">
+        <v>549</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -9904,11 +9704,11 @@
       <c r="H84"/>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="66" t="s">
-        <v>563</v>
+      <c r="B85" s="65" t="s">
+        <v>550</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
@@ -9916,8 +9716,8 @@
       <c r="H85"/>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="66" t="s">
-        <v>565</v>
+      <c r="B86" s="65" t="s">
+        <v>552</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -9926,8 +9726,8 @@
       <c r="H86"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="65" t="s">
-        <v>566</v>
+      <c r="B87" s="64" t="s">
+        <v>553</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
@@ -9937,8 +9737,8 @@
       <c r="H87"/>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="65" t="s">
-        <v>567</v>
+      <c r="B88" s="64" t="s">
+        <v>554</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="14"/>
@@ -9948,8 +9748,8 @@
       <c r="H88" s="14"/>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="66" t="s">
-        <v>562</v>
+      <c r="B89" s="65" t="s">
+        <v>549</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -9958,11 +9758,11 @@
       <c r="H89"/>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="66" t="s">
-        <v>568</v>
+      <c r="B90" s="65" t="s">
+        <v>555</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
@@ -9970,8 +9770,8 @@
       <c r="H90"/>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="66" t="s">
-        <v>569</v>
+      <c r="B91" s="65" t="s">
+        <v>556</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
@@ -9980,8 +9780,8 @@
       <c r="H91"/>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="66" t="s">
-        <v>570</v>
+      <c r="B92" s="65" t="s">
+        <v>557</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
@@ -9990,8 +9790,8 @@
       <c r="H92"/>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="66" t="s">
-        <v>571</v>
+      <c r="B93" s="65" t="s">
+        <v>558</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
@@ -10000,8 +9800,8 @@
       <c r="H93"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="65" t="s">
-        <v>572</v>
+      <c r="B94" s="64" t="s">
+        <v>559</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -10010,8 +9810,8 @@
       <c r="H94" s="14"/>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="65" t="s">
-        <v>573</v>
+      <c r="B95" s="64" t="s">
+        <v>560</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="14"/>
@@ -10043,7 +9843,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="14"/>
@@ -10053,109 +9853,109 @@
       <c r="H98" s="14"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="B99" s="61" t="s">
-        <v>545</v>
-      </c>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-      <c r="I99" s="63"/>
+      <c r="B99" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
+      <c r="I99" s="62"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="B100" s="61" t="s">
-        <v>553</v>
-      </c>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
-      <c r="G100" s="62"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="63"/>
+      <c r="B100" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
+      <c r="I100" s="62"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="B101" s="61" t="s">
-        <v>546</v>
-      </c>
-      <c r="C101" s="61"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
-      <c r="H101" s="62"/>
-      <c r="I101" s="63"/>
+      <c r="B101" s="60" t="s">
+        <v>533</v>
+      </c>
+      <c r="C101" s="60"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="62"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="B102" s="61" t="s">
-        <v>547</v>
-      </c>
-      <c r="C102" s="61"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="62"/>
-      <c r="H102" s="62"/>
-      <c r="I102" s="63"/>
+      <c r="B102" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="C102" s="60"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
+      <c r="I102" s="62"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="B103" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="C103" s="61"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="63" t="s">
-        <v>549</v>
+      <c r="B103" s="61" t="s">
+        <v>535</v>
+      </c>
+      <c r="C103" s="60"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="62" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="B104" s="61" t="s">
-        <v>550</v>
-      </c>
-      <c r="C104" s="61"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="62"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="63"/>
+      <c r="B104" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="C104" s="60"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="62"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="B105" s="61" t="s">
-        <v>551</v>
-      </c>
-      <c r="C105" s="61"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="63"/>
+      <c r="B105" s="60" t="s">
+        <v>538</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="62"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="B106" s="61" t="s">
-        <v>552</v>
-      </c>
-      <c r="C106" s="61"/>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="G106" s="62"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="63"/>
+      <c r="B106" s="60" t="s">
+        <v>539</v>
+      </c>
+      <c r="C106" s="60"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="61"/>
+      <c r="F106" s="63" t="s">
+        <v>541</v>
+      </c>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
+      <c r="I106" s="62"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107">
         <v>4.3499999999999996</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="14"/>
@@ -10165,8 +9965,8 @@
       <c r="H107" s="14"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="B108" s="60" t="s">
-        <v>541</v>
+      <c r="B108" s="59" t="s">
+        <v>528</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="14"/>
@@ -10176,8 +9976,8 @@
       <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="B109" s="67" t="s">
-        <v>542</v>
+      <c r="B109" s="66" t="s">
+        <v>529</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="14"/>
@@ -10187,8 +9987,8 @@
       <c r="H109" s="14"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="B110" s="60" t="s">
-        <v>543</v>
+      <c r="B110" s="59" t="s">
+        <v>530</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="14"/>
@@ -10269,27 +10069,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="C1" s="76" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>586</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>587</v>
+      <c r="C1" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C2" s="73">
+        <v>584</v>
+      </c>
+      <c r="C2" s="72">
         <v>0.75</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="72">
         <v>0.2</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="72">
         <v>0.2</v>
       </c>
     </row>
@@ -10297,68 +10097,68 @@
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="72">
         <v>0.2</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="72">
         <v>0.5</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="72">
         <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C4" s="73">
+        <v>585</v>
+      </c>
+      <c r="C4" s="72">
         <v>0.75</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="72">
         <v>0.1</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="72">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="B5" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>599</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>589</v>
+        <v>577</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>586</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>576</v>
       </c>
       <c r="E5" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36.75">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="E7" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>579</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="H7" s="74" t="s">
         <v>580</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>592</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -10389,68 +10189,68 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="69" t="s">
-        <v>588</v>
+      <c r="A11" s="68" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="72" t="s">
-        <v>583</v>
+      <c r="A14" s="71" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="16" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="78" t="s">
-        <v>609</v>
+      <c r="A19" s="77" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="79" t="s">
-        <v>542</v>
+      <c r="A20" s="78" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>610</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>611</v>
+      <c r="B22" s="58" t="s">
+        <v>592</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="68" t="s">
-        <v>604</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>601</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>602</v>
-      </c>
-      <c r="D23" s="68" t="s">
-        <v>603</v>
+      <c r="A23" s="67" t="s">
+        <v>591</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>588</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10502,36 +10302,36 @@
         <v>377</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B2" s="37">
         <v>36526</v>
@@ -10555,15 +10355,15 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="J2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B3" s="37">
         <v>36526</v>
@@ -10587,10 +10387,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="J3" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -8,38 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657D3009-CB98-4810-820F-53643E37EF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FFEB0-1D6A-4FE0-BA1C-7F1222AEDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27150" yWindow="1950" windowWidth="25440" windowHeight="11835" tabRatio="831" activeTab="3" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="54675" yWindow="570" windowWidth="27405" windowHeight="15015" tabRatio="831" activeTab="2" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
     <sheet name="LoadBoxScores" sheetId="6" r:id="rId2"/>
-    <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId3"/>
-    <sheet name="Parms" sheetId="26" r:id="rId4"/>
-    <sheet name="Curve %" sheetId="22" r:id="rId5"/>
-    <sheet name="Adj Doc" sheetId="24" r:id="rId6"/>
-    <sheet name="CalcGB4Pts" sheetId="25" r:id="rId7"/>
-    <sheet name="LeagueInfo Rows" sheetId="21" r:id="rId8"/>
-    <sheet name="Templates" sheetId="4" r:id="rId9"/>
-    <sheet name="Instances" sheetId="20" r:id="rId10"/>
-    <sheet name="BSS Flow" sheetId="16" r:id="rId11"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId12"/>
-    <sheet name="GameStatus" sheetId="19" r:id="rId13"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId14"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId15"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId16"/>
-    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId17"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId18"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId19"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId20"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId21"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId22"/>
+    <sheet name="JS Calls" sheetId="27" r:id="rId3"/>
+    <sheet name="uspCalcTodaysMatchups" sheetId="3" r:id="rId4"/>
+    <sheet name="Parms" sheetId="26" r:id="rId5"/>
+    <sheet name="Curve %" sheetId="22" r:id="rId6"/>
+    <sheet name="Adj Doc" sheetId="24" r:id="rId7"/>
+    <sheet name="CalcGB4Pts" sheetId="25" r:id="rId8"/>
+    <sheet name="LeagueInfo Rows" sheetId="21" r:id="rId9"/>
+    <sheet name="Templates" sheetId="4" r:id="rId10"/>
+    <sheet name="Instances" sheetId="20" r:id="rId11"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId12"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId13"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId14"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId15"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId16"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId17"/>
+    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId18"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId19"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId20"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId21"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId22"/>
+    <sheet name="Bball Screenshot" sheetId="7" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Parms!$A$1:$H$61</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">uspCalcTodaysMatchups!$A$1:$K$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parms!$A$1:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">uspCalcTodaysMatchups!$A$1:$K$119</definedName>
     <definedName name="AverageAllowedOpPts">CalcGB4Pts!$B$20</definedName>
     <definedName name="AverageMadeUsPts">CalcGB4Pts!$B$19</definedName>
     <definedName name="BxScLinePct">'Curve %'!$C$2</definedName>
@@ -210,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="705">
   <si>
     <t>Name</t>
   </si>
@@ -3057,6 +3058,96 @@
   </si>
   <si>
     <t>#2 #3</t>
+  </si>
+  <si>
+    <t>oDailySummaryDTO</t>
+  </si>
+  <si>
+    <t>oSeasonInfoDTO</t>
+  </si>
+  <si>
+    <t>oLeagueDTO</t>
+  </si>
+  <si>
+    <t>oUserLeagueParmsDTO</t>
+  </si>
+  <si>
+    <t>ocAdjustments</t>
+  </si>
+  <si>
+    <t>ocAdjustmentNames</t>
+  </si>
+  <si>
+    <t>ocTeams</t>
+  </si>
+  <si>
+    <t>ocLeagueNames</t>
+  </si>
+  <si>
+    <t>ocTodaysMatchupsDTO</t>
+  </si>
+  <si>
+    <t>ocBoxScoresSeedsDTO</t>
+  </si>
+  <si>
+    <t>ocPostGameAnalysisDTO</t>
+  </si>
+  <si>
+    <t>OcJsonObjectDTO</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>TMs</t>
+  </si>
+  <si>
+    <t>Adjs</t>
+  </si>
+  <si>
+    <t>PGAs</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>App Init</t>
+  </si>
+  <si>
+    <t>Lg Init</t>
+  </si>
+  <si>
+    <t>AdjustmentsDO.
+UpdateYesterdaysAdjustments</t>
+  </si>
+  <si>
+    <t>DataDO.GetLeagueNames</t>
+  </si>
+  <si>
+    <t>AdjustmentsDO.
+UpdateTodaysPlays</t>
+  </si>
+  <si>
+    <t>LoadBoxScores.
+LoadTodaysRotation</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Data Object</t>
+  </si>
+  <si>
+    <t>GetAdjustmentInfo</t>
+  </si>
+  <si>
+    <t>AdjustmentDO</t>
+  </si>
+  <si>
+    <t>Wrapper - get ADJs, AdjNames, Teams</t>
   </si>
 </sst>
 </file>
@@ -3527,7 +3618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -3803,6 +3894,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3811,10 +3909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4846,6 +4940,323 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="95" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="228.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>IF(B2="Home", "Away", IF(B2="Away", "Home",""))</f>
+        <v/>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IF(B2="Us", "Team", IF(B2="Op", "Opp ",""))</f>
+        <v xml:space="preserve">Opp </v>
+      </c>
+      <c r="E2" s="10" t="str">
+        <f>IF(B2="Us", "Allowed", IF(B2="Op", "Scored ",""))</f>
+        <v xml:space="preserve">Scored </v>
+      </c>
+      <c r="G2" s="10">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12" t="str">
+        <f>", (b.ShotsMade" &amp; B2 &amp; "RegPt" &amp; G2 &amp; " - IsNull(bL5.Q4Last1Min" &amp; B2 &amp; "Pt" &amp; G2 &amp; ", @LgAvgLastMinPt" &amp; G2 &amp; ") + @LgAvgLastMinPt" &amp; G2 &amp; ") * ( 1.0 + (( (r.TotalLine" &amp; D2 &amp; "  / b.ScoreReg" &amp; B2 &amp; " ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPct" &amp; E2 &amp; " - 1.0) * @BxScTmStrPct) AS AverageMade" &amp; B2 &amp; "Pt" &amp; G2</f>
+        <v>, (b.ShotsMadeopRegPt3 - IsNull(bL5.Q4Last1MinopPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineOpp   / b.ScoreRegop ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctScored  - 1.0) * @BxScTmStrPct) AS AverageMadeopPt3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="97" t="str">
+        <f>", dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt1, bL5.Q4Last1MinUsPt1, @LgAvgLastMinPt1, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt1"</f>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt1, bL5.Q4Last1MinUsPt1, @LgAvgLastMinPt1, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95" t="str">
+        <f t="shared" ref="E5:E10" si="0">IF($B5="Us", "Allowed", IF($B5="Op", "Scored ",""))</f>
+        <v>Allowed</v>
+      </c>
+      <c r="F5" s="95" t="str">
+        <f t="shared" ref="F5:F10" si="1">IF($B5="Us", "r", IF($B5="Op", "rOPP ",""))</f>
+        <v>r</v>
+      </c>
+      <c r="G5" s="95">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" ref="H5:H10" si="2">", dbo.udfCalcTM3BxScAdjedPts (b.ShotsMade" &amp; B5 &amp; "RegPt" &amp; G5 &amp; ", bL5.Q4Last1Min" &amp; B5 &amp; "Pt" &amp; G5 &amp; ", @LgAvgLastMinPt" &amp; G5 &amp; ", " &amp; F5 &amp; ".TotalLineTeam, b.ScoreReg" &amp; B5 &amp; ", @BxScLinePct, ts.TeamStrengthBxScAdjPct" &amp; E5 &amp; ", @BxScTmStrPct) AS AdjustedMade" &amp; B5 &amp; "Pt" &amp; G5</f>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt1, bL5.Q4Last1MinUsPt1, @LgAvgLastMinPt1, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>Allowed</v>
+      </c>
+      <c r="F6" s="95" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="G6" s="95">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt2, bL5.Q4Last1MinUsPt2, @LgAvgLastMinPt2, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>Allowed</v>
+      </c>
+      <c r="F7" s="95" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="G7" s="95">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt3, bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Scored </v>
+      </c>
+      <c r="F8" s="95" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rOPP </v>
+      </c>
+      <c r="G8" s="95">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeOpRegPt1, bL5.Q4Last1MinOpPt1, @LgAvgLastMinPt1, rOPP .TotalLineTeam, b.ScoreRegOp, @BxScLinePct, ts.TeamStrengthBxScAdjPctScored , @BxScTmStrPct) AS AdjustedMadeOpPt1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Scored </v>
+      </c>
+      <c r="F9" s="95" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rOPP </v>
+      </c>
+      <c r="G9" s="95">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeOpRegPt2, bL5.Q4Last1MinOpPt2, @LgAvgLastMinPt2, rOPP .TotalLineTeam, b.ScoreRegOp, @BxScLinePct, ts.TeamStrengthBxScAdjPctScored , @BxScTmStrPct) AS AdjustedMadeOpPt2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Scored </v>
+      </c>
+      <c r="F10" s="95" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">rOPP </v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeOpRegPt3, bL5.Q4Last1MinOpPt3, @LgAvgLastMinPt3, rOPP .TotalLineTeam, b.ScoreRegOp, @BxScLinePct, ts.TeamStrengthBxScAdjPctScored , @BxScTmStrPct) AS AdjustedMadeOpPt3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="b">
+        <f>H$2 = H11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f>IF(B12="Home", "Away", IF(B12="Away", "Home",""))</f>
+        <v>Away</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f>IF(B12="Us", "Team", IF(B12="Op", "Opp ",""))</f>
+        <v/>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f>IF(B12="Us", "Allowed", IF(B12="Op", "Scored ",""))</f>
+        <v/>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="e">
+        <f>"     , @Pt" &amp; G12 &amp; " * t" &amp; B12 &amp; "GB" &amp;#REF! &amp; ".AverageMadeUsPt" &amp; G12 &amp; " * ( 1.0 + (( (t" &amp; C12 &amp; "GB10.AverageMadeOpPt" &amp; G12 &amp; " / @LgAvgShotsMade" &amp; C12 &amp; "Pt" &amp; G12 &amp; ") - 1.0 ) * @TmStrAdjPct) )   as Calc" &amp; B12 &amp; "GB" &amp;#REF! &amp; "Pt" &amp; G12 &amp; ""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="10" t="e">
+        <f>H$12=H13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>"     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1"</f>
+        <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="e">
+        <f>H$12=H14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="10" t="e">
+        <f>H$12=H15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="10" t="b">
+        <f>H4=H10</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4953,7 +5364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I5"/>
@@ -5103,7 +5514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:M17"/>
@@ -5299,7 +5710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W53"/>
@@ -5899,7 +6310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
@@ -5997,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
@@ -6013,11 +6424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="114" t="s">
+      <c r="J1" s="117" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6067,7 +6478,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="117" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -6078,7 +6489,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="10" t="s">
         <v>291</v>
       </c>
@@ -6087,7 +6498,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="114"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="10" t="s">
         <v>292</v>
       </c>
@@ -6104,7 +6515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
@@ -7587,7 +7998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A5C7EC-EF5B-47DA-AE1B-CF3EEA06F69E}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -7630,7 +8041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:C5"/>
@@ -7684,175 +8095,6 @@
       </c>
       <c r="C5" t="s">
         <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
-  <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <f>A3*B3</f>
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>13.74</v>
-      </c>
-      <c r="E3">
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <f>A4*B4</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <f>A5*B5</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C6">
-        <f>SUM(C3:C5)</f>
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>73.3</v>
-      </c>
-      <c r="E6">
-        <v>82.584999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7">
-        <v>-0.5</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8">
-        <f>(C6+C7) / C6</f>
-        <v>0.995</v>
-      </c>
-      <c r="D8">
-        <f>(D6+D7) / D6</f>
-        <v>1.0272851296043657</v>
-      </c>
-      <c r="E8">
-        <f>(E6+E7) / E6</f>
-        <v>1.0242174729067022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>C3*C$8</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D10">
-        <f>D3*D$8</f>
-        <v>14.114897680763985</v>
-      </c>
-      <c r="E10">
-        <f>E3*E$8</f>
-        <v>17.155642671187262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f>C4*C$8</f>
-        <v>49.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f>C5*C$8</f>
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>SUM(C10:C12)</f>
-        <v>99.5</v>
       </c>
     </row>
   </sheetData>
@@ -7983,6 +8225,175 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>13.74</v>
+      </c>
+      <c r="E3">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>A4*B4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>A5*B5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C3:C5)</f>
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>73.3</v>
+      </c>
+      <c r="E6">
+        <v>82.584999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7">
+        <v>-0.5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8">
+        <f>(C6+C7) / C6</f>
+        <v>0.995</v>
+      </c>
+      <c r="D8">
+        <f>(D6+D7) / D6</f>
+        <v>1.0272851296043657</v>
+      </c>
+      <c r="E8">
+        <f>(E6+E7) / E6</f>
+        <v>1.0242174729067022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>C3*C$8</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D10">
+        <f>D3*D$8</f>
+        <v>14.114897680763985</v>
+      </c>
+      <c r="E10">
+        <f>E3*E$8</f>
+        <v>17.155642671187262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>C4*C$8</f>
+        <v>49.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>C5*C$8</f>
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>SUM(C10:C12)</f>
+        <v>99.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -7998,7 +8409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
@@ -8363,7 +8774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
@@ -8463,7 +8874,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="118" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -8474,7 +8885,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="20" t="s">
         <v>68</v>
       </c>
@@ -8483,14 +8894,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="117"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>66</v>
@@ -8527,6 +8938,209 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6C61AC-6808-4D05-A3E0-62BAEAB507C1}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="114" customWidth="1"/>
+    <col min="6" max="7" width="11.5703125" style="114" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="114" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="114"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>681</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>682</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>683</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>686</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>677</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>678</v>
+      </c>
+      <c r="H12" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>679</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E14" s="114" t="s">
+        <v>699</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>696</v>
+      </c>
+      <c r="E15" s="114" t="s">
+        <v>699</v>
+      </c>
+      <c r="F15" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E16" s="114" t="s">
+        <v>699</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E17" s="114" t="s">
+        <v>699</v>
+      </c>
+      <c r="F17" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" t="s">
+        <v>702</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X123"/>
@@ -10051,12 +10665,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FF1C59-76E7-4A18-AAE9-1ADEF5675E10}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -10071,28 +10685,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="115" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="119">
+      <c r="D1" s="116">
         <v>2</v>
       </c>
-      <c r="E1" s="119">
+      <c r="E1" s="116">
         <v>3</v>
       </c>
-      <c r="F1" s="119">
+      <c r="F1" s="116">
         <v>4</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="115" t="s">
         <v>600</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="115" t="s">
         <v>601</v>
       </c>
     </row>
@@ -10759,7 +11373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362E4049-9F4E-45E8-AABC-5F47FA805C8C}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -10983,7 +11597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AB4D57-7F33-4DD3-9E96-0F67A44CDE38}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -11078,7 +11692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD038792-4E74-4758-AEC5-0CE81A98268E}">
   <dimension ref="A4:C25"/>
   <sheetViews>
@@ -11157,7 +11771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C3573A-0E80-4451-B722-6CF5C050FC48}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -11278,321 +11892,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="95" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="228.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C2" s="10" t="str">
-        <f>IF(B2="Home", "Away", IF(B2="Away", "Home",""))</f>
-        <v/>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>IF(B2="Us", "Team", IF(B2="Op", "Opp ",""))</f>
-        <v xml:space="preserve">Opp </v>
-      </c>
-      <c r="E2" s="10" t="str">
-        <f>IF(B2="Us", "Allowed", IF(B2="Op", "Scored ",""))</f>
-        <v xml:space="preserve">Scored </v>
-      </c>
-      <c r="G2" s="10">
-        <v>3</v>
-      </c>
-      <c r="H2" s="12" t="str">
-        <f>", (b.ShotsMade" &amp; B2 &amp; "RegPt" &amp; G2 &amp; " - IsNull(bL5.Q4Last1Min" &amp; B2 &amp; "Pt" &amp; G2 &amp; ", @LgAvgLastMinPt" &amp; G2 &amp; ") + @LgAvgLastMinPt" &amp; G2 &amp; ") * ( 1.0 + (( (r.TotalLine" &amp; D2 &amp; "  / b.ScoreReg" &amp; B2 &amp; " ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPct" &amp; E2 &amp; " - 1.0) * @BxScTmStrPct) AS AverageMade" &amp; B2 &amp; "Pt" &amp; G2</f>
-        <v>, (b.ShotsMadeopRegPt3 - IsNull(bL5.Q4Last1MinopPt3, @LgAvgLastMinPt3) + @LgAvgLastMinPt3) * ( 1.0 + (( (r.TotalLineOpp   / b.ScoreRegop ) - 1.0) * @BxScLinePct) ) * ( 1.0 + (ts.TeamStrengthBxScAdjPctScored  - 1.0) * @BxScTmStrPct) AS AverageMadeopPt3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="96" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="97" t="str">
-        <f>", dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt1, bL5.Q4Last1MinUsPt1, @LgAvgLastMinPt1, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt1"</f>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt1, bL5.Q4Last1MinUsPt1, @LgAvgLastMinPt1, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95" t="str">
-        <f t="shared" ref="E5:E10" si="0">IF($B5="Us", "Allowed", IF($B5="Op", "Scored ",""))</f>
-        <v>Allowed</v>
-      </c>
-      <c r="F5" s="95" t="str">
-        <f t="shared" ref="F5:F10" si="1">IF($B5="Us", "r", IF($B5="Op", "rOPP ",""))</f>
-        <v>r</v>
-      </c>
-      <c r="G5" s="95">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" ref="H5:H10" si="2">", dbo.udfCalcTM3BxScAdjedPts (b.ShotsMade" &amp; B5 &amp; "RegPt" &amp; G5 &amp; ", bL5.Q4Last1Min" &amp; B5 &amp; "Pt" &amp; G5 &amp; ", @LgAvgLastMinPt" &amp; G5 &amp; ", " &amp; F5 &amp; ".TotalLineTeam, b.ScoreReg" &amp; B5 &amp; ", @BxScLinePct, ts.TeamStrengthBxScAdjPct" &amp; E5 &amp; ", @BxScTmStrPct) AS AdjustedMade" &amp; B5 &amp; "Pt" &amp; G5</f>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt1, bL5.Q4Last1MinUsPt1, @LgAvgLastMinPt1, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>Allowed</v>
-      </c>
-      <c r="F6" s="95" t="str">
-        <f t="shared" si="1"/>
-        <v>r</v>
-      </c>
-      <c r="G6" s="95">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt2, bL5.Q4Last1MinUsPt2, @LgAvgLastMinPt2, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>Allowed</v>
-      </c>
-      <c r="F7" s="95" t="str">
-        <f t="shared" si="1"/>
-        <v>r</v>
-      </c>
-      <c r="G7" s="95">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeUsRegPt3, bL5.Q4Last1MinUsPt3, @LgAvgLastMinPt3, r.TotalLineTeam, b.ScoreRegUs, @BxScLinePct, ts.TeamStrengthBxScAdjPctAllowed, @BxScTmStrPct) AS AdjustedMadeUsPt3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Scored </v>
-      </c>
-      <c r="F8" s="95" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">rOPP </v>
-      </c>
-      <c r="G8" s="95">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeOpRegPt1, bL5.Q4Last1MinOpPt1, @LgAvgLastMinPt1, rOPP .TotalLineTeam, b.ScoreRegOp, @BxScLinePct, ts.TeamStrengthBxScAdjPctScored , @BxScTmStrPct) AS AdjustedMadeOpPt1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Scored </v>
-      </c>
-      <c r="F9" s="95" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">rOPP </v>
-      </c>
-      <c r="G9" s="95">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeOpRegPt2, bL5.Q4Last1MinOpPt2, @LgAvgLastMinPt2, rOPP .TotalLineTeam, b.ScoreRegOp, @BxScLinePct, ts.TeamStrengthBxScAdjPctScored , @BxScTmStrPct) AS AdjustedMadeOpPt2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Scored </v>
-      </c>
-      <c r="F10" s="95" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">rOPP </v>
-      </c>
-      <c r="G10" s="10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>, dbo.udfCalcTM3BxScAdjedPts (b.ShotsMadeOpRegPt3, bL5.Q4Last1MinOpPt3, @LgAvgLastMinPt3, rOPP .TotalLineTeam, b.ScoreRegOp, @BxScLinePct, ts.TeamStrengthBxScAdjPctScored , @BxScTmStrPct) AS AdjustedMadeOpPt3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="10" t="b">
-        <f>H$2 = H11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>3</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f>IF(B12="Home", "Away", IF(B12="Away", "Home",""))</f>
-        <v>Away</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <f>IF(B12="Us", "Team", IF(B12="Op", "Opp ",""))</f>
-        <v/>
-      </c>
-      <c r="E12" s="10" t="str">
-        <f>IF(B12="Us", "Allowed", IF(B12="Op", "Scored ",""))</f>
-        <v/>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="e">
-        <f>"     , @Pt" &amp; G12 &amp; " * t" &amp; B12 &amp; "GB" &amp;#REF! &amp; ".AverageMadeUsPt" &amp; G12 &amp; " * ( 1.0 + (( (t" &amp; C12 &amp; "GB10.AverageMadeOpPt" &amp; G12 &amp; " / @LgAvgShotsMade" &amp; C12 &amp; "Pt" &amp; G12 &amp; ") - 1.0 ) * @TmStrAdjPct) )   as Calc" &amp; B12 &amp; "GB" &amp;#REF! &amp; "Pt" &amp; G12 &amp; ""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="e">
-        <f>H$12=H13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="str">
-        <f>"     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1"</f>
-        <v xml:space="preserve">     , @Pt1 * tAwayGB1.AverageMadeUsPt1 * ( 1.0 + (( (tHomeGB10.AverageMadeOpPt1 / @LgAvgShotsMadeHomePt1) - 1.0 ) * @TmStrAdjPct) )   as CalcAwayGB1Pt1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10" t="e">
-        <f>H$12=H14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="10">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="10" t="e">
-        <f>H$12=H15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="10">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="10" t="b">
-        <f>H4=H10</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FFEB0-1D6A-4FE0-BA1C-7F1222AEDC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C0E65-E75C-46F8-9920-08B61E384162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54675" yWindow="570" windowWidth="27405" windowHeight="15015" tabRatio="831" activeTab="2" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="27750" yWindow="690" windowWidth="25200" windowHeight="14400" tabRatio="831" activeTab="3" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -22,24 +22,26 @@
     <sheet name="Adj Doc" sheetId="24" r:id="rId7"/>
     <sheet name="CalcGB4Pts" sheetId="25" r:id="rId8"/>
     <sheet name="LeagueInfo Rows" sheetId="21" r:id="rId9"/>
-    <sheet name="Templates" sheetId="4" r:id="rId10"/>
-    <sheet name="Instances" sheetId="20" r:id="rId11"/>
-    <sheet name="BSS Flow" sheetId="16" r:id="rId12"/>
-    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId13"/>
-    <sheet name="GameStatus" sheetId="19" r:id="rId14"/>
-    <sheet name="Avg Atmp" sheetId="14" r:id="rId15"/>
-    <sheet name="Post Gm" sheetId="13" r:id="rId16"/>
-    <sheet name="Migrate DB" sheetId="11" r:id="rId17"/>
-    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId18"/>
-    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId19"/>
-    <sheet name="BSS Update process" sheetId="17" r:id="rId20"/>
-    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId21"/>
-    <sheet name="BoxScore Columns" sheetId="15" r:id="rId22"/>
-    <sheet name="Bball Screenshot" sheetId="7" r:id="rId23"/>
+    <sheet name="U Lg Parms" sheetId="28" r:id="rId10"/>
+    <sheet name="Templates" sheetId="4" r:id="rId11"/>
+    <sheet name="Instances" sheetId="20" r:id="rId12"/>
+    <sheet name="BSS Flow" sheetId="16" r:id="rId13"/>
+    <sheet name="CalcProjectedPoints" sheetId="12" r:id="rId14"/>
+    <sheet name="GameStatus" sheetId="19" r:id="rId15"/>
+    <sheet name="Avg Atmp" sheetId="14" r:id="rId16"/>
+    <sheet name="Post Gm" sheetId="13" r:id="rId17"/>
+    <sheet name="Migrate DB" sheetId="11" r:id="rId18"/>
+    <sheet name="Prod Tables to Delete" sheetId="23" r:id="rId19"/>
+    <sheet name="OurTotalLine Calculations" sheetId="8" r:id="rId20"/>
+    <sheet name="BSS Update process" sheetId="17" r:id="rId21"/>
+    <sheet name="Last Season History Screenshot" sheetId="5" r:id="rId22"/>
+    <sheet name="BoxScore Columns" sheetId="15" r:id="rId23"/>
+    <sheet name="OldBball Screenshot" sheetId="7" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parms!$A$1:$H$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'U Lg Parms'!$B$1:$AL$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">uspCalcTodaysMatchups!$A$1:$K$119</definedName>
     <definedName name="AverageAllowedOpPts">CalcGB4Pts!$B$20</definedName>
     <definedName name="AverageMadeUsPts">CalcGB4Pts!$B$19</definedName>
@@ -211,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="743">
   <si>
     <t>Name</t>
   </si>
@@ -3148,6 +3150,120 @@
   </si>
   <si>
     <t>Wrapper - get ADJs, AdjNames, Teams</t>
+  </si>
+  <si>
+    <t>SQLEXPRESS2012</t>
+  </si>
+  <si>
+    <t>[00TTI_LeagueScores_10_03]</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>UserLeagueParmsID</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>TempRow</t>
+  </si>
+  <si>
+    <t>LgAvgStartDate</t>
+  </si>
+  <si>
+    <t>LgAvgGamesBack</t>
+  </si>
+  <si>
+    <t>TeamAvgGamesBack</t>
+  </si>
+  <si>
+    <t>TeamPaceGamesBack</t>
+  </si>
+  <si>
+    <t>TeamStrengthGamesBack</t>
+  </si>
+  <si>
+    <t>VolatilityGamesBack</t>
+  </si>
+  <si>
+    <t>TeamSeedGames</t>
+  </si>
+  <si>
+    <t>LoadRotationDaysAhead</t>
+  </si>
+  <si>
+    <t>GB1</t>
+  </si>
+  <si>
+    <t>GB2</t>
+  </si>
+  <si>
+    <t>GB3</t>
+  </si>
+  <si>
+    <t>WeightGB1</t>
+  </si>
+  <si>
+    <t>WeightGB2</t>
+  </si>
+  <si>
+    <t>WeightGB3</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>TMUPsWeightTeamStatGB1</t>
+  </si>
+  <si>
+    <t>TMUPsWeightTeamStatGB2</t>
+  </si>
+  <si>
+    <t>TMUPsWeightTeamStatGB3</t>
+  </si>
+  <si>
+    <t>TMUPsWeightLgAvgGB1</t>
+  </si>
+  <si>
+    <t>TMUPsWeightLgAvgGB2</t>
+  </si>
+  <si>
+    <t>TMUPsWeightLgAvgGB3</t>
+  </si>
+  <si>
+    <t>TodaysMUPsOppAdjPctPt1</t>
+  </si>
+  <si>
+    <t>TodaysMUPsOppAdjPctPt2</t>
+  </si>
+  <si>
+    <t>TodaysMUPsOppAdjPctPt3</t>
+  </si>
+  <si>
+    <t>RecentLgHistoryAdjPct</t>
+  </si>
+  <si>
+    <t>TeamPaceAdjPct</t>
+  </si>
+  <si>
+    <t>TeamAdjPct</t>
+  </si>
+  <si>
+    <t>BothHome_Away</t>
+  </si>
+  <si>
+    <t>BoxscoresSpanSeasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBA       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WNBA      </t>
   </si>
 </sst>
 </file>
@@ -3618,7 +3734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -3898,6 +4014,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4115,6 +4234,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>484714</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1636F9C6-43B3-4CFF-8D6B-919C1BB50FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952499" y="1524000"/>
+          <a:ext cx="3304115" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4383,7 +4551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4432,7 +4600,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4940,6 +5108,1960 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6202A8-46A5-4AC6-9702-E59BED3337C2}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:AL17"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AL5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:38" s="53" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="117" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="117" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1" s="117" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="117" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="117" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" s="117" t="s">
+        <v>711</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>712</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>715</v>
+      </c>
+      <c r="L1" s="117" t="s">
+        <v>716</v>
+      </c>
+      <c r="M1" s="117" t="s">
+        <v>717</v>
+      </c>
+      <c r="N1" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="O1" s="117" t="s">
+        <v>719</v>
+      </c>
+      <c r="P1" s="117" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q1" s="117" t="s">
+        <v>721</v>
+      </c>
+      <c r="R1" s="117" t="s">
+        <v>722</v>
+      </c>
+      <c r="S1" s="117" t="s">
+        <v>723</v>
+      </c>
+      <c r="T1" s="117" t="s">
+        <v>724</v>
+      </c>
+      <c r="U1" s="117" t="s">
+        <v>725</v>
+      </c>
+      <c r="V1" s="117" t="s">
+        <v>488</v>
+      </c>
+      <c r="W1" s="117" t="s">
+        <v>489</v>
+      </c>
+      <c r="X1" s="117" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y1" s="117" t="s">
+        <v>726</v>
+      </c>
+      <c r="Z1" s="117" t="s">
+        <v>727</v>
+      </c>
+      <c r="AA1" s="117" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB1" s="117" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC1" s="117" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD1" s="117" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE1" s="117" t="s">
+        <v>732</v>
+      </c>
+      <c r="AF1" s="117" t="s">
+        <v>733</v>
+      </c>
+      <c r="AG1" s="117" t="s">
+        <v>734</v>
+      </c>
+      <c r="AH1" s="117" t="s">
+        <v>735</v>
+      </c>
+      <c r="AI1" s="117" t="s">
+        <v>736</v>
+      </c>
+      <c r="AJ1" s="117" t="s">
+        <v>737</v>
+      </c>
+      <c r="AK1" s="117" t="s">
+        <v>738</v>
+      </c>
+      <c r="AL1" s="117" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" s="35">
+        <v>36526</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35">
+        <v>36526</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.5</v>
+      </c>
+      <c r="X2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AH2">
+        <v>0.2</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>740</v>
+      </c>
+      <c r="D3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E3" s="35">
+        <v>36526</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="35">
+        <v>36526</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AH3">
+        <v>0.2</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4" t="s">
+        <v>741</v>
+      </c>
+      <c r="E4" s="35">
+        <v>43466</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <v>0.7</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0.2</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>740</v>
+      </c>
+      <c r="D5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E5" s="35">
+        <v>43739</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <v>0.7</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0.2</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>740</v>
+      </c>
+      <c r="D6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E6" s="35">
+        <v>44075</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
+        <v>44058</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.5</v>
+      </c>
+      <c r="X6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AG6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AH6">
+        <v>0.2</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" t="s">
+        <v>741</v>
+      </c>
+      <c r="E7" s="35">
+        <v>44089</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>44075</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.5</v>
+      </c>
+      <c r="X7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AF7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AG7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AH7">
+        <v>0.2</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D8" t="s">
+        <v>741</v>
+      </c>
+      <c r="E8" s="35">
+        <v>44175</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0.67</v>
+      </c>
+      <c r="W8">
+        <v>0.1</v>
+      </c>
+      <c r="X8">
+        <v>0.2</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.2</v>
+      </c>
+      <c r="AF8">
+        <v>0.2</v>
+      </c>
+      <c r="AG8">
+        <v>0.2</v>
+      </c>
+      <c r="AH8">
+        <v>0.2</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D9" t="s">
+        <v>741</v>
+      </c>
+      <c r="E9" s="35">
+        <v>44191</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>0.1</v>
+      </c>
+      <c r="X9">
+        <v>0.2</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0.2</v>
+      </c>
+      <c r="AF9">
+        <v>0.2</v>
+      </c>
+      <c r="AG9">
+        <v>0.2</v>
+      </c>
+      <c r="AH9">
+        <v>0.2</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3004</v>
+      </c>
+      <c r="C10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" t="s">
+        <v>742</v>
+      </c>
+      <c r="E10" s="35">
+        <v>44317</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="35">
+        <v>36526</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>0.5</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+      <c r="X10">
+        <v>0.5</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0.5</v>
+      </c>
+      <c r="AF10">
+        <v>0.5</v>
+      </c>
+      <c r="AG10">
+        <v>0.5</v>
+      </c>
+      <c r="AH10">
+        <v>0.2</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>0.25</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>740</v>
+      </c>
+      <c r="D11" t="s">
+        <v>741</v>
+      </c>
+      <c r="E11" s="35">
+        <v>44197</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>0.5</v>
+      </c>
+      <c r="W11">
+        <v>0.7</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0.2</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0.5</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3006</v>
+      </c>
+      <c r="C12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D12" t="s">
+        <v>741</v>
+      </c>
+      <c r="E12" s="35">
+        <v>44470</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+      <c r="W12">
+        <v>0.7</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0.2</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0.5</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D13" t="s">
+        <v>741</v>
+      </c>
+      <c r="E13" s="35">
+        <v>44475</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>0.5</v>
+      </c>
+      <c r="W13">
+        <v>0.7</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0.2</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>0.5</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>740</v>
+      </c>
+      <c r="D14" t="s">
+        <v>741</v>
+      </c>
+      <c r="E14" s="35">
+        <v>44490</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
+        <v>0.2</v>
+      </c>
+      <c r="X14">
+        <v>0.19</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0.61</v>
+      </c>
+      <c r="AF14">
+        <v>0.42</v>
+      </c>
+      <c r="AG14">
+        <v>0.23</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4007</v>
+      </c>
+      <c r="C15" t="s">
+        <v>740</v>
+      </c>
+      <c r="D15" t="s">
+        <v>741</v>
+      </c>
+      <c r="E15" s="35">
+        <v>44505</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <v>0.2</v>
+      </c>
+      <c r="X15">
+        <v>0.19</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0.61</v>
+      </c>
+      <c r="AF15">
+        <v>0.42</v>
+      </c>
+      <c r="AG15">
+        <v>0.23</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4008</v>
+      </c>
+      <c r="C16" t="s">
+        <v>740</v>
+      </c>
+      <c r="D16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E16" s="35">
+        <v>44510</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>0.5</v>
+      </c>
+      <c r="W16">
+        <v>0.2</v>
+      </c>
+      <c r="X16">
+        <v>0.19</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+      <c r="AA16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0.61</v>
+      </c>
+      <c r="AF16">
+        <v>0.42</v>
+      </c>
+      <c r="AG16">
+        <v>0.23</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>4009</v>
+      </c>
+      <c r="C17" t="s">
+        <v>740</v>
+      </c>
+      <c r="D17" t="s">
+        <v>741</v>
+      </c>
+      <c r="E17" s="35">
+        <v>44516</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>43831</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>0.5</v>
+      </c>
+      <c r="W17">
+        <v>0.2</v>
+      </c>
+      <c r="X17">
+        <v>0.19</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0.61</v>
+      </c>
+      <c r="AF17">
+        <v>0.42</v>
+      </c>
+      <c r="AG17">
+        <v>0.23</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:AL17" xr:uid="{AA6202A8-46A5-4AC6-9702-E59BED3337C2}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="NBA"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AL17">
+      <sortCondition ref="E5:E17"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E650A-A4C9-42F1-A3FE-9B02617AD2A4}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H17"/>
@@ -5256,12 +7378,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65609CE-B781-4EAF-B192-7D5E63B245CA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,6 +7393,7 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -5358,13 +7481,100 @@
         <v>424</v>
       </c>
     </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>517</v>
+      </c>
+      <c r="F22">
+        <v>2021</v>
+      </c>
+      <c r="G22">
+        <v>1920</v>
+      </c>
+      <c r="H22">
+        <v>1819</v>
+      </c>
+      <c r="I22">
+        <v>1718</v>
+      </c>
+      <c r="J22">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23">
+        <v>1495</v>
+      </c>
+      <c r="H23">
+        <v>2823</v>
+      </c>
+      <c r="I23">
+        <v>2589</v>
+      </c>
+      <c r="J23">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" t="s">
+        <v>441</v>
+      </c>
+      <c r="G24">
+        <v>1685</v>
+      </c>
+      <c r="H24" t="s">
+        <v>441</v>
+      </c>
+      <c r="I24">
+        <v>2898</v>
+      </c>
+      <c r="J24">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F26" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="35">
+        <v>43388</v>
+      </c>
+      <c r="F27" s="35">
+        <v>43629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318111E-043A-493E-A035-193861F809F6}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I5"/>
@@ -5514,7 +7724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F1763-2684-48C3-A7E4-9194ED800D2A}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A3:M17"/>
@@ -5710,7 +7920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80864BBB-D57C-4872-9528-539D35F75495}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:W53"/>
@@ -5844,7 +8054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>402</v>
       </c>
@@ -6310,7 +8520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA054234-7E0D-4664-8686-43EE406DF08B}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:E5"/>
@@ -6408,7 +8618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56197CAD-6F82-4F44-8E32-9D17A9159C60}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:O5"/>
@@ -6424,11 +8634,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6478,7 +8688,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="118" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -6489,7 +8699,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="117"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="10" t="s">
         <v>291</v>
       </c>
@@ -6498,7 +8708,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="117"/>
+      <c r="B5" s="118"/>
       <c r="C5" s="10" t="s">
         <v>292</v>
       </c>
@@ -6515,7 +8725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715451AB-D7A2-4155-AA80-E7E1839EA9EB}">
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:E95"/>
@@ -7998,7 +10208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A5C7EC-EF5B-47DA-AE1B-CF3EEA06F69E}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -8034,67 +10244,6 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8225,6 +10374,67 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB6D801-3E13-4E99-8E4E-00DE466D45BE}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F968386-0DC8-4BEE-BB1E-0C17B7C52875}">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E13"/>
@@ -8393,7 +10603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171E99EC-4E48-4A0D-9949-97CC135E53EA}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1"/>
@@ -8409,12 +10619,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22086FA-BC76-4860-9395-82D35EE90630}">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A2:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8774,13 +10984,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A09DBAA-B5E4-4F0C-9A47-53EEACDA4F1F}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8874,7 +11084,7 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="119" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -8885,7 +11095,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="20" t="s">
         <v>68</v>
       </c>
@@ -8894,14 +11104,14 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="119"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="21"/>
       <c r="C30" s="24" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17" t="s">
         <v>66</v>
@@ -8941,7 +11151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6C61AC-6808-4D05-A3E0-62BAEAB507C1}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -9145,8 +11355,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>

--- a/BballMVC/_Documentation/Bball SQL.xlsx
+++ b/BballMVC/_Documentation/Bball SQL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45C0E65-E75C-46F8-9920-08B61E384162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D570FD3-74F0-4E53-8FE8-6EBF820EF9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27750" yWindow="690" windowWidth="25200" windowHeight="14400" tabRatio="831" activeTab="3" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
+    <workbookView xWindow="27195" yWindow="660" windowWidth="25200" windowHeight="14400" tabRatio="831" activeTab="3" xr2:uid="{3CF9E211-50E1-4178-837C-51B36022A708}"/>
   </bookViews>
   <sheets>
     <sheet name="SPs" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Migrate DB'!$A$1:$E$95</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parms!$A$1:$H$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'U Lg Parms'!$B$1:$AL$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">uspCalcTodaysMatchups!$A$1:$K$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">uspCalcTodaysMatchups!$A$1:$M$102</definedName>
     <definedName name="AverageAllowedOpPts">CalcGB4Pts!$B$20</definedName>
     <definedName name="AverageMadeUsPts">CalcGB4Pts!$B$19</definedName>
     <definedName name="BxScLinePct">'Curve %'!$C$2</definedName>
@@ -97,7 +97,7 @@
     <author>Keith</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EE2F014B-DBE2-400B-A0C1-F919CB6A0134}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{EE2F014B-DBE2-400B-A0C1-F919CB6A0134}">
       <text>
         <r>
           <rPr>
@@ -111,7 +111,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="G46" authorId="0" shapeId="0" xr:uid="{E87E8845-7127-490F-A019-21205554E175}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{2496C311-CD5B-4CD1-91AA-F321EFFFB4A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rotation &amp; TodaysMatchups are to retrived OurTotalLine or default to Rotation.TotalLine</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{AEBF64B0-4DE0-462D-ABFB-695BF2D72612}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rotation for Lines, TmStr for TmStrPtsOpp Scored / Allowed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{E87E8845-7127-490F-A019-21205554E175}">
       <text>
         <r>
           <rPr>
@@ -213,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="752">
   <si>
     <t>Name</t>
   </si>
@@ -2643,16 +2671,10 @@
     <t>uspCalcTM3InsertTeamStatsAveragesRows - 22 Parms</t>
   </si>
   <si>
-    <t>uspQueryTM3TeamStatAveragesUnion - 19 Parms</t>
-  </si>
-  <si>
     <t>3.3.1</t>
   </si>
   <si>
     <t>@GB1-3, Aw/Hm, 0/1, @TeamAway/@TeamHome</t>
-  </si>
-  <si>
-    <t>uspQueryTM3TeamStatAverages - 19 Parms</t>
   </si>
   <si>
     <t>INSERT INTO TeamStatsAverages - 28 columns</t>
@@ -3265,6 +3287,51 @@
   <si>
     <t xml:space="preserve">WNBA      </t>
   </si>
+  <si>
+    <t>SP /UDFs</t>
+  </si>
+  <si>
+    <t>Sec #</t>
+  </si>
+  <si>
+    <t>Decommissioned</t>
+  </si>
+  <si>
+    <t>BoxScores, Rotation &amp; TodaysMatchups</t>
+  </si>
+  <si>
+    <t>BoxScores, Rotation &amp; TeamStrength</t>
+  </si>
+  <si>
+    <t>uspCalcTM3InsertTeamStatsAveragesRows</t>
+  </si>
+  <si>
+    <t>uspCalcTM3TeamStatAveragesUnion - 19 Parms</t>
+  </si>
+  <si>
+    <r>
+      <t>uspCalcTM3TeamStatAverages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Union</t>
+    </r>
+  </si>
+  <si>
+    <t>uspCalcTM3TeamStatAverages - 19 Parms</t>
+  </si>
+  <si>
+    <t>uspCalcTM3TeamStatAverages</t>
+  </si>
+  <si>
+    <t>BxSc, Rot, TmStr, L5Min</t>
+  </si>
 </sst>
 </file>
 
@@ -3273,7 +3340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3437,6 +3504,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3734,7 +3808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -4029,6 +4103,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4051,13 +4132,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>381649</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133475</xdr:rowOff>
@@ -4095,13 +4176,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>295912</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133523</xdr:rowOff>
@@ -4139,13 +4220,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>86418</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95343</xdr:rowOff>
@@ -5126,10 +5207,10 @@
   <sheetData>
     <row r="1" spans="2:38" s="53" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="117" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D1" s="117" t="s">
         <v>294</v>
@@ -5138,52 +5219,52 @@
         <v>427</v>
       </c>
       <c r="F1" s="117" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1" s="117" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1" s="117" t="s">
         <v>710</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="I1" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="J1" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="K1" s="117" t="s">
         <v>713</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="L1" s="117" t="s">
         <v>714</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="M1" s="117" t="s">
         <v>715</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="N1" s="117" t="s">
         <v>716</v>
       </c>
-      <c r="M1" s="117" t="s">
+      <c r="O1" s="117" t="s">
         <v>717</v>
       </c>
-      <c r="N1" s="117" t="s">
+      <c r="P1" s="117" t="s">
         <v>718</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="Q1" s="117" t="s">
         <v>719</v>
       </c>
-      <c r="P1" s="117" t="s">
+      <c r="R1" s="117" t="s">
         <v>720</v>
       </c>
-      <c r="Q1" s="117" t="s">
+      <c r="S1" s="117" t="s">
         <v>721</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="T1" s="117" t="s">
         <v>722</v>
       </c>
-      <c r="S1" s="117" t="s">
+      <c r="U1" s="117" t="s">
         <v>723</v>
-      </c>
-      <c r="T1" s="117" t="s">
-        <v>724</v>
-      </c>
-      <c r="U1" s="117" t="s">
-        <v>725</v>
       </c>
       <c r="V1" s="117" t="s">
         <v>488</v>
@@ -5195,46 +5276,46 @@
         <v>490</v>
       </c>
       <c r="Y1" s="117" t="s">
+        <v>724</v>
+      </c>
+      <c r="Z1" s="117" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA1" s="117" t="s">
         <v>726</v>
       </c>
-      <c r="Z1" s="117" t="s">
+      <c r="AB1" s="117" t="s">
         <v>727</v>
       </c>
-      <c r="AA1" s="117" t="s">
+      <c r="AC1" s="117" t="s">
         <v>728</v>
       </c>
-      <c r="AB1" s="117" t="s">
+      <c r="AD1" s="117" t="s">
         <v>729</v>
       </c>
-      <c r="AC1" s="117" t="s">
+      <c r="AE1" s="117" t="s">
         <v>730</v>
       </c>
-      <c r="AD1" s="117" t="s">
+      <c r="AF1" s="117" t="s">
         <v>731</v>
       </c>
-      <c r="AE1" s="117" t="s">
+      <c r="AG1" s="117" t="s">
         <v>732</v>
       </c>
-      <c r="AF1" s="117" t="s">
+      <c r="AH1" s="117" t="s">
         <v>733</v>
       </c>
-      <c r="AG1" s="117" t="s">
+      <c r="AI1" s="117" t="s">
         <v>734</v>
       </c>
-      <c r="AH1" s="117" t="s">
+      <c r="AJ1" s="117" t="s">
         <v>735</v>
       </c>
-      <c r="AI1" s="117" t="s">
+      <c r="AK1" s="117" t="s">
         <v>736</v>
       </c>
-      <c r="AJ1" s="117" t="s">
+      <c r="AL1" s="117" t="s">
         <v>737</v>
-      </c>
-      <c r="AK1" s="117" t="s">
-        <v>738</v>
-      </c>
-      <c r="AL1" s="117" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="2" spans="2:38" x14ac:dyDescent="0.25">
@@ -5242,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E2" s="35">
         <v>36526</v>
@@ -5355,10 +5436,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D3" t="s">
         <v>740</v>
-      </c>
-      <c r="D3" t="s">
-        <v>742</v>
       </c>
       <c r="E3" s="35">
         <v>36526</v>
@@ -5468,10 +5549,10 @@
         <v>4010</v>
       </c>
       <c r="C4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E4" s="35">
         <v>43466</v>
@@ -5581,10 +5662,10 @@
         <v>4011</v>
       </c>
       <c r="C5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E5" s="35">
         <v>43739</v>
@@ -5694,10 +5775,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E6" s="35">
         <v>44075</v>
@@ -5807,10 +5888,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E7" s="35">
         <v>44089</v>
@@ -5920,10 +6001,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D8" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E8" s="35">
         <v>44175</v>
@@ -6033,10 +6114,10 @@
         <v>1001</v>
       </c>
       <c r="C9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E9" s="35">
         <v>44191</v>
@@ -6146,10 +6227,10 @@
         <v>3004</v>
       </c>
       <c r="C10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" t="s">
         <v>740</v>
-      </c>
-      <c r="D10" t="s">
-        <v>742</v>
       </c>
       <c r="E10" s="35">
         <v>44317</v>
@@ -6259,10 +6340,10 @@
         <v>1003</v>
       </c>
       <c r="C11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E11" s="35">
         <v>44197</v>
@@ -6372,10 +6453,10 @@
         <v>3006</v>
       </c>
       <c r="C12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E12" s="35">
         <v>44470</v>
@@ -6485,10 +6566,10 @@
         <v>3005</v>
       </c>
       <c r="C13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E13" s="35">
         <v>44475</v>
@@ -6598,10 +6679,10 @@
         <v>4005</v>
       </c>
       <c r="C14" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D14" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E14" s="35">
         <v>44490</v>
@@ -6711,10 +6792,10 @@
         <v>4007</v>
       </c>
       <c r="C15" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D15" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E15" s="35">
         <v>44505</v>
@@ -6824,10 +6905,10 @@
         <v>4008</v>
       </c>
       <c r="C16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D16" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E16" s="35">
         <v>44510</v>
@@ -6937,10 +7018,10 @@
         <v>4009</v>
       </c>
       <c r="C17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E17" s="35">
         <v>44516</v>
@@ -7483,12 +7564,12 @@
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
@@ -7556,7 +7637,7 @@
         <v>427</v>
       </c>
       <c r="F26" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
@@ -11169,36 +11250,36 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="44"/>
       <c r="B1" s="44" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D1" s="44" t="s">
+        <v>686</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I2" s="114" t="s">
         <v>250</v>
@@ -11206,7 +11287,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I3" s="114" t="s">
         <v>250</v>
@@ -11214,7 +11295,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I4" s="114" t="s">
         <v>250</v>
@@ -11222,7 +11303,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F5" s="114" t="s">
         <v>250</v>
@@ -11230,7 +11311,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H6" s="114" t="s">
         <v>250</v>
@@ -11238,12 +11319,12 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J8" s="114" t="s">
         <v>250</v>
@@ -11251,12 +11332,12 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H10" s="114" t="s">
         <v>250</v>
@@ -11264,7 +11345,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H11" s="114" t="s">
         <v>250</v>
@@ -11272,7 +11353,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H12" s="114" t="s">
         <v>250</v>
@@ -11280,7 +11361,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E13" s="114" t="s">
         <v>250</v>
@@ -11291,10 +11372,10 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E14" s="114" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F14" s="114" t="s">
         <v>250</v>
@@ -11302,10 +11383,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E15" s="114" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F15" s="114" t="s">
         <v>250</v>
@@ -11313,10 +11394,10 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E16" s="114" t="s">
         <v>697</v>
-      </c>
-      <c r="E16" s="114" t="s">
-        <v>699</v>
       </c>
       <c r="F16" s="114" t="s">
         <v>250</v>
@@ -11324,10 +11405,10 @@
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E17" s="114" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F17" s="114" t="s">
         <v>250</v>
@@ -11335,13 +11416,13 @@
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -11353,1521 +11434,1902 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:X123"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
-    <col min="24" max="24" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
+        <v>742</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
+        <v>741</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="F1" s="51" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="M1" s="53" t="str">
+        <f>"SELECT  max(GameDate) as " &amp; G1 &amp; "MaxDate FROM " &amp; G1</f>
+        <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="112"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="W11" t="s">
+        <v>159</v>
+      </c>
+      <c r="X11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>497</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>498</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>498</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>499</v>
+      </c>
+      <c r="I14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="111" t="s">
+        <v>391</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="111" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I20" t="s">
+        <v>367</v>
+      </c>
+      <c r="J20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="E21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1.6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>596</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" s="53" t="str">
-        <f>"SELECT  max(GameDate) as " &amp; E1 &amp; "MaxDate FROM " &amp; E1</f>
-        <v>SELECT  max(GameDate) as Table OutMaxDate FROM Table Out</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="14" t="s">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1.7</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1.8</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" t="s">
+        <v>593</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="L27" s="41" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1.9</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="B5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="112"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>106</v>
-      </c>
-      <c r="W9" t="s">
-        <v>163</v>
-      </c>
-      <c r="X9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="U10" t="s">
-        <v>160</v>
-      </c>
-      <c r="W10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11" t="s">
-        <v>159</v>
-      </c>
-      <c r="V11" t="s">
-        <v>161</v>
-      </c>
-      <c r="W11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="110" t="s">
-        <v>497</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>497</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="W12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="110" t="s">
-        <v>498</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>498</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="110" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" s="110" t="s">
-        <v>499</v>
-      </c>
-      <c r="G14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="109" t="s">
-        <v>442</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="111" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="111" t="s">
-        <v>391</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="111" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G20" t="s">
-        <v>367</v>
-      </c>
-      <c r="H20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="C21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="113" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1.6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1.7</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1.8</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" t="s">
-        <v>278</v>
-      </c>
-      <c r="F27" t="s">
-        <v>595</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="J27" s="41" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1.9</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="13" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="13" t="s">
+      <c r="H29" s="30"/>
+      <c r="I29" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="J29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="45"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="K29" s="13"/>
+      <c r="L29" s="45"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="45"/>
-      <c r="M30" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="45"/>
+      <c r="O30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="G31" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="I31" t="s">
         <v>367</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="G32" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="I32" t="s">
         <v>367</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="C33" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="J33" s="41" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="L33" s="41" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="37">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>367</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>390</v>
       </c>
-      <c r="J36" s="41" t="s">
+      <c r="L36" s="41" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" t="s">
+      <c r="H37" s="14"/>
+      <c r="I37" t="s">
         <v>427</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s">
+      <c r="D38" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" t="s">
         <v>105</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
+        <v>593</v>
+      </c>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="48">
         <v>2</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="G41" t="s">
+      <c r="B41" s="48">
+        <v>2</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="I41" t="s">
         <v>274</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>392</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="K41" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="I44" t="s">
+      <c r="D44" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="K44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="14"/>
+      <c r="E45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="14" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" t="s">
+      <c r="D46" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" t="s">
         <v>42</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="G47" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="I47" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="48">
         <v>3</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="48">
+        <v>3</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="48">
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="48">
         <v>3.1</v>
       </c>
-      <c r="B50" s="99" t="s">
+      <c r="C50" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="C50" s="30">
+      <c r="D50" s="124" t="s">
+        <v>746</v>
+      </c>
+      <c r="E50" s="30">
         <v>22</v>
       </c>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="48">
         <v>3.1</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51">
+      <c r="C51" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51">
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="48">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" s="48">
         <v>3.2</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="C52" s="98" t="s">
+        <v>747</v>
+      </c>
+      <c r="D52" s="123" t="s">
+        <v>748</v>
+      </c>
+      <c r="E52" s="30">
+        <v>19</v>
+      </c>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="48">
+        <v>3.2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" s="48">
+        <v>3.3</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>749</v>
+      </c>
+      <c r="D55" s="123" t="s">
+        <v>750</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="C52" s="30">
-        <v>19</v>
-      </c>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="48">
+      <c r="C56" s="100" t="s">
+        <v>562</v>
+      </c>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>3.1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
         <v>3.2</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
-        <v>3.2</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="48">
-        <v>3.3</v>
-      </c>
-      <c r="B55" s="101" t="s">
-        <v>564</v>
-      </c>
-      <c r="C55" s="30">
-        <v>19</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="B56" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>3.1</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>3.2</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="C61" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="14"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="33" t="s">
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" t="s">
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="33" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="34" t="s">
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="K64" t="s">
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="M64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="34" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="C65" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="33" t="s">
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="C66" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="34" t="s">
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="C67" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="48">
         <v>4</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="48">
+        <v>4</v>
+      </c>
+      <c r="C68" s="50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
         <v>4.2</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>153</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
         <v>4.3</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>154</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="31">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" s="31">
         <v>4.3099999999999996</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>155</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="26" t="s">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
         <v>4.32</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="C76" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-    </row>
-    <row r="77" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="26" t="s">
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="C77" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="I77" t="s">
+      <c r="D77" t="s">
         <v>267</v>
       </c>
-      <c r="J77" s="41" t="s">
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="K77" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L77" s="41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
         <v>4.33</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="C78" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="14" t="s">
+      <c r="D79" s="14"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="58" t="s">
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="C81" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="58" t="s">
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="C82" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="58" t="s">
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="C83" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="62" t="s">
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="C85" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="62" t="s">
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="C86" s="62" t="s">
         <v>460</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
       <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="62" t="s">
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="C87" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B88" s="62" t="s">
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="C88" s="62" t="s">
         <v>462</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="62" t="s">
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="C89" s="62" t="s">
         <v>463</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="62" t="s">
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="C90" s="62" t="s">
         <v>464</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="63" t="s">
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="C91" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
-      <c r="J91"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="63" t="s">
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="C92" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="E92" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
-      <c r="J92"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="63" t="s">
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="C93" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
-      <c r="J93"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="62" t="s">
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="C94" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="C94" s="14"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14"/>
       <c r="G94" s="14"/>
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
-      <c r="J94"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="62" t="s">
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="C95" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="63" t="s">
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="C96" s="63" t="s">
         <v>465</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
-      <c r="J96"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="63" t="s">
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="C97" s="63" t="s">
         <v>471</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="E97" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="63" t="s">
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="C98" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="63" t="s">
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="C99" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14"/>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="63" t="s">
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="L99"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="C100" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="62" t="s">
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="L100"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="C101" s="62" t="s">
         <v>475</v>
       </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
+      <c r="D101" s="14"/>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="62" t="s">
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="C102" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B105">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="58" t="s">
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C106" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="59"/>
       <c r="H106" s="59"/>
       <c r="I106" s="59"/>
       <c r="J106" s="59"/>
-      <c r="K106" s="60"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="58" t="s">
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="60"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C107" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
+      <c r="D107" s="59"/>
       <c r="G107" s="59"/>
       <c r="H107" s="59"/>
       <c r="I107" s="59"/>
       <c r="J107" s="59"/>
-      <c r="K107" s="60"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="58" t="s">
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="60"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C108" s="58" t="s">
         <v>449</v>
       </c>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="59"/>
       <c r="H108" s="59"/>
       <c r="I108" s="59"/>
       <c r="J108" s="59"/>
-      <c r="K108" s="60"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="58" t="s">
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="60"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C109" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
       <c r="G109" s="59"/>
       <c r="H109" s="59"/>
       <c r="I109" s="59"/>
       <c r="J109" s="59"/>
-      <c r="K109" s="60"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="59" t="s">
+      <c r="K109" s="59"/>
+      <c r="L109" s="59"/>
+      <c r="M109" s="60"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C110" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
       <c r="I110" s="59"/>
       <c r="J110" s="59"/>
-      <c r="K110" s="60" t="s">
+      <c r="K110" s="59"/>
+      <c r="L110" s="59"/>
+      <c r="M110" s="60" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="58" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C111" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
       <c r="G111" s="59"/>
       <c r="H111" s="59"/>
       <c r="I111" s="59"/>
       <c r="J111" s="59"/>
-      <c r="K111" s="60"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="58" t="s">
+      <c r="K111" s="59"/>
+      <c r="L111" s="59"/>
+      <c r="M111" s="60"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C112" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
+      <c r="D112" s="59"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="58"/>
       <c r="G112" s="59"/>
       <c r="H112" s="59"/>
       <c r="I112" s="59"/>
       <c r="J112" s="59"/>
-      <c r="K112" s="60"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="58" t="s">
+      <c r="K112" s="59"/>
+      <c r="L112" s="59"/>
+      <c r="M112" s="60"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C113" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="58"/>
       <c r="G113" s="59"/>
-      <c r="H113" s="61" t="s">
+      <c r="H113" s="59"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="I113" s="59"/>
-      <c r="J113" s="59"/>
-      <c r="K113" s="60"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="K113" s="59"/>
+      <c r="L113" s="59"/>
+      <c r="M113" s="60"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114">
         <v>4.3499999999999996</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="57" t="s">
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C115" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="64" t="s">
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C116" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="57" t="s">
+      <c r="K116" s="14"/>
+      <c r="L116" s="14"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C117" s="57" t="s">
         <v>446</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
+      <c r="K118" s="14"/>
+      <c r="L118" s="14"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" t="s">
         <v>40</v>
       </c>
-      <c r="K119" t="str">
-        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; E119</f>
+      <c r="M119" t="str">
+        <f>"SELECT  max(GameDate) as MaxDate FROM " &amp; G119</f>
         <v>SELECT  max(GameDate) as MaxDate FROM TodaysMatchups</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="2"/>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="E122" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="14"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B123" s="30" t="s">
+      <c r="F122" s="14"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C123" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C123" t="s">
+      <c r="E123" t="s">
         <v>252</v>
       </c>
-      <c r="E123" t="s">
+      <c r="G123" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K119" xr:uid="{A7814D99-45DC-4222-B9C2-8A06FBE29E7B}"/>
+  <autoFilter ref="A1:M102" xr:uid="{B0274D91-97AE-4EB7-A37C-618C93529D3A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12896,7 +13358,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="115" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B1" s="115" t="s">
         <v>348</v>
@@ -12914,18 +13376,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H1" s="115" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D2" t="s">
         <v>250</v>
@@ -12934,15 +13396,15 @@
         <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
         <v>250</v>
@@ -12951,143 +13413,143 @@
         <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G20" t="s">
         <v>509</v>
@@ -13098,52 +13560,52 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E21" t="s">
         <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E22" t="s">
         <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E23" t="s">
         <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B24" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F24" t="s">
         <v>250</v>
@@ -13154,10 +13616,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F25" t="s">
         <v>250</v>
@@ -13168,10 +13630,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F26" t="s">
         <v>250</v>
@@ -13182,10 +13644,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B27" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F27" t="s">
         <v>250</v>
@@ -13196,10 +13658,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B28" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
@@ -13214,15 +13676,15 @@
         <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B29" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C29" t="s">
         <v>272</v>
@@ -13231,15 +13693,15 @@
         <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B30" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C30" t="s">
         <v>272</v>
@@ -13251,32 +13713,32 @@
         <v>250</v>
       </c>
       <c r="G30" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B31" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E31" t="s">
         <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D32" t="s">
         <v>250</v>
@@ -13285,18 +13747,18 @@
         <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B33" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>275</v>
@@ -13304,10 +13766,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B34" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E34" t="s">
         <v>250</v>
@@ -13316,259 +13778,259 @@
         <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B35" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D35" t="s">
         <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D36" t="s">
         <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B37" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B39" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E39" t="s">
         <v>250</v>
       </c>
       <c r="G39" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B40" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E40" t="s">
         <v>250</v>
       </c>
       <c r="G40" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B41" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E41" t="s">
         <v>250</v>
       </c>
       <c r="G41" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B42" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E42" t="s">
         <v>250</v>
       </c>
       <c r="G42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B43" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B44" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B45" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B46" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B47" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B48" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B49" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B50" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B51" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B52" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B53" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B54" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B55" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B56" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B57" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B58" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B59" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B60" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B61" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -13826,36 +14288,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>566</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="D1" s="102" t="s">
         <v>567</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>568</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>569</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>571</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13863,10 +14325,10 @@
         <v>488</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E3" s="105" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -13874,10 +14336,10 @@
         <v>489</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
@@ -13885,16 +14347,16 @@
         <v>490</v>
       </c>
       <c r="B5" s="107" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="108" t="s">
         <v>578</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="D5" s="107" t="s">
-        <v>578</v>
-      </c>
-      <c r="E5" s="108" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -13917,15 +14379,15 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -13933,7 +14395,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -13941,7 +14403,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -13949,7 +14411,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -13957,7 +14419,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B22">
         <v>1</v>
